--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB6BBC-EA00-404B-A69B-231C1C03143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90893848-4976-4CF0-9694-0FDE6CBB0129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Dados" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId11"/>
+    <pivotCache cacheId="54" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -549,7 +549,2083 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1517">
+  <dxfs count="2129">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -5880,7 +7956,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.380893634261" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.391597453701" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -6268,16 +8344,16 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="150" maxValue="840"/>
     </cacheField>
     <cacheField name="Reps" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="36" maxValue="630"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="770"/>
     </cacheField>
     <cacheField name="Tempo CP (s)" numFmtId="41">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="84" maxValue="840"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="75" maxValue="840"/>
     </cacheField>
     <cacheField name="Tempo P. (s)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="228"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="277"/>
     </cacheField>
     <cacheField name="Tempo Final (s)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1068"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1117"/>
     </cacheField>
     <cacheField name="Tempo Final (min)" numFmtId="41">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -6682,13 +8758,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="105"/>
+    <n v="0"/>
+    <n v="105"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="17"/>
@@ -6705,13 +8781,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="121"/>
+    <n v="0"/>
+    <n v="121"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="19"/>
@@ -6728,13 +8804,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="91"/>
+    <n v="0"/>
+    <n v="91"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="20"/>
@@ -6751,13 +8827,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="122"/>
+    <n v="0"/>
+    <n v="122"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <m/>
@@ -6774,13 +8850,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="75"/>
+    <n v="0"/>
+    <n v="75"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -6797,13 +8873,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="132"/>
+    <n v="0"/>
+    <n v="132"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
   </r>
   <r>
     <n v="21"/>
@@ -6820,13 +8896,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="122"/>
+    <n v="0"/>
+    <n v="122"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="23"/>
@@ -6843,13 +8919,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="104"/>
+    <n v="0"/>
+    <n v="104"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="24"/>
@@ -7924,13 +10000,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="630"/>
+    <n v="840"/>
+    <n v="140"/>
+    <n v="980"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="86"/>
@@ -7947,13 +10023,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="493"/>
+    <n v="840"/>
+    <n v="277"/>
+    <n v="1117"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
   </r>
   <r>
     <n v="87"/>
@@ -7970,13 +10046,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="716"/>
+    <n v="840"/>
+    <n v="54"/>
+    <n v="894"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="88"/>
@@ -7993,13 +10069,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="652"/>
+    <n v="840"/>
+    <n v="118"/>
+    <n v="958"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="89"/>
@@ -8016,13 +10092,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="770"/>
+    <n v="834"/>
+    <n v="0"/>
+    <n v="834"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="90"/>
@@ -8039,13 +10115,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="573"/>
+    <n v="840"/>
+    <n v="197"/>
+    <n v="1037"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="91"/>
@@ -8062,13 +10138,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="736"/>
+    <n v="840"/>
+    <n v="34"/>
+    <n v="874"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="94"/>
@@ -8085,13 +10161,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="700"/>
+    <n v="840"/>
+    <n v="70"/>
+    <n v="910"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="95"/>
@@ -12513,7 +14589,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -12977,61 +15053,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="1508">
+    <format dxfId="2120">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1507">
+    <format dxfId="2119">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1506">
+    <format dxfId="2118">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1505">
+    <format dxfId="2117">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1504">
+    <format dxfId="2116">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1503">
+    <format dxfId="2115">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1502">
+    <format dxfId="2114">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1501">
+    <format dxfId="2113">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1500">
+    <format dxfId="2112">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1499">
+    <format dxfId="2111">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1498">
+    <format dxfId="2110">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1497">
+    <format dxfId="2109">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1496">
+    <format dxfId="2108">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1495">
+    <format dxfId="2107">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1494">
+    <format dxfId="2106">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1493">
+    <format dxfId="2105">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1492">
+    <format dxfId="2104">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1491">
+    <format dxfId="2103">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1490">
+    <format dxfId="2102">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13040,7 +15116,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1489">
+    <format dxfId="2101">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13049,7 +15125,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1488">
+    <format dxfId="2100">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13058,7 +15134,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1487">
+    <format dxfId="2099">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13067,7 +15143,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1486">
+    <format dxfId="2098">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13076,7 +15152,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1485">
+    <format dxfId="2097">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13085,7 +15161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1484">
+    <format dxfId="2096">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13094,7 +15170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1483">
+    <format dxfId="2095">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13103,7 +15179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1482">
+    <format dxfId="2094">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13112,31 +15188,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1481">
+    <format dxfId="2093">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1480">
+    <format dxfId="2092">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1479">
+    <format dxfId="2091">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1478">
+    <format dxfId="2090">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1477">
+    <format dxfId="2089">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13153,7 +15229,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -13599,61 +15675,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1476">
+    <format dxfId="2088">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1475">
+    <format dxfId="2087">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1474">
+    <format dxfId="2086">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1473">
+    <format dxfId="2085">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1472">
+    <format dxfId="2084">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1471">
+    <format dxfId="2083">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1470">
+    <format dxfId="2082">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1469">
+    <format dxfId="2081">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1468">
+    <format dxfId="2080">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1467">
+    <format dxfId="2079">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1466">
+    <format dxfId="2078">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1465">
+    <format dxfId="2077">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1464">
+    <format dxfId="2076">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1463">
+    <format dxfId="2075">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1462">
+    <format dxfId="2074">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1461">
+    <format dxfId="2073">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1460">
+    <format dxfId="2072">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1459">
+    <format dxfId="2071">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1458">
+    <format dxfId="2070">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13662,7 +15738,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1457">
+    <format dxfId="2069">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13671,7 +15747,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1456">
+    <format dxfId="2068">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13680,7 +15756,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1455">
+    <format dxfId="2067">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13689,7 +15765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1454">
+    <format dxfId="2066">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13698,7 +15774,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1453">
+    <format dxfId="2065">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13707,7 +15783,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1452">
+    <format dxfId="2064">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13716,7 +15792,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1451">
+    <format dxfId="2063">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13725,7 +15801,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1450">
+    <format dxfId="2062">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13734,51 +15810,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1449">
+    <format dxfId="2061">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1448">
+    <format dxfId="2060">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1447">
+    <format dxfId="2059">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1446">
+    <format dxfId="2058">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1445">
+    <format dxfId="2057">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1444">
+    <format dxfId="2056">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1443">
+    <format dxfId="2055">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1442">
+    <format dxfId="2054">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1441">
+    <format dxfId="2053">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13795,7 +15871,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -13889,7 +15965,7 @@
         <item m="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="274">
         <item m="1" x="248"/>
         <item m="1" x="148"/>
@@ -14166,6 +16242,15 @@
         <item m="1" x="127"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14190,7 +16275,7 @@
       <x v="24"/>
     </i>
     <i>
-      <x v="109"/>
+      <x v="209"/>
     </i>
     <i>
       <x v="118"/>
@@ -14199,7 +16284,7 @@
       <x v="172"/>
     </i>
     <i>
-      <x v="209"/>
+      <x v="109"/>
     </i>
     <i>
       <x v="228"/>
@@ -14241,61 +16326,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1440">
+    <format dxfId="2052">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1439">
+    <format dxfId="2051">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1438">
+    <format dxfId="2050">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1437">
+    <format dxfId="2049">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1436">
+    <format dxfId="2048">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1435">
+    <format dxfId="2047">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1434">
+    <format dxfId="2046">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1433">
+    <format dxfId="2045">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1432">
+    <format dxfId="2044">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1431">
+    <format dxfId="2043">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1430">
+    <format dxfId="2042">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1429">
+    <format dxfId="2041">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1428">
+    <format dxfId="2040">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1427">
+    <format dxfId="2039">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1426">
+    <format dxfId="2038">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1425">
+    <format dxfId="2037">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1424">
+    <format dxfId="2036">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1423">
+    <format dxfId="2035">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1422">
+    <format dxfId="2034">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14304,7 +16389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1421">
+    <format dxfId="2033">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14313,7 +16398,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1420">
+    <format dxfId="2032">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14322,7 +16407,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1419">
+    <format dxfId="2031">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14331,7 +16416,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1418">
+    <format dxfId="2030">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14340,7 +16425,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1417">
+    <format dxfId="2029">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14349,7 +16434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1416">
+    <format dxfId="2028">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14358,7 +16443,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1415">
+    <format dxfId="2027">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14367,7 +16452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1414">
+    <format dxfId="2026">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14376,47 +16461,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1413">
+    <format dxfId="2025">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1412">
+    <format dxfId="2024">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1411">
+    <format dxfId="2023">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1410">
+    <format dxfId="2022">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1409">
+    <format dxfId="2021">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1408">
+    <format dxfId="2020">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1407">
+    <format dxfId="2019">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1406">
+    <format dxfId="2018">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1405">
+    <format dxfId="2017">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14433,7 +16518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14873,61 +16958,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1404">
+    <format dxfId="2016">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1403">
+    <format dxfId="2015">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1402">
+    <format dxfId="2014">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1401">
+    <format dxfId="2013">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1400">
+    <format dxfId="2012">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1399">
+    <format dxfId="2011">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1398">
+    <format dxfId="2010">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1397">
+    <format dxfId="2009">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1396">
+    <format dxfId="2008">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1395">
+    <format dxfId="2007">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1394">
+    <format dxfId="2006">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1393">
+    <format dxfId="2005">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1392">
+    <format dxfId="2004">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1391">
+    <format dxfId="2003">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1390">
+    <format dxfId="2002">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1389">
+    <format dxfId="2001">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1388">
+    <format dxfId="2000">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1387">
+    <format dxfId="1999">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1386">
+    <format dxfId="1998">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14936,7 +17021,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1385">
+    <format dxfId="1997">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14945,7 +17030,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1384">
+    <format dxfId="1996">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14954,7 +17039,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1383">
+    <format dxfId="1995">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14963,7 +17048,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1382">
+    <format dxfId="1994">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14972,7 +17057,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1381">
+    <format dxfId="1993">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14981,7 +17066,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1380">
+    <format dxfId="1992">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14990,7 +17075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1379">
+    <format dxfId="1991">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14999,7 +17084,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1378">
+    <format dxfId="1990">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15008,51 +17093,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1377">
+    <format dxfId="1989">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1376">
+    <format dxfId="1988">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1375">
+    <format dxfId="1987">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1374">
+    <format dxfId="1986">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1373">
+    <format dxfId="1985">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1372">
+    <format dxfId="1984">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1371">
+    <format dxfId="1983">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1370">
+    <format dxfId="1982">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1369">
+    <format dxfId="1981">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15069,7 +17154,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15499,61 +17584,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1368">
+    <format dxfId="1980">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1367">
+    <format dxfId="1979">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1366">
+    <format dxfId="1978">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1365">
+    <format dxfId="1977">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1364">
+    <format dxfId="1976">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1363">
+    <format dxfId="1975">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1362">
+    <format dxfId="1974">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1361">
+    <format dxfId="1973">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1360">
+    <format dxfId="1972">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1359">
+    <format dxfId="1971">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1358">
+    <format dxfId="1970">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1357">
+    <format dxfId="1969">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1356">
+    <format dxfId="1968">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1355">
+    <format dxfId="1967">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1354">
+    <format dxfId="1966">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1353">
+    <format dxfId="1965">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1352">
+    <format dxfId="1964">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1351">
+    <format dxfId="1963">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1350">
+    <format dxfId="1962">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15562,7 +17647,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1349">
+    <format dxfId="1961">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15571,7 +17656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1348">
+    <format dxfId="1960">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15580,7 +17665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1347">
+    <format dxfId="1959">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15589,7 +17674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1346">
+    <format dxfId="1958">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15598,7 +17683,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1345">
+    <format dxfId="1957">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15607,7 +17692,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1344">
+    <format dxfId="1956">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15616,7 +17701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1343">
+    <format dxfId="1955">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15625,7 +17710,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1342">
+    <format dxfId="1954">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15634,51 +17719,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1341">
+    <format dxfId="1953">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1340">
+    <format dxfId="1952">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1339">
+    <format dxfId="1951">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1338">
+    <format dxfId="1950">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1337">
+    <format dxfId="1949">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1336">
+    <format dxfId="1948">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1335">
+    <format dxfId="1947">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1334">
+    <format dxfId="1946">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1333">
+    <format dxfId="1945">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15695,7 +17780,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16135,61 +18220,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1332">
+    <format dxfId="1944">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1331">
+    <format dxfId="1943">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1330">
+    <format dxfId="1942">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1329">
+    <format dxfId="1941">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1328">
+    <format dxfId="1940">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1327">
+    <format dxfId="1939">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1326">
+    <format dxfId="1938">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1325">
+    <format dxfId="1937">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1324">
+    <format dxfId="1936">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1323">
+    <format dxfId="1935">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1322">
+    <format dxfId="1934">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1321">
+    <format dxfId="1933">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1320">
+    <format dxfId="1932">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1319">
+    <format dxfId="1931">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1318">
+    <format dxfId="1930">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1317">
+    <format dxfId="1929">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1316">
+    <format dxfId="1928">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1315">
+    <format dxfId="1927">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1314">
+    <format dxfId="1926">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16198,7 +18283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1313">
+    <format dxfId="1925">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16207,7 +18292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1312">
+    <format dxfId="1924">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16216,7 +18301,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1311">
+    <format dxfId="1923">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16225,7 +18310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1310">
+    <format dxfId="1922">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16234,7 +18319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1309">
+    <format dxfId="1921">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16243,7 +18328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1308">
+    <format dxfId="1920">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16252,7 +18337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1307">
+    <format dxfId="1919">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16261,7 +18346,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1306">
+    <format dxfId="1918">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16270,51 +18355,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1305">
+    <format dxfId="1917">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1304">
+    <format dxfId="1916">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1303">
+    <format dxfId="1915">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1302">
+    <format dxfId="1914">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1301">
+    <format dxfId="1913">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1300">
+    <format dxfId="1912">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1299">
+    <format dxfId="1911">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1298">
+    <format dxfId="1910">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1297">
+    <format dxfId="1909">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16331,7 +18416,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16774,61 +18859,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1296">
+    <format dxfId="1908">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1295">
+    <format dxfId="1907">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1294">
+    <format dxfId="1906">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1293">
+    <format dxfId="1905">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1292">
+    <format dxfId="1904">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1291">
+    <format dxfId="1903">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1290">
+    <format dxfId="1902">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1289">
+    <format dxfId="1901">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1288">
+    <format dxfId="1900">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1287">
+    <format dxfId="1899">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1286">
+    <format dxfId="1898">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1285">
+    <format dxfId="1897">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1284">
+    <format dxfId="1896">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1283">
+    <format dxfId="1895">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1282">
+    <format dxfId="1894">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1281">
+    <format dxfId="1893">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1280">
+    <format dxfId="1892">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1279">
+    <format dxfId="1891">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1278">
+    <format dxfId="1890">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16837,7 +18922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1277">
+    <format dxfId="1889">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16846,7 +18931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1276">
+    <format dxfId="1888">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16855,7 +18940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1275">
+    <format dxfId="1887">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16864,7 +18949,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1274">
+    <format dxfId="1886">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16873,7 +18958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1273">
+    <format dxfId="1885">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16882,7 +18967,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1272">
+    <format dxfId="1884">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16891,7 +18976,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1271">
+    <format dxfId="1883">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16900,7 +18985,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1270">
+    <format dxfId="1882">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16909,51 +18994,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1269">
+    <format dxfId="1881">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1268">
+    <format dxfId="1880">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1267">
+    <format dxfId="1879">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1266">
+    <format dxfId="1878">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1265">
+    <format dxfId="1877">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1264">
+    <format dxfId="1876">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1263">
+    <format dxfId="1875">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1262">
+    <format dxfId="1874">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1261">
+    <format dxfId="1873">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16970,7 +19055,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -17416,61 +19501,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="1260">
+    <format dxfId="1872">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1259">
+    <format dxfId="1871">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1258">
+    <format dxfId="1870">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1257">
+    <format dxfId="1869">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1256">
+    <format dxfId="1868">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1255">
+    <format dxfId="1867">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1254">
+    <format dxfId="1866">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1253">
+    <format dxfId="1865">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1252">
+    <format dxfId="1864">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1251">
+    <format dxfId="1863">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1250">
+    <format dxfId="1862">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1249">
+    <format dxfId="1861">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1248">
+    <format dxfId="1860">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1247">
+    <format dxfId="1859">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1246">
+    <format dxfId="1858">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1245">
+    <format dxfId="1857">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1244">
+    <format dxfId="1856">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1243">
+    <format dxfId="1855">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1242">
+    <format dxfId="1854">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17479,7 +19564,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1241">
+    <format dxfId="1853">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17488,7 +19573,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1240">
+    <format dxfId="1852">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17497,7 +19582,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1239">
+    <format dxfId="1851">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17506,7 +19591,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1238">
+    <format dxfId="1850">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17515,7 +19600,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1237">
+    <format dxfId="1849">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17524,7 +19609,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1236">
+    <format dxfId="1848">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17533,7 +19618,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1235">
+    <format dxfId="1847">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17542,7 +19627,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1234">
+    <format dxfId="1846">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17551,71 +19636,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1233">
+    <format dxfId="1845">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1232">
+    <format dxfId="1844">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1231">
+    <format dxfId="1843">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1230">
+    <format dxfId="1842">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="1229">
+    <format dxfId="1841">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1228">
+    <format dxfId="1840">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1227">
+    <format dxfId="1839">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1226">
+    <format dxfId="1838">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1225">
+    <format dxfId="1837">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1224">
+    <format dxfId="1836">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1223">
+    <format dxfId="1835">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1222">
+    <format dxfId="1834">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1221">
+    <format dxfId="1833">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -17674,11 +19759,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1516">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="2128">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Scaled Masc"/>
+        <filter val="Interm Fem"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
@@ -17698,23 +19783,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1515"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="2127"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1514"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1513">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="2126"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="2125">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1512">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="2124">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1511"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1510">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="2123"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="2122">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1509">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="2121">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17726,7 +19811,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="1220"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="1832"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -18032,11 +20117,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J282" sqref="J282"/>
+      <selection pane="bottomRight" activeCell="P273" sqref="P273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -18066,11 +20151,11 @@
     <row r="1" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11">
         <f>SUBTOTAL(3,C3:C2352)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="11">
         <f>SUBTOTAL(3,J3:J2352)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -19033,23 +21118,28 @@
       <c r="N19">
         <v>150</v>
       </c>
-      <c r="P19" s="8"/>
+      <c r="O19">
+        <v>30</v>
+      </c>
+      <c r="P19" s="8">
+        <v>105</v>
+      </c>
       <c r="Q19" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R19" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="S19" s="8"/>
       <c r="T19" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U19" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R19,$R$19:$R$26,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -19085,23 +21175,28 @@
       <c r="N20">
         <v>150</v>
       </c>
-      <c r="P20" s="8"/>
+      <c r="O20">
+        <v>30</v>
+      </c>
+      <c r="P20" s="8">
+        <v>121</v>
+      </c>
       <c r="Q20" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R20" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="S20" s="8"/>
       <c r="T20" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U20" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R20,$R$19:$R$26,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -19137,23 +21232,28 @@
       <c r="N21">
         <v>150</v>
       </c>
-      <c r="P21" s="8"/>
+      <c r="O21">
+        <v>30</v>
+      </c>
+      <c r="P21" s="8">
+        <v>91</v>
+      </c>
       <c r="Q21" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R21" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="S21" s="8"/>
       <c r="T21" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U21" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R21,$R$19:$R$26,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -19189,23 +21289,28 @@
       <c r="N22">
         <v>150</v>
       </c>
-      <c r="P22" s="8"/>
+      <c r="O22">
+        <v>30</v>
+      </c>
+      <c r="P22" s="8">
+        <v>122</v>
+      </c>
       <c r="Q22" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R22" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="S22" s="8"/>
       <c r="T22" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U22" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R22,$R$19:$R$26,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -19235,23 +21340,28 @@
       <c r="N23">
         <v>150</v>
       </c>
-      <c r="P23" s="8"/>
+      <c r="O23">
+        <v>30</v>
+      </c>
+      <c r="P23" s="8">
+        <v>75</v>
+      </c>
       <c r="Q23" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R23" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="S23" s="8"/>
       <c r="T23" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U23" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R23,$R$19:$R$26,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -19281,23 +21391,28 @@
       <c r="N24">
         <v>150</v>
       </c>
-      <c r="P24" s="8"/>
+      <c r="O24">
+        <v>30</v>
+      </c>
+      <c r="P24" s="8">
+        <v>132</v>
+      </c>
       <c r="Q24" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R24" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="S24" s="8"/>
       <c r="T24" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="U24" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R24,$R$19:$R$26,1),"A definir")</f>
-        <v>A definir</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -19333,23 +21448,28 @@
       <c r="N25">
         <v>150</v>
       </c>
-      <c r="P25" s="8"/>
+      <c r="O25">
+        <v>30</v>
+      </c>
+      <c r="P25" s="8">
+        <v>122</v>
+      </c>
       <c r="Q25" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R25" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="S25" s="8"/>
       <c r="T25" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U25" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R25,$R$19:$R$26,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -19387,24 +21507,28 @@
       <c r="N26" s="12">
         <v>150</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="14"/>
+      <c r="O26" s="12">
+        <v>30</v>
+      </c>
+      <c r="P26" s="14">
+        <v>104</v>
+      </c>
       <c r="Q26" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R26" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="S26" s="14"/>
       <c r="T26" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="15" t="str">
+        <v>94</v>
+      </c>
+      <c r="U26" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R26,$R$19:$R$26,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21587,7 +23711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>75</v>
       </c>
@@ -21644,7 +23768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>76</v>
       </c>
@@ -21701,7 +23825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>77</v>
       </c>
@@ -21758,7 +23882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>78</v>
       </c>
@@ -21815,7 +23939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>79</v>
       </c>
@@ -21872,7 +23996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>85</v>
       </c>
@@ -21905,26 +24029,31 @@
       <c r="N73">
         <v>840</v>
       </c>
-      <c r="P73" s="8"/>
+      <c r="O73">
+        <v>630</v>
+      </c>
+      <c r="P73" s="8">
+        <v>840</v>
+      </c>
       <c r="Q73" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="R73" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="S73" s="8"/>
       <c r="T73" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U73" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U73" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R73,$R$73:$R$80,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>86</v>
       </c>
@@ -21957,26 +24086,31 @@
       <c r="N74">
         <v>840</v>
       </c>
-      <c r="P74" s="8"/>
+      <c r="O74">
+        <v>493</v>
+      </c>
+      <c r="P74" s="8">
+        <v>840</v>
+      </c>
       <c r="Q74" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="R74" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="S74" s="8"/>
       <c r="T74" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U74" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="U74" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R74,$R$73:$R$80,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>87</v>
       </c>
@@ -22009,26 +24143,31 @@
       <c r="N75">
         <v>840</v>
       </c>
-      <c r="P75" s="8"/>
+      <c r="O75">
+        <v>716</v>
+      </c>
+      <c r="P75" s="8">
+        <v>840</v>
+      </c>
       <c r="Q75" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="R75" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="S75" s="8"/>
       <c r="T75" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U75" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U75" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R75,$R$73:$R$80,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>88</v>
       </c>
@@ -22061,26 +24200,31 @@
       <c r="N76">
         <v>840</v>
       </c>
-      <c r="P76" s="8"/>
+      <c r="O76">
+        <v>652</v>
+      </c>
+      <c r="P76" s="8">
+        <v>840</v>
+      </c>
       <c r="Q76" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="R76" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="S76" s="8"/>
       <c r="T76" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U76" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U76" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R76,$R$73:$R$80,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>89</v>
       </c>
@@ -22113,26 +24257,31 @@
       <c r="N77">
         <v>840</v>
       </c>
-      <c r="P77" s="8"/>
+      <c r="O77">
+        <v>770</v>
+      </c>
+      <c r="P77" s="8">
+        <v>834</v>
+      </c>
       <c r="Q77" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R77" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="S77" s="8"/>
       <c r="T77" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U77" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U77" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R77,$R$73:$R$80,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>90</v>
       </c>
@@ -22165,26 +24314,31 @@
       <c r="N78">
         <v>840</v>
       </c>
-      <c r="P78" s="8"/>
+      <c r="O78">
+        <v>573</v>
+      </c>
+      <c r="P78" s="8">
+        <v>840</v>
+      </c>
       <c r="Q78" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="R78" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="S78" s="8"/>
       <c r="T78" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U78" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="U78" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R78,$R$73:$R$80,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>91</v>
       </c>
@@ -22217,26 +24371,31 @@
       <c r="N79">
         <v>840</v>
       </c>
-      <c r="P79" s="8"/>
+      <c r="O79">
+        <v>736</v>
+      </c>
+      <c r="P79" s="8">
+        <v>840</v>
+      </c>
       <c r="Q79" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R79" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="S79" s="8"/>
       <c r="T79" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U79" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U79" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R79,$R$73:$R$80,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>94</v>
       </c>
@@ -22271,24 +24430,28 @@
       <c r="N80" s="12">
         <v>840</v>
       </c>
-      <c r="O80" s="12"/>
-      <c r="P80" s="14"/>
+      <c r="O80" s="12">
+        <v>700</v>
+      </c>
+      <c r="P80" s="14">
+        <v>840</v>
+      </c>
       <c r="Q80" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R80" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="S80" s="14"/>
       <c r="T80" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U80" s="15" t="str">
+        <v>91</v>
+      </c>
+      <c r="U80" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R80,$R$73:$R$80,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -32352,8 +34515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32416,10 +34579,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -32431,7 +34594,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -32439,10 +34602,10 @@
         <v>59</v>
       </c>
       <c r="B6" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -32454,18 +34617,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -32477,7 +34640,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -32485,10 +34648,10 @@
         <v>61</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -32500,7 +34663,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -32508,10 +34671,10 @@
         <v>57</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C9" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -32523,18 +34686,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -32546,7 +34709,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -32554,10 +34717,10 @@
         <v>58</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C11" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -32569,7 +34732,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -32577,10 +34740,10 @@
         <v>93</v>
       </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C12" s="8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -32592,7 +34755,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -32600,10 +34763,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="26">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="C13" s="26">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="D13" s="26">
         <v>0</v>
@@ -32615,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>1435</v>
       </c>
     </row>
   </sheetData>
@@ -32628,7 +34791,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90893848-4976-4CF0-9694-0FDE6CBB0129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60EA39E-660D-45E2-B3DC-3EE9BD63334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Dados" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="54" r:id="rId11"/>
+    <pivotCache cacheId="63" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -549,7 +549,129 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2129">
+  <dxfs count="1877">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -1621,6 +1743,984 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
@@ -3594,1962 +4694,6 @@
           <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -7956,7 +7100,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.391597453701" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.407852777775" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -8347,13 +7491,13 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="770"/>
     </cacheField>
     <cacheField name="Tempo CP (s)" numFmtId="41">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="75" maxValue="840"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="74" maxValue="840"/>
     </cacheField>
     <cacheField name="Tempo P. (s)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="277"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="318"/>
     </cacheField>
     <cacheField name="Tempo Final (s)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1117"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1158"/>
     </cacheField>
     <cacheField name="Tempo Final (min)" numFmtId="41">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -8942,13 +8086,13 @@
     <s v="-"/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="74"/>
+    <n v="0"/>
+    <n v="74"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="25"/>
@@ -8965,13 +8109,13 @@
     <s v="-"/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="92"/>
+    <n v="0"/>
+    <n v="92"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="26"/>
@@ -8988,13 +8132,13 @@
     <s v="-"/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="85"/>
+    <n v="0"/>
+    <n v="85"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="27"/>
@@ -9011,13 +8155,13 @@
     <s v="-"/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="89"/>
+    <n v="0"/>
+    <n v="89"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="28"/>
@@ -9034,13 +8178,13 @@
     <s v="-"/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="82"/>
+    <n v="0"/>
+    <n v="82"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="33"/>
@@ -9057,13 +8201,13 @@
     <s v="-"/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <m/>
@@ -10184,13 +9328,13 @@
     <s v="-"/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="748"/>
+    <n v="840"/>
+    <n v="22"/>
+    <n v="862"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="96"/>
@@ -10207,13 +9351,13 @@
     <s v="-"/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="719"/>
+    <n v="840"/>
+    <n v="51"/>
+    <n v="891"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="97"/>
@@ -10230,13 +9374,13 @@
     <s v="-"/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="770"/>
+    <n v="833"/>
+    <n v="0"/>
+    <n v="833"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="98"/>
@@ -10253,13 +9397,13 @@
     <s v="-"/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="452"/>
+    <n v="840"/>
+    <n v="318"/>
+    <n v="1158"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="99"/>
@@ -10276,13 +9420,13 @@
     <s v="-"/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="724"/>
+    <n v="840"/>
+    <n v="46"/>
+    <n v="886"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="104"/>
@@ -10299,13 +9443,13 @@
     <s v="-"/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="739"/>
+    <n v="840"/>
+    <n v="31"/>
+    <n v="871"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="105"/>
@@ -14589,7 +13733,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15053,61 +14197,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="2120">
+    <format dxfId="1868">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2119">
+    <format dxfId="1867">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2118">
+    <format dxfId="1866">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2117">
+    <format dxfId="1865">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2116">
+    <format dxfId="1864">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2115">
+    <format dxfId="1863">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2114">
+    <format dxfId="1862">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2113">
+    <format dxfId="1861">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2112">
+    <format dxfId="1860">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2111">
+    <format dxfId="1859">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2110">
+    <format dxfId="1858">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2109">
+    <format dxfId="1857">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2108">
+    <format dxfId="1856">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2107">
+    <format dxfId="1855">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2106">
+    <format dxfId="1854">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2105">
+    <format dxfId="1853">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2104">
+    <format dxfId="1852">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2103">
+    <format dxfId="1851">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2102">
+    <format dxfId="1850">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15116,7 +14260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2101">
+    <format dxfId="1849">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15125,7 +14269,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2100">
+    <format dxfId="1848">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15134,7 +14278,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2099">
+    <format dxfId="1847">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15143,7 +14287,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2098">
+    <format dxfId="1846">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15152,7 +14296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2097">
+    <format dxfId="1845">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15161,7 +14305,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2096">
+    <format dxfId="1844">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15170,7 +14314,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2095">
+    <format dxfId="1843">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15179,7 +14323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2094">
+    <format dxfId="1842">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15188,31 +14332,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2093">
+    <format dxfId="1841">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2092">
+    <format dxfId="1840">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2091">
+    <format dxfId="1839">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2090">
+    <format dxfId="1838">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2089">
+    <format dxfId="1837">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15229,7 +14373,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15675,61 +14819,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="2088">
+    <format dxfId="1836">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2087">
+    <format dxfId="1835">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2086">
+    <format dxfId="1834">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2085">
+    <format dxfId="1833">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2084">
+    <format dxfId="1832">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2083">
+    <format dxfId="1831">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2082">
+    <format dxfId="1830">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2081">
+    <format dxfId="1829">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2080">
+    <format dxfId="1828">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2079">
+    <format dxfId="1827">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2078">
+    <format dxfId="1826">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2077">
+    <format dxfId="1825">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2076">
+    <format dxfId="1824">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2075">
+    <format dxfId="1823">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2074">
+    <format dxfId="1822">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2073">
+    <format dxfId="1821">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2072">
+    <format dxfId="1820">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2071">
+    <format dxfId="1819">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2070">
+    <format dxfId="1818">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15738,7 +14882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2069">
+    <format dxfId="1817">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15747,7 +14891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2068">
+    <format dxfId="1816">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15756,7 +14900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2067">
+    <format dxfId="1815">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15765,7 +14909,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2066">
+    <format dxfId="1814">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15774,7 +14918,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2065">
+    <format dxfId="1813">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15783,7 +14927,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2064">
+    <format dxfId="1812">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15792,7 +14936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2063">
+    <format dxfId="1811">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15801,7 +14945,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2062">
+    <format dxfId="1810">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15810,51 +14954,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2061">
+    <format dxfId="1809">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2060">
+    <format dxfId="1808">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2059">
+    <format dxfId="1807">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2058">
+    <format dxfId="1806">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2057">
+    <format dxfId="1805">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2056">
+    <format dxfId="1804">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2055">
+    <format dxfId="1803">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2054">
+    <format dxfId="1802">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2053">
+    <format dxfId="1801">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15871,7 +15015,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16326,61 +15470,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="2052">
+    <format dxfId="1800">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2051">
+    <format dxfId="1799">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2050">
+    <format dxfId="1798">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2049">
+    <format dxfId="1797">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2048">
+    <format dxfId="1796">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2047">
+    <format dxfId="1795">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2046">
+    <format dxfId="1794">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2045">
+    <format dxfId="1793">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2044">
+    <format dxfId="1792">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2043">
+    <format dxfId="1791">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2042">
+    <format dxfId="1790">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2041">
+    <format dxfId="1789">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2040">
+    <format dxfId="1788">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2039">
+    <format dxfId="1787">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2038">
+    <format dxfId="1786">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2037">
+    <format dxfId="1785">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2036">
+    <format dxfId="1784">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2035">
+    <format dxfId="1783">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2034">
+    <format dxfId="1782">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16389,7 +15533,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2033">
+    <format dxfId="1781">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16398,7 +15542,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2032">
+    <format dxfId="1780">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16407,7 +15551,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2031">
+    <format dxfId="1779">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16416,7 +15560,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2030">
+    <format dxfId="1778">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16425,7 +15569,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2029">
+    <format dxfId="1777">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16434,7 +15578,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2028">
+    <format dxfId="1776">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16443,7 +15587,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2027">
+    <format dxfId="1775">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16452,7 +15596,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2026">
+    <format dxfId="1774">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16461,47 +15605,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2025">
+    <format dxfId="1773">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2024">
+    <format dxfId="1772">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2023">
+    <format dxfId="1771">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2022">
+    <format dxfId="1770">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2021">
+    <format dxfId="1769">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2020">
+    <format dxfId="1768">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2019">
+    <format dxfId="1767">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2018">
+    <format dxfId="1766">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2017">
+    <format dxfId="1765">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16518,7 +15662,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16612,7 +15756,7 @@
         <item m="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="274">
         <item m="1" x="248"/>
         <item m="1" x="148"/>
@@ -16889,6 +16033,15 @@
         <item m="1" x="127"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16907,22 +16060,22 @@
   </rowFields>
   <rowItems count="7">
     <i>
-      <x v="18"/>
+      <x v="44"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="147"/>
     </i>
     <i>
       <x v="92"/>
     </i>
     <i>
-      <x v="147"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="252"/>
     </i>
     <i>
       <x v="215"/>
-    </i>
-    <i>
-      <x v="252"/>
     </i>
     <i t="grand">
       <x/>
@@ -16958,61 +16111,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="2016">
+    <format dxfId="1764">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2015">
+    <format dxfId="1763">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2014">
+    <format dxfId="1762">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2013">
+    <format dxfId="1761">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2012">
+    <format dxfId="1760">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2011">
+    <format dxfId="1759">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2010">
+    <format dxfId="1758">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2009">
+    <format dxfId="1757">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2008">
+    <format dxfId="1756">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2007">
+    <format dxfId="1755">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2006">
+    <format dxfId="1754">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2005">
+    <format dxfId="1753">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2004">
+    <format dxfId="1752">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2003">
+    <format dxfId="1751">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2002">
+    <format dxfId="1750">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2001">
+    <format dxfId="1749">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2000">
+    <format dxfId="1748">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1999">
+    <format dxfId="1747">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1998">
+    <format dxfId="1746">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17021,7 +16174,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1997">
+    <format dxfId="1745">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17030,7 +16183,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1996">
+    <format dxfId="1744">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17039,7 +16192,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1995">
+    <format dxfId="1743">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17048,7 +16201,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1994">
+    <format dxfId="1742">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17057,7 +16210,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1993">
+    <format dxfId="1741">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17066,7 +16219,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1992">
+    <format dxfId="1740">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17075,7 +16228,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1991">
+    <format dxfId="1739">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17084,7 +16237,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1990">
+    <format dxfId="1738">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17093,51 +16246,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1989">
+    <format dxfId="1737">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1988">
+    <format dxfId="1736">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1987">
+    <format dxfId="1735">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1986">
+    <format dxfId="1734">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1985">
+    <format dxfId="1733">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1984">
+    <format dxfId="1732">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1983">
+    <format dxfId="1731">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1982">
+    <format dxfId="1730">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1981">
+    <format dxfId="1729">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -17154,7 +16307,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -17584,61 +16737,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1980">
+    <format dxfId="1728">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1979">
+    <format dxfId="1727">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1978">
+    <format dxfId="1726">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1977">
+    <format dxfId="1725">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1976">
+    <format dxfId="1724">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1975">
+    <format dxfId="1723">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1974">
+    <format dxfId="1722">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1973">
+    <format dxfId="1721">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1972">
+    <format dxfId="1720">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1971">
+    <format dxfId="1719">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1970">
+    <format dxfId="1718">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1969">
+    <format dxfId="1717">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1968">
+    <format dxfId="1716">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1967">
+    <format dxfId="1715">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1966">
+    <format dxfId="1714">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1965">
+    <format dxfId="1713">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1964">
+    <format dxfId="1712">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1963">
+    <format dxfId="1711">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1962">
+    <format dxfId="1710">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17647,7 +16800,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1961">
+    <format dxfId="1709">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17656,7 +16809,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1960">
+    <format dxfId="1708">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17665,7 +16818,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1959">
+    <format dxfId="1707">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17674,7 +16827,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1958">
+    <format dxfId="1706">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17683,7 +16836,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1957">
+    <format dxfId="1705">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17692,7 +16845,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1956">
+    <format dxfId="1704">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17701,7 +16854,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1955">
+    <format dxfId="1703">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17710,7 +16863,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1954">
+    <format dxfId="1702">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17719,51 +16872,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1953">
+    <format dxfId="1701">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1952">
+    <format dxfId="1700">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1951">
+    <format dxfId="1699">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1950">
+    <format dxfId="1698">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1949">
+    <format dxfId="1697">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1948">
+    <format dxfId="1696">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1947">
+    <format dxfId="1695">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1946">
+    <format dxfId="1694">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1945">
+    <format dxfId="1693">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -17780,7 +16933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -18220,61 +17373,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1944">
+    <format dxfId="1692">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1943">
+    <format dxfId="1691">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1942">
+    <format dxfId="1690">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1941">
+    <format dxfId="1689">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1940">
+    <format dxfId="1688">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1939">
+    <format dxfId="1687">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1938">
+    <format dxfId="1686">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1937">
+    <format dxfId="1685">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1936">
+    <format dxfId="1684">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1935">
+    <format dxfId="1683">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1934">
+    <format dxfId="1682">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1933">
+    <format dxfId="1681">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1932">
+    <format dxfId="1680">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1931">
+    <format dxfId="1679">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1930">
+    <format dxfId="1678">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1929">
+    <format dxfId="1677">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1928">
+    <format dxfId="1676">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1927">
+    <format dxfId="1675">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1926">
+    <format dxfId="1674">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18283,7 +17436,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1925">
+    <format dxfId="1673">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18292,7 +17445,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1924">
+    <format dxfId="1672">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18301,7 +17454,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1923">
+    <format dxfId="1671">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18310,7 +17463,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1922">
+    <format dxfId="1670">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18319,7 +17472,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1921">
+    <format dxfId="1669">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18328,7 +17481,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1920">
+    <format dxfId="1668">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18337,7 +17490,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1919">
+    <format dxfId="1667">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18346,7 +17499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1918">
+    <format dxfId="1666">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18355,51 +17508,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1917">
+    <format dxfId="1665">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1916">
+    <format dxfId="1664">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1915">
+    <format dxfId="1663">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1914">
+    <format dxfId="1662">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1913">
+    <format dxfId="1661">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1912">
+    <format dxfId="1660">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1911">
+    <format dxfId="1659">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1910">
+    <format dxfId="1658">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1909">
+    <format dxfId="1657">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -18416,7 +17569,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -18859,61 +18012,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1908">
+    <format dxfId="1656">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1907">
+    <format dxfId="1655">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1906">
+    <format dxfId="1654">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1905">
+    <format dxfId="1653">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1904">
+    <format dxfId="1652">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1903">
+    <format dxfId="1651">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1902">
+    <format dxfId="1650">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1901">
+    <format dxfId="1649">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1900">
+    <format dxfId="1648">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1899">
+    <format dxfId="1647">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1898">
+    <format dxfId="1646">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1897">
+    <format dxfId="1645">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1896">
+    <format dxfId="1644">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1895">
+    <format dxfId="1643">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1894">
+    <format dxfId="1642">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1893">
+    <format dxfId="1641">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1892">
+    <format dxfId="1640">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1891">
+    <format dxfId="1639">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1890">
+    <format dxfId="1638">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18922,7 +18075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1889">
+    <format dxfId="1637">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18931,7 +18084,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1888">
+    <format dxfId="1636">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18940,7 +18093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1887">
+    <format dxfId="1635">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18949,7 +18102,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1886">
+    <format dxfId="1634">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18958,7 +18111,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1885">
+    <format dxfId="1633">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18967,7 +18120,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1884">
+    <format dxfId="1632">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18976,7 +18129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1883">
+    <format dxfId="1631">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18985,7 +18138,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1882">
+    <format dxfId="1630">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18994,51 +18147,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1881">
+    <format dxfId="1629">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1880">
+    <format dxfId="1628">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1879">
+    <format dxfId="1627">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1878">
+    <format dxfId="1626">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1877">
+    <format dxfId="1625">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1876">
+    <format dxfId="1624">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1875">
+    <format dxfId="1623">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1874">
+    <format dxfId="1622">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1873">
+    <format dxfId="1621">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -19055,7 +18208,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -19501,61 +18654,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="1872">
+    <format dxfId="1620">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1871">
+    <format dxfId="1619">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1870">
+    <format dxfId="1618">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1869">
+    <format dxfId="1617">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1868">
+    <format dxfId="1616">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1867">
+    <format dxfId="1615">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1866">
+    <format dxfId="1614">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1865">
+    <format dxfId="1613">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1864">
+    <format dxfId="1612">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1863">
+    <format dxfId="1611">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1862">
+    <format dxfId="1610">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1861">
+    <format dxfId="1609">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1860">
+    <format dxfId="1608">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1859">
+    <format dxfId="1607">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1858">
+    <format dxfId="1606">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1857">
+    <format dxfId="1605">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1856">
+    <format dxfId="1604">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1855">
+    <format dxfId="1603">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1854">
+    <format dxfId="1602">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19564,7 +18717,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1853">
+    <format dxfId="1601">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19573,7 +18726,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1852">
+    <format dxfId="1600">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19582,7 +18735,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1851">
+    <format dxfId="1599">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19591,7 +18744,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1850">
+    <format dxfId="1598">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19600,7 +18753,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1849">
+    <format dxfId="1597">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19609,7 +18762,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1848">
+    <format dxfId="1596">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19618,7 +18771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1847">
+    <format dxfId="1595">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19627,7 +18780,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1846">
+    <format dxfId="1594">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19636,71 +18789,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1845">
+    <format dxfId="1593">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1844">
+    <format dxfId="1592">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1843">
+    <format dxfId="1591">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1842">
+    <format dxfId="1590">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="1841">
+    <format dxfId="1589">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1840">
+    <format dxfId="1588">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1839">
+    <format dxfId="1587">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1838">
+    <format dxfId="1586">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1837">
+    <format dxfId="1585">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1836">
+    <format dxfId="1584">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1835">
+    <format dxfId="1583">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1834">
+    <format dxfId="1582">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1833">
+    <format dxfId="1581">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -19759,11 +18912,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="2128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1876">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Interm Fem"/>
+        <filter val="Interm Masc"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
@@ -19783,23 +18936,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="2127"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1875"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="2126"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="2125">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1874"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1873">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="2124">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1872">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="2123"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="2122">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1871"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1870">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="2121">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1869">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19811,7 +18964,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="1832"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="1580"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -20117,7 +19270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -20151,11 +19304,11 @@
     <row r="1" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11">
         <f>SUBTOTAL(3,C3:C2352)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J1" s="11">
         <f>SUBTOTAL(3,J3:J2352)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -21566,23 +20719,28 @@
       <c r="N27">
         <v>150</v>
       </c>
-      <c r="P27" s="8"/>
+      <c r="O27">
+        <v>30</v>
+      </c>
+      <c r="P27" s="8">
+        <v>74</v>
+      </c>
       <c r="Q27" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R27" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="S27" s="8"/>
       <c r="T27" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U27" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R27,$R$27:$R$32,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21620,23 +20778,28 @@
       <c r="N28">
         <v>150</v>
       </c>
-      <c r="P28" s="8"/>
+      <c r="O28">
+        <v>30</v>
+      </c>
+      <c r="P28" s="8">
+        <v>92</v>
+      </c>
       <c r="Q28" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R28" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="S28" s="8"/>
       <c r="T28" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U28" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R28,$R$27:$R$32,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21674,23 +20837,28 @@
       <c r="N29">
         <v>150</v>
       </c>
-      <c r="P29" s="8"/>
+      <c r="O29">
+        <v>30</v>
+      </c>
+      <c r="P29" s="8">
+        <v>85</v>
+      </c>
       <c r="Q29" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R29" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="S29" s="8"/>
       <c r="T29" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U29" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R29,$R$27:$R$32,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21728,23 +20896,28 @@
       <c r="N30">
         <v>150</v>
       </c>
-      <c r="P30" s="8"/>
+      <c r="O30">
+        <v>30</v>
+      </c>
+      <c r="P30" s="8">
+        <v>89</v>
+      </c>
       <c r="Q30" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R30" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="S30" s="8"/>
       <c r="T30" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U30" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R30,$R$27:$R$32,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21782,23 +20955,28 @@
       <c r="N31">
         <v>150</v>
       </c>
-      <c r="P31" s="8"/>
+      <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="P31" s="8">
+        <v>82</v>
+      </c>
       <c r="Q31" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R31" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="S31" s="8"/>
       <c r="T31" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U31" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R31,$R$27:$R$32,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -21838,24 +21016,28 @@
       <c r="N32" s="12">
         <v>150</v>
       </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="14"/>
+      <c r="O32" s="12">
+        <v>30</v>
+      </c>
+      <c r="P32" s="14">
+        <v>81</v>
+      </c>
       <c r="Q32" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R32" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S32" s="14"/>
       <c r="T32" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="15" t="str">
+        <v>97</v>
+      </c>
+      <c r="U32" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R32,$R$27:$R$32,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -23996,7 +23178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>85</v>
       </c>
@@ -24053,7 +23235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>86</v>
       </c>
@@ -24110,7 +23292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>87</v>
       </c>
@@ -24167,7 +23349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>88</v>
       </c>
@@ -24224,7 +23406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>89</v>
       </c>
@@ -24281,7 +23463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>90</v>
       </c>
@@ -24338,7 +23520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>91</v>
       </c>
@@ -24395,7 +23577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>94</v>
       </c>
@@ -24454,7 +23636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>95</v>
       </c>
@@ -24489,26 +23671,31 @@
       <c r="N81">
         <v>840</v>
       </c>
-      <c r="P81" s="8"/>
+      <c r="O81">
+        <v>748</v>
+      </c>
+      <c r="P81" s="8">
+        <v>840</v>
+      </c>
       <c r="Q81" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R81" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="S81" s="8"/>
       <c r="T81" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U81" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U81" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R81,$R$81:$R$86,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>96</v>
       </c>
@@ -24543,26 +23730,31 @@
       <c r="N82">
         <v>840</v>
       </c>
-      <c r="P82" s="8"/>
+      <c r="O82">
+        <v>719</v>
+      </c>
+      <c r="P82" s="8">
+        <v>840</v>
+      </c>
       <c r="Q82" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R82" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="S82" s="8"/>
       <c r="T82" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U82" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U82" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R82,$R$81:$R$86,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>97</v>
       </c>
@@ -24597,26 +23789,31 @@
       <c r="N83">
         <v>840</v>
       </c>
-      <c r="P83" s="8"/>
+      <c r="O83">
+        <v>770</v>
+      </c>
+      <c r="P83" s="8">
+        <v>833</v>
+      </c>
       <c r="Q83" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R83" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="S83" s="8"/>
       <c r="T83" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U83" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U83" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R83,$R$81:$R$86,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>98</v>
       </c>
@@ -24648,26 +23845,31 @@
       <c r="N84">
         <v>840</v>
       </c>
-      <c r="P84" s="8"/>
+      <c r="O84">
+        <v>452</v>
+      </c>
+      <c r="P84" s="8">
+        <v>840</v>
+      </c>
       <c r="Q84" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="R84" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>1158</v>
       </c>
       <c r="S84" s="8"/>
       <c r="T84" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U84" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U84" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R84,$R$81:$R$86,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>99</v>
       </c>
@@ -24699,26 +23901,31 @@
       <c r="N85">
         <v>840</v>
       </c>
-      <c r="P85" s="8"/>
+      <c r="O85">
+        <v>724</v>
+      </c>
+      <c r="P85" s="8">
+        <v>840</v>
+      </c>
       <c r="Q85" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R85" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="S85" s="8"/>
       <c r="T85" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U85" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U85" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R85,$R$81:$R$86,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>104</v>
       </c>
@@ -24752,24 +23959,28 @@
       <c r="N86" s="12">
         <v>840</v>
       </c>
-      <c r="O86" s="12"/>
-      <c r="P86" s="14"/>
+      <c r="O86" s="12">
+        <v>739</v>
+      </c>
+      <c r="P86" s="14">
+        <v>840</v>
+      </c>
       <c r="Q86" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R86" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="S86" s="14"/>
       <c r="T86" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U86" s="15" t="str">
+        <v>94</v>
+      </c>
+      <c r="U86" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R86,$R$81:$R$86,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -33773,7 +32984,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34515,7 +33726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -34791,7 +34002,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -34854,13 +34065,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -34872,18 +34083,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -34895,7 +34106,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -34903,10 +34114,10 @@
         <v>67</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -34918,18 +34129,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -34941,18 +34152,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -34964,18 +34175,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -34987,7 +34198,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -34995,10 +34206,10 @@
         <v>34</v>
       </c>
       <c r="B11" s="26">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="C11" s="26">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="D11" s="26">
         <v>0</v>
@@ -35010,7 +34221,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60EA39E-660D-45E2-B3DC-3EE9BD63334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540962D-CF46-4B16-B3B1-1A70D3E568CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="63" r:id="rId11"/>
+    <pivotCache cacheId="81" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -549,7 +549,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1877">
+  <dxfs count="1269">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -1743,6 +1743,128 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2721,390 +2843,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -3124,1804 +2862,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -7100,7 +5040,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.407852777775" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.456215740742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -7488,16 +5428,16 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="150" maxValue="840"/>
     </cacheField>
     <cacheField name="Reps" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="770"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="798"/>
     </cacheField>
     <cacheField name="Tempo CP (s)" numFmtId="41">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="74" maxValue="840"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="68" maxValue="840"/>
     </cacheField>
     <cacheField name="Tempo P. (s)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="318"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="354"/>
     </cacheField>
     <cacheField name="Tempo Final (s)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1158"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1194"/>
     </cacheField>
     <cacheField name="Tempo Final (min)" numFmtId="41">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -8224,13 +6164,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="100"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -8247,13 +6187,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <m/>
@@ -8270,13 +6210,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="116"/>
+    <n v="0"/>
+    <n v="116"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="34"/>
@@ -8293,13 +6233,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="83"/>
+    <n v="0"/>
+    <n v="83"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="35"/>
@@ -8316,13 +6256,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="110"/>
+    <n v="0"/>
+    <n v="110"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="40"/>
@@ -8339,13 +6279,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="68"/>
+    <n v="0"/>
+    <n v="68"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="41"/>
@@ -8362,13 +6302,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="70"/>
+    <n v="0"/>
+    <n v="70"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="42"/>
@@ -8385,13 +6325,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="82"/>
+    <n v="0"/>
+    <n v="82"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="43"/>
@@ -8408,13 +6348,13 @@
     <m/>
     <n v="30"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="87"/>
+    <n v="0"/>
+    <n v="87"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="44"/>
@@ -9466,13 +7406,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="513"/>
+    <n v="840"/>
+    <n v="257"/>
+    <n v="1097"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="113"/>
@@ -9489,13 +7429,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="626"/>
+    <n v="840"/>
+    <n v="144"/>
+    <n v="984"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="114"/>
@@ -9512,13 +7452,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="416"/>
+    <n v="840"/>
+    <n v="354"/>
+    <n v="1194"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="115"/>
@@ -9535,13 +7475,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="730"/>
+    <n v="840"/>
+    <n v="40"/>
+    <n v="880"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="120"/>
@@ -9558,13 +7498,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="710"/>
+    <n v="840"/>
+    <n v="60"/>
+    <n v="900"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="121"/>
@@ -9581,13 +7521,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="741"/>
+    <n v="840"/>
+    <n v="29"/>
+    <n v="869"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="122"/>
@@ -9604,13 +7544,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="493"/>
+    <n v="840"/>
+    <n v="277"/>
+    <n v="1117"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="123"/>
@@ -9627,13 +7567,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="798"/>
+    <n v="840"/>
+    <n v="0"/>
+    <n v="840"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="124"/>
@@ -9650,13 +7590,13 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="747"/>
+    <n v="840"/>
+    <n v="23"/>
+    <n v="863"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="125"/>
@@ -13733,7 +11673,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14197,61 +12137,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="1868">
+    <format dxfId="1260">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1867">
+    <format dxfId="1259">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1866">
+    <format dxfId="1258">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1865">
+    <format dxfId="1257">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1864">
+    <format dxfId="1256">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1863">
+    <format dxfId="1255">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1862">
+    <format dxfId="1254">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1861">
+    <format dxfId="1253">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1860">
+    <format dxfId="1252">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1859">
+    <format dxfId="1251">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1858">
+    <format dxfId="1250">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1857">
+    <format dxfId="1249">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1856">
+    <format dxfId="1248">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1855">
+    <format dxfId="1247">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1854">
+    <format dxfId="1246">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1853">
+    <format dxfId="1245">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1852">
+    <format dxfId="1244">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1851">
+    <format dxfId="1243">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1850">
+    <format dxfId="1242">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14260,7 +12200,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1849">
+    <format dxfId="1241">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14269,7 +12209,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1848">
+    <format dxfId="1240">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14278,7 +12218,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1847">
+    <format dxfId="1239">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14287,7 +12227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1846">
+    <format dxfId="1238">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14296,7 +12236,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1845">
+    <format dxfId="1237">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14305,7 +12245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1844">
+    <format dxfId="1236">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14314,7 +12254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1843">
+    <format dxfId="1235">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14323,7 +12263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1842">
+    <format dxfId="1234">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14332,31 +12272,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1841">
+    <format dxfId="1233">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1840">
+    <format dxfId="1232">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1839">
+    <format dxfId="1231">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1838">
+    <format dxfId="1230">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1837">
+    <format dxfId="1229">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14373,7 +12313,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14819,61 +12759,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1836">
+    <format dxfId="1228">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1835">
+    <format dxfId="1227">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1834">
+    <format dxfId="1226">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1833">
+    <format dxfId="1225">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1832">
+    <format dxfId="1224">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1831">
+    <format dxfId="1223">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1830">
+    <format dxfId="1222">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1829">
+    <format dxfId="1221">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1828">
+    <format dxfId="1220">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1827">
+    <format dxfId="1219">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1826">
+    <format dxfId="1218">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1825">
+    <format dxfId="1217">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1824">
+    <format dxfId="1216">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1823">
+    <format dxfId="1215">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1822">
+    <format dxfId="1214">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1821">
+    <format dxfId="1213">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1820">
+    <format dxfId="1212">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1819">
+    <format dxfId="1211">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1818">
+    <format dxfId="1210">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14882,7 +12822,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1817">
+    <format dxfId="1209">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14891,7 +12831,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1816">
+    <format dxfId="1208">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14900,7 +12840,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1815">
+    <format dxfId="1207">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14909,7 +12849,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1814">
+    <format dxfId="1206">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14918,7 +12858,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1813">
+    <format dxfId="1205">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14927,7 +12867,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1812">
+    <format dxfId="1204">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14936,7 +12876,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1811">
+    <format dxfId="1203">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14945,7 +12885,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1810">
+    <format dxfId="1202">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14954,51 +12894,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1809">
+    <format dxfId="1201">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1808">
+    <format dxfId="1200">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1807">
+    <format dxfId="1199">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1806">
+    <format dxfId="1198">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1805">
+    <format dxfId="1197">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1804">
+    <format dxfId="1196">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1803">
+    <format dxfId="1195">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1802">
+    <format dxfId="1194">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1801">
+    <format dxfId="1193">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15015,7 +12955,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15470,61 +13410,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1800">
+    <format dxfId="1192">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1799">
+    <format dxfId="1191">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1798">
+    <format dxfId="1190">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1797">
+    <format dxfId="1189">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1796">
+    <format dxfId="1188">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1795">
+    <format dxfId="1187">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1794">
+    <format dxfId="1186">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1793">
+    <format dxfId="1185">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1792">
+    <format dxfId="1184">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1791">
+    <format dxfId="1183">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1790">
+    <format dxfId="1182">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1789">
+    <format dxfId="1181">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1788">
+    <format dxfId="1180">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1787">
+    <format dxfId="1179">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1786">
+    <format dxfId="1178">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1785">
+    <format dxfId="1177">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1784">
+    <format dxfId="1176">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1783">
+    <format dxfId="1175">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1782">
+    <format dxfId="1174">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15533,7 +13473,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1781">
+    <format dxfId="1173">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15542,7 +13482,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1780">
+    <format dxfId="1172">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15551,7 +13491,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1779">
+    <format dxfId="1171">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15560,7 +13500,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1778">
+    <format dxfId="1170">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15569,7 +13509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1777">
+    <format dxfId="1169">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15578,7 +13518,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1776">
+    <format dxfId="1168">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15587,7 +13527,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1775">
+    <format dxfId="1167">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15596,7 +13536,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1774">
+    <format dxfId="1166">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15605,47 +13545,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1773">
+    <format dxfId="1165">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1772">
+    <format dxfId="1164">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1771">
+    <format dxfId="1163">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1770">
+    <format dxfId="1162">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1769">
+    <format dxfId="1161">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1768">
+    <format dxfId="1160">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1767">
+    <format dxfId="1159">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1766">
+    <format dxfId="1158">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1765">
+    <format dxfId="1157">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15662,7 +13602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16111,61 +14051,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1764">
+    <format dxfId="1156">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1763">
+    <format dxfId="1155">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1762">
+    <format dxfId="1154">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1761">
+    <format dxfId="1153">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1760">
+    <format dxfId="1152">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1759">
+    <format dxfId="1151">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1758">
+    <format dxfId="1150">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1757">
+    <format dxfId="1149">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1756">
+    <format dxfId="1148">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1755">
+    <format dxfId="1147">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1754">
+    <format dxfId="1146">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1753">
+    <format dxfId="1145">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1752">
+    <format dxfId="1144">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1751">
+    <format dxfId="1143">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1750">
+    <format dxfId="1142">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1749">
+    <format dxfId="1141">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1748">
+    <format dxfId="1140">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1747">
+    <format dxfId="1139">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1746">
+    <format dxfId="1138">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16174,7 +14114,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1745">
+    <format dxfId="1137">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16183,7 +14123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1744">
+    <format dxfId="1136">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16192,7 +14132,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1743">
+    <format dxfId="1135">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16201,7 +14141,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1742">
+    <format dxfId="1134">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16210,7 +14150,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1741">
+    <format dxfId="1133">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16219,7 +14159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1740">
+    <format dxfId="1132">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16228,7 +14168,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1739">
+    <format dxfId="1131">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16237,7 +14177,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1738">
+    <format dxfId="1130">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16246,51 +14186,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1737">
+    <format dxfId="1129">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1736">
+    <format dxfId="1128">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1735">
+    <format dxfId="1127">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1734">
+    <format dxfId="1126">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1733">
+    <format dxfId="1125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1732">
+    <format dxfId="1124">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1731">
+    <format dxfId="1123">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1730">
+    <format dxfId="1122">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1729">
+    <format dxfId="1121">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16307,7 +14247,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16401,7 +14341,7 @@
         <item m="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
       <items count="273">
         <item m="1" x="248"/>
         <item m="1" x="148"/>
@@ -16677,6 +14617,15 @@
         <item m="1" x="230"/>
         <item m="1" x="127"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16695,13 +14644,13 @@
   </rowFields>
   <rowItems count="4">
     <i>
-      <x v="113"/>
-    </i>
-    <i>
       <x v="170"/>
     </i>
     <i>
       <x v="263"/>
+    </i>
+    <i>
+      <x v="113"/>
     </i>
     <i t="grand">
       <x/>
@@ -16737,61 +14686,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1728">
+    <format dxfId="1120">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1727">
+    <format dxfId="1119">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1726">
+    <format dxfId="1118">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1725">
+    <format dxfId="1117">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1724">
+    <format dxfId="1116">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1723">
+    <format dxfId="1115">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1722">
+    <format dxfId="1114">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1721">
+    <format dxfId="1113">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1720">
+    <format dxfId="1112">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1719">
+    <format dxfId="1111">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1718">
+    <format dxfId="1110">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1717">
+    <format dxfId="1109">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1716">
+    <format dxfId="1108">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1715">
+    <format dxfId="1107">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1714">
+    <format dxfId="1106">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1713">
+    <format dxfId="1105">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1712">
+    <format dxfId="1104">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1711">
+    <format dxfId="1103">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1710">
+    <format dxfId="1102">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16800,7 +14749,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1709">
+    <format dxfId="1101">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16809,7 +14758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1708">
+    <format dxfId="1100">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16818,7 +14767,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1707">
+    <format dxfId="1099">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16827,7 +14776,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1706">
+    <format dxfId="1098">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16836,7 +14785,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1705">
+    <format dxfId="1097">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16845,7 +14794,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1704">
+    <format dxfId="1096">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16854,7 +14803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1703">
+    <format dxfId="1095">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16863,7 +14812,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1702">
+    <format dxfId="1094">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16872,51 +14821,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1701">
+    <format dxfId="1093">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1700">
+    <format dxfId="1092">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1699">
+    <format dxfId="1091">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1698">
+    <format dxfId="1090">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1697">
+    <format dxfId="1089">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1696">
+    <format dxfId="1088">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1695">
+    <format dxfId="1087">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1694">
+    <format dxfId="1086">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1693">
+    <format dxfId="1085">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16933,7 +14882,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -17027,7 +14976,7 @@
         <item m="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="274">
         <item m="1" x="248"/>
         <item m="1" x="148"/>
@@ -17304,6 +15253,15 @@
         <item m="1" x="127"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -17322,22 +15280,22 @@
   </rowFields>
   <rowItems count="7">
     <i>
-      <x v="123"/>
+      <x v="125"/>
     </i>
     <i>
-      <x v="125"/>
+      <x v="210"/>
     </i>
     <i>
       <x v="139"/>
     </i>
     <i>
-      <x v="188"/>
+      <x v="237"/>
     </i>
     <i>
-      <x v="210"/>
+      <x v="123"/>
     </i>
     <i>
-      <x v="237"/>
+      <x v="188"/>
     </i>
     <i t="grand">
       <x/>
@@ -17373,61 +15331,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1692">
+    <format dxfId="1084">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1691">
+    <format dxfId="1083">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1690">
+    <format dxfId="1082">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1689">
+    <format dxfId="1081">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1688">
+    <format dxfId="1080">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1687">
+    <format dxfId="1079">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1686">
+    <format dxfId="1078">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1685">
+    <format dxfId="1077">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1684">
+    <format dxfId="1076">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1683">
+    <format dxfId="1075">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1682">
+    <format dxfId="1074">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1681">
+    <format dxfId="1073">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1680">
+    <format dxfId="1072">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1679">
+    <format dxfId="1071">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1678">
+    <format dxfId="1070">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1677">
+    <format dxfId="1069">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1676">
+    <format dxfId="1068">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1675">
+    <format dxfId="1067">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1674">
+    <format dxfId="1066">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17436,7 +15394,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1673">
+    <format dxfId="1065">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17445,7 +15403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1672">
+    <format dxfId="1064">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17454,7 +15412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1671">
+    <format dxfId="1063">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17463,7 +15421,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1670">
+    <format dxfId="1062">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17472,7 +15430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1669">
+    <format dxfId="1061">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17481,7 +15439,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1668">
+    <format dxfId="1060">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17490,7 +15448,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1667">
+    <format dxfId="1059">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17499,7 +15457,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1666">
+    <format dxfId="1058">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17508,51 +15466,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1665">
+    <format dxfId="1057">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1664">
+    <format dxfId="1056">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1663">
+    <format dxfId="1055">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1662">
+    <format dxfId="1054">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1661">
+    <format dxfId="1053">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1660">
+    <format dxfId="1052">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1659">
+    <format dxfId="1051">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1658">
+    <format dxfId="1050">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1657">
+    <format dxfId="1049">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -17569,7 +15527,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -18012,61 +15970,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1656">
+    <format dxfId="1048">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1655">
+    <format dxfId="1047">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1654">
+    <format dxfId="1046">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1653">
+    <format dxfId="1045">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1652">
+    <format dxfId="1044">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1651">
+    <format dxfId="1043">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1650">
+    <format dxfId="1042">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1649">
+    <format dxfId="1041">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1648">
+    <format dxfId="1040">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1647">
+    <format dxfId="1039">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1646">
+    <format dxfId="1038">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1645">
+    <format dxfId="1037">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1644">
+    <format dxfId="1036">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1643">
+    <format dxfId="1035">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1642">
+    <format dxfId="1034">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1641">
+    <format dxfId="1033">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1640">
+    <format dxfId="1032">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1639">
+    <format dxfId="1031">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1638">
+    <format dxfId="1030">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18075,7 +16033,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1637">
+    <format dxfId="1029">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18084,7 +16042,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1636">
+    <format dxfId="1028">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18093,7 +16051,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1635">
+    <format dxfId="1027">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18102,7 +16060,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1634">
+    <format dxfId="1026">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18111,7 +16069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1633">
+    <format dxfId="1025">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18120,7 +16078,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1632">
+    <format dxfId="1024">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18129,7 +16087,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1631">
+    <format dxfId="1023">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18138,7 +16096,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1630">
+    <format dxfId="1022">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18147,51 +16105,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1629">
+    <format dxfId="1021">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1628">
+    <format dxfId="1020">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1627">
+    <format dxfId="1019">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1626">
+    <format dxfId="1018">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1625">
+    <format dxfId="1017">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1624">
+    <format dxfId="1016">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1623">
+    <format dxfId="1015">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1622">
+    <format dxfId="1014">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1621">
+    <format dxfId="1013">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -18208,7 +16166,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -18654,61 +16612,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="1620">
+    <format dxfId="1012">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1619">
+    <format dxfId="1011">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1618">
+    <format dxfId="1010">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1617">
+    <format dxfId="1009">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1616">
+    <format dxfId="1008">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1615">
+    <format dxfId="1007">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1614">
+    <format dxfId="1006">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1613">
+    <format dxfId="1005">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1612">
+    <format dxfId="1004">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1611">
+    <format dxfId="1003">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1610">
+    <format dxfId="1002">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1609">
+    <format dxfId="1001">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1608">
+    <format dxfId="1000">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1607">
+    <format dxfId="999">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1606">
+    <format dxfId="998">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1605">
+    <format dxfId="997">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1604">
+    <format dxfId="996">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1603">
+    <format dxfId="995">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1602">
+    <format dxfId="994">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18717,7 +16675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1601">
+    <format dxfId="993">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18726,7 +16684,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1600">
+    <format dxfId="992">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18735,7 +16693,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1599">
+    <format dxfId="991">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18744,7 +16702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1598">
+    <format dxfId="990">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18753,7 +16711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1597">
+    <format dxfId="989">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18762,7 +16720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1596">
+    <format dxfId="988">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18771,7 +16729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1595">
+    <format dxfId="987">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18780,7 +16738,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1594">
+    <format dxfId="986">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18789,71 +16747,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1593">
+    <format dxfId="985">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1592">
+    <format dxfId="984">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1591">
+    <format dxfId="983">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1590">
+    <format dxfId="982">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="1589">
+    <format dxfId="981">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1588">
+    <format dxfId="980">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1587">
+    <format dxfId="979">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1586">
+    <format dxfId="978">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1585">
+    <format dxfId="977">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1584">
+    <format dxfId="976">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1583">
+    <format dxfId="975">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1582">
+    <format dxfId="974">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1581">
+    <format dxfId="973">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -18912,16 +16870,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1876">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1268">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Interm Masc"/>
+        <filter val="Scaled Fem"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="Prova 1B"/>
+        <filter val="Prova 1A"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18936,23 +16894,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1875"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1267"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1874"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1873">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1266"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1265">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1872">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1264">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1871"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1870">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1263"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1262">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1869">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1261">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18964,7 +16922,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="1580"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="972"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19274,7 +17232,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P273" sqref="P273"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -19304,11 +17262,11 @@
     <row r="1" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11">
         <f>SUBTOTAL(3,C3:C2352)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J1" s="11">
         <f>SUBTOTAL(3,J3:J2352)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -19376,7 +17334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19433,7 +17391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -19484,7 +17442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -19535,7 +17493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -19586,7 +17544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -19643,7 +17601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -19700,7 +17658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -19759,7 +17717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -19816,7 +17774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -19873,7 +17831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -19915,7 +17873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -21058,23 +19016,28 @@
       <c r="N33">
         <v>150</v>
       </c>
-      <c r="P33" s="8"/>
+      <c r="O33">
+        <v>30</v>
+      </c>
+      <c r="P33" s="8">
+        <v>100</v>
+      </c>
       <c r="Q33" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R33" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="8"/>
       <c r="T33" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="1" t="str">
-        <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R33,$R$33:$R$35),"A definir")</f>
-        <v>A definir</v>
+        <v>100</v>
+      </c>
+      <c r="U33" s="1">
+        <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R33,$R$33:$R$35,1),"A definir")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21095,23 +19058,28 @@
       <c r="N34">
         <v>150</v>
       </c>
-      <c r="P34" s="8"/>
+      <c r="O34">
+        <v>30</v>
+      </c>
+      <c r="P34" s="8">
+        <v>126</v>
+      </c>
       <c r="Q34" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R34" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="S34" s="8"/>
       <c r="T34" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="1" t="str">
-        <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R34,$R$33:$R$35),"A definir")</f>
-        <v>A definir</v>
+        <v>94</v>
+      </c>
+      <c r="U34" s="1">
+        <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R34,$R$33:$R$35,1),"A definir")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -21138,24 +19106,28 @@
       <c r="N35" s="12">
         <v>150</v>
       </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="14"/>
+      <c r="O35" s="12">
+        <v>30</v>
+      </c>
+      <c r="P35" s="14">
+        <v>116</v>
+      </c>
       <c r="Q35" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R35" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="15" t="str">
-        <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R35,$R$33:$R$35),"A definir")</f>
-        <v>A definir</v>
+        <v>97</v>
+      </c>
+      <c r="U35" s="15">
+        <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R35,$R$33:$R$35,1),"A definir")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21191,23 +19163,28 @@
       <c r="N36">
         <v>150</v>
       </c>
-      <c r="P36" s="8"/>
+      <c r="O36">
+        <v>30</v>
+      </c>
+      <c r="P36" s="8">
+        <v>83</v>
+      </c>
       <c r="Q36" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R36" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="S36" s="8"/>
       <c r="T36" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U36" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R36,$R$36:$R$41,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21243,23 +19220,28 @@
       <c r="N37">
         <v>150</v>
       </c>
-      <c r="P37" s="8"/>
+      <c r="O37">
+        <v>30</v>
+      </c>
+      <c r="P37" s="8">
+        <v>110</v>
+      </c>
       <c r="Q37" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R37" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U37" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R37,$R$36:$R$41,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21295,23 +19277,28 @@
       <c r="N38">
         <v>150</v>
       </c>
-      <c r="P38" s="8"/>
+      <c r="O38">
+        <v>30</v>
+      </c>
+      <c r="P38" s="8">
+        <v>68</v>
+      </c>
       <c r="Q38" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R38" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="S38" s="8"/>
       <c r="T38" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U38" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R38,$R$36:$R$41,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21347,23 +19334,28 @@
       <c r="N39">
         <v>150</v>
       </c>
-      <c r="P39" s="8"/>
+      <c r="O39">
+        <v>30</v>
+      </c>
+      <c r="P39" s="8">
+        <v>70</v>
+      </c>
       <c r="Q39" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R39" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S39" s="8"/>
       <c r="T39" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U39" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R39,$R$36:$R$41,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -21399,23 +19391,28 @@
       <c r="N40">
         <v>150</v>
       </c>
-      <c r="P40" s="8"/>
+      <c r="O40">
+        <v>30</v>
+      </c>
+      <c r="P40" s="8">
+        <v>82</v>
+      </c>
       <c r="Q40" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R40" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="S40" s="8"/>
       <c r="T40" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U40" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R40,$R$36:$R$41,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -21453,24 +19450,28 @@
       <c r="N41" s="12">
         <v>150</v>
       </c>
-      <c r="O41" s="12"/>
-      <c r="P41" s="14"/>
+      <c r="O41" s="12">
+        <v>30</v>
+      </c>
+      <c r="P41" s="14">
+        <v>87</v>
+      </c>
       <c r="Q41" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R41" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="S41" s="14"/>
       <c r="T41" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="15" t="str">
+        <v>88</v>
+      </c>
+      <c r="U41" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R41,$R$36:$R$41,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -23636,7 +21637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>95</v>
       </c>
@@ -23695,7 +21696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>96</v>
       </c>
@@ -23754,7 +21755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>97</v>
       </c>
@@ -23813,7 +21814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>98</v>
       </c>
@@ -23869,7 +21870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>99</v>
       </c>
@@ -23925,7 +21926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>104</v>
       </c>
@@ -24004,23 +22005,28 @@
       <c r="N87">
         <v>840</v>
       </c>
-      <c r="P87" s="8"/>
+      <c r="O87">
+        <v>513</v>
+      </c>
+      <c r="P87" s="8">
+        <v>840</v>
+      </c>
       <c r="Q87" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="R87" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="S87" s="8"/>
       <c r="T87" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U87" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U87" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R87,$R$87:$R$89,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -24044,23 +22050,28 @@
       <c r="N88">
         <v>840</v>
       </c>
-      <c r="P88" s="8"/>
+      <c r="O88">
+        <v>626</v>
+      </c>
+      <c r="P88" s="8">
+        <v>840</v>
+      </c>
       <c r="Q88" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="R88" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="S88" s="8"/>
       <c r="T88" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U88" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U88" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R88,$R$87:$R$89,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24089,24 +22100,28 @@
       <c r="N89" s="12">
         <v>840</v>
       </c>
-      <c r="O89" s="12"/>
-      <c r="P89" s="14"/>
+      <c r="O89" s="12">
+        <v>416</v>
+      </c>
+      <c r="P89" s="14">
+        <v>840</v>
+      </c>
       <c r="Q89" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="R89" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="S89" s="14"/>
       <c r="T89" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U89" s="15" t="str">
+        <v>94</v>
+      </c>
+      <c r="U89" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R89,$R$87:$R$89,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -24139,23 +22154,28 @@
       <c r="N90">
         <v>840</v>
       </c>
-      <c r="P90" s="8"/>
+      <c r="O90">
+        <v>730</v>
+      </c>
+      <c r="P90" s="8">
+        <v>840</v>
+      </c>
       <c r="Q90" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R90" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="S90" s="8"/>
       <c r="T90" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U90" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U90" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R90,$R$90:$R$95,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -24191,23 +22211,28 @@
       <c r="N91">
         <v>840</v>
       </c>
-      <c r="P91" s="8"/>
+      <c r="O91">
+        <v>710</v>
+      </c>
+      <c r="P91" s="8">
+        <v>840</v>
+      </c>
       <c r="Q91" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R91" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="S91" s="8"/>
       <c r="T91" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U91" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U91" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R91,$R$90:$R$95,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -24243,23 +22268,28 @@
       <c r="N92">
         <v>840</v>
       </c>
-      <c r="P92" s="8"/>
+      <c r="O92">
+        <v>741</v>
+      </c>
+      <c r="P92" s="8">
+        <v>840</v>
+      </c>
       <c r="Q92" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R92" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>869</v>
       </c>
       <c r="S92" s="8"/>
       <c r="T92" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U92" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U92" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R92,$R$90:$R$95,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -24295,23 +22325,28 @@
       <c r="N93">
         <v>840</v>
       </c>
-      <c r="P93" s="8"/>
+      <c r="O93">
+        <v>493</v>
+      </c>
+      <c r="P93" s="8">
+        <v>840</v>
+      </c>
       <c r="Q93" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="R93" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="S93" s="8"/>
       <c r="T93" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U93" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U93" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R93,$R$90:$R$95,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -24347,23 +22382,28 @@
       <c r="N94">
         <v>840</v>
       </c>
-      <c r="P94" s="8"/>
+      <c r="O94">
+        <v>798</v>
+      </c>
+      <c r="P94" s="8">
+        <v>840</v>
+      </c>
       <c r="Q94" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R94" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="S94" s="8"/>
       <c r="T94" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U94" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U94" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R94,$R$90:$R$95,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24401,24 +22441,28 @@
       <c r="N95" s="12">
         <v>840</v>
       </c>
-      <c r="O95" s="12"/>
-      <c r="P95" s="14"/>
+      <c r="O95" s="12">
+        <v>747</v>
+      </c>
+      <c r="P95" s="14">
+        <v>840</v>
+      </c>
       <c r="Q95" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R95" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="S95" s="14"/>
       <c r="T95" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U95" s="15" t="str">
+        <v>97</v>
+      </c>
+      <c r="U95" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R95,$R$90:$R$95,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -34234,7 +32278,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -34297,13 +32341,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -34315,18 +32359,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -34338,18 +32382,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -34361,7 +32405,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -34369,10 +32413,10 @@
         <v>34</v>
       </c>
       <c r="B8" s="26">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="C8" s="26">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
@@ -34384,7 +32428,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="10">
-        <v>0</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -34397,7 +32441,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -34460,13 +32504,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -34478,18 +32522,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B6" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -34501,7 +32545,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -34509,10 +32553,10 @@
         <v>75</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -34524,18 +32568,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -34547,18 +32591,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C9" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -34570,18 +32614,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -34593,7 +32637,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -34601,10 +32645,10 @@
         <v>34</v>
       </c>
       <c r="B11" s="26">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="C11" s="26">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="D11" s="26">
         <v>0</v>
@@ -34616,7 +32660,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540962D-CF46-4B16-B3B1-1A70D3E568CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AEB49A-8D99-43DA-8851-B07F92F285AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Dados" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="81" r:id="rId11"/>
+    <pivotCache cacheId="108" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -58,31 +58,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Alexandre Urquiza</author>
-  </authors>
-  <commentList>
-    <comment ref="O96" authorId="0" shapeId="0" xr:uid="{E0D5A513-12CB-4C42-B406-C2CB0F6028B1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alexandre Urquiza:
-Ajustar p/ 603 seg a pedido de Lipe por contestação.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,7 +524,413 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1269">
+  <dxfs count="1597">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -765,6 +1146,720 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1743,14 +2838,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFCC3399"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+          <bgColor rgb="FFFF66FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5040,7 +6135,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.456215740742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.467964583331" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -6371,13 +7466,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="96"/>
+    <n v="0"/>
+    <n v="96"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="45"/>
@@ -6394,13 +7489,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="123"/>
+    <n v="0"/>
+    <n v="123"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
   </r>
   <r>
     <n v="46"/>
@@ -6417,13 +7512,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="110"/>
+    <n v="0"/>
+    <n v="110"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="47"/>
@@ -6440,13 +7535,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="110"/>
+    <n v="0"/>
+    <n v="110"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="48"/>
@@ -6463,13 +7558,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="49"/>
@@ -6486,13 +7581,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="109"/>
+    <n v="0"/>
+    <n v="109"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="50"/>
@@ -6509,13 +7604,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="93"/>
+    <n v="0"/>
+    <n v="93"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="53"/>
@@ -6532,13 +7627,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="109"/>
+    <n v="0"/>
+    <n v="109"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="54"/>
@@ -6555,13 +7650,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="114"/>
+    <n v="0"/>
+    <n v="114"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="55"/>
@@ -6578,13 +7673,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="103"/>
+    <n v="0"/>
+    <n v="103"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="59"/>
@@ -6601,13 +7696,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="119"/>
+    <n v="0"/>
+    <n v="119"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="60"/>
@@ -6624,13 +7719,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="143"/>
+    <n v="0"/>
+    <n v="143"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="61"/>
@@ -6647,13 +7742,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="107"/>
+    <n v="0"/>
+    <n v="107"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="62"/>
@@ -6670,13 +7765,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="117"/>
+    <n v="0"/>
+    <n v="117"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="64"/>
@@ -6693,13 +7788,13 @@
     <m/>
     <n v="40"/>
     <n v="150"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="116"/>
+    <n v="0"/>
+    <n v="116"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="65"/>
@@ -7613,13 +8708,13 @@
     <m/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="540"/>
+    <n v="698"/>
+    <n v="0"/>
+    <n v="698"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="126"/>
@@ -7636,13 +8731,13 @@
     <m/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="540"/>
+    <n v="754"/>
+    <n v="0"/>
+    <n v="754"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="127"/>
@@ -7659,13 +8754,13 @@
     <m/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="540"/>
+    <n v="796"/>
+    <n v="0"/>
+    <n v="796"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="128"/>
@@ -7682,13 +8777,13 @@
     <m/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="532"/>
+    <n v="840"/>
+    <n v="8"/>
+    <n v="848"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="129"/>
@@ -7705,13 +8800,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="540"/>
+    <n v="803"/>
+    <n v="0"/>
+    <n v="803"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="130"/>
@@ -7728,13 +8823,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="510"/>
+    <n v="840"/>
+    <n v="30"/>
+    <n v="870"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="131"/>
@@ -7751,13 +8846,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="540"/>
+    <n v="719"/>
+    <n v="0"/>
+    <n v="719"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="134"/>
@@ -7774,13 +8869,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="509"/>
+    <n v="840"/>
+    <n v="31"/>
+    <n v="871"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
   </r>
   <r>
     <n v="135"/>
@@ -7797,13 +8892,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="405"/>
+    <n v="840"/>
+    <n v="135"/>
+    <n v="975"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="136"/>
@@ -7820,13 +8915,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="530"/>
+    <n v="840"/>
+    <n v="10"/>
+    <n v="850"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="140"/>
@@ -7843,13 +8938,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="510"/>
+    <n v="840"/>
+    <n v="30"/>
+    <n v="870"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="141"/>
@@ -7866,13 +8961,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="500"/>
+    <n v="840"/>
+    <n v="40"/>
+    <n v="880"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="142"/>
@@ -7889,13 +8984,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="538"/>
+    <n v="840"/>
+    <n v="2"/>
+    <n v="842"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="143"/>
@@ -7912,13 +9007,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="540"/>
+    <n v="782"/>
+    <n v="0"/>
+    <n v="782"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="144"/>
@@ -7935,13 +9030,13 @@
     <s v="-"/>
     <n v="540"/>
     <n v="840"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="484"/>
+    <n v="840"/>
+    <n v="56"/>
+    <n v="896"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="145"/>
@@ -11673,7 +12768,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -12137,61 +13232,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="1260">
+    <format dxfId="1588">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1259">
+    <format dxfId="1587">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1258">
+    <format dxfId="1586">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1257">
+    <format dxfId="1585">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1256">
+    <format dxfId="1584">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1255">
+    <format dxfId="1583">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1254">
+    <format dxfId="1582">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1253">
+    <format dxfId="1581">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1252">
+    <format dxfId="1580">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1251">
+    <format dxfId="1579">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1250">
+    <format dxfId="1578">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1249">
+    <format dxfId="1577">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1248">
+    <format dxfId="1576">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1247">
+    <format dxfId="1575">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1246">
+    <format dxfId="1574">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1245">
+    <format dxfId="1573">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1244">
+    <format dxfId="1572">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1243">
+    <format dxfId="1571">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1242">
+    <format dxfId="1570">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12200,7 +13295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1241">
+    <format dxfId="1569">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12209,7 +13304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1240">
+    <format dxfId="1568">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12218,7 +13313,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1239">
+    <format dxfId="1567">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12227,7 +13322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1238">
+    <format dxfId="1566">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12236,7 +13331,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1237">
+    <format dxfId="1565">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12245,7 +13340,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1236">
+    <format dxfId="1564">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12254,7 +13349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1235">
+    <format dxfId="1563">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12263,7 +13358,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1234">
+    <format dxfId="1562">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12272,31 +13367,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1233">
+    <format dxfId="1561">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1232">
+    <format dxfId="1560">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1231">
+    <format dxfId="1559">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1230">
+    <format dxfId="1558">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1229">
+    <format dxfId="1557">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12313,7 +13408,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -12759,61 +13854,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1228">
+    <format dxfId="1556">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1227">
+    <format dxfId="1555">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1226">
+    <format dxfId="1554">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1225">
+    <format dxfId="1553">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1224">
+    <format dxfId="1552">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1223">
+    <format dxfId="1551">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1222">
+    <format dxfId="1550">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1221">
+    <format dxfId="1549">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1220">
+    <format dxfId="1548">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1219">
+    <format dxfId="1547">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1218">
+    <format dxfId="1546">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1217">
+    <format dxfId="1545">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1216">
+    <format dxfId="1544">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1215">
+    <format dxfId="1543">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1214">
+    <format dxfId="1542">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1213">
+    <format dxfId="1541">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1212">
+    <format dxfId="1540">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1211">
+    <format dxfId="1539">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1210">
+    <format dxfId="1538">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12822,7 +13917,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1209">
+    <format dxfId="1537">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12831,7 +13926,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1208">
+    <format dxfId="1536">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12840,7 +13935,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1207">
+    <format dxfId="1535">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12849,7 +13944,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1206">
+    <format dxfId="1534">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12858,7 +13953,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1205">
+    <format dxfId="1533">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12867,7 +13962,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1204">
+    <format dxfId="1532">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12876,7 +13971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1203">
+    <format dxfId="1531">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12885,7 +13980,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1202">
+    <format dxfId="1530">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12894,51 +13989,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1201">
+    <format dxfId="1529">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1200">
+    <format dxfId="1528">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1199">
+    <format dxfId="1527">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1198">
+    <format dxfId="1526">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1197">
+    <format dxfId="1525">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1196">
+    <format dxfId="1524">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1195">
+    <format dxfId="1523">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1194">
+    <format dxfId="1522">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1193">
+    <format dxfId="1521">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12955,7 +14050,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -13410,61 +14505,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1192">
+    <format dxfId="1520">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1191">
+    <format dxfId="1519">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1190">
+    <format dxfId="1518">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1189">
+    <format dxfId="1517">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1188">
+    <format dxfId="1516">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1187">
+    <format dxfId="1515">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1186">
+    <format dxfId="1514">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1185">
+    <format dxfId="1513">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1184">
+    <format dxfId="1512">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1183">
+    <format dxfId="1511">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1182">
+    <format dxfId="1510">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1181">
+    <format dxfId="1509">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1180">
+    <format dxfId="1508">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1179">
+    <format dxfId="1507">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1178">
+    <format dxfId="1506">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1177">
+    <format dxfId="1505">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1176">
+    <format dxfId="1504">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1175">
+    <format dxfId="1503">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1174">
+    <format dxfId="1502">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13473,7 +14568,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1173">
+    <format dxfId="1501">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13482,7 +14577,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1172">
+    <format dxfId="1500">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13491,7 +14586,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1171">
+    <format dxfId="1499">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13500,7 +14595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1170">
+    <format dxfId="1498">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13509,7 +14604,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1169">
+    <format dxfId="1497">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13518,7 +14613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1168">
+    <format dxfId="1496">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13527,7 +14622,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1167">
+    <format dxfId="1495">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13536,7 +14631,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1166">
+    <format dxfId="1494">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13545,47 +14640,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1165">
+    <format dxfId="1493">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1164">
+    <format dxfId="1492">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1163">
+    <format dxfId="1491">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1162">
+    <format dxfId="1490">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1161">
+    <format dxfId="1489">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1160">
+    <format dxfId="1488">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1159">
+    <format dxfId="1487">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1158">
+    <format dxfId="1486">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1157">
+    <format dxfId="1485">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13602,7 +14697,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14051,61 +15146,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1156">
+    <format dxfId="1484">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1155">
+    <format dxfId="1483">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1154">
+    <format dxfId="1482">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1153">
+    <format dxfId="1481">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1152">
+    <format dxfId="1480">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1151">
+    <format dxfId="1479">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1150">
+    <format dxfId="1478">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1149">
+    <format dxfId="1477">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1148">
+    <format dxfId="1476">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1147">
+    <format dxfId="1475">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1146">
+    <format dxfId="1474">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1145">
+    <format dxfId="1473">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1144">
+    <format dxfId="1472">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1143">
+    <format dxfId="1471">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1142">
+    <format dxfId="1470">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1141">
+    <format dxfId="1469">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1140">
+    <format dxfId="1468">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1139">
+    <format dxfId="1467">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1138">
+    <format dxfId="1466">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14114,7 +15209,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1137">
+    <format dxfId="1465">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14123,7 +15218,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1136">
+    <format dxfId="1464">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14132,7 +15227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1135">
+    <format dxfId="1463">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14141,7 +15236,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1134">
+    <format dxfId="1462">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14150,7 +15245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1133">
+    <format dxfId="1461">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14159,7 +15254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1132">
+    <format dxfId="1460">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14168,7 +15263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1131">
+    <format dxfId="1459">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14177,7 +15272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1130">
+    <format dxfId="1458">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14186,51 +15281,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1129">
+    <format dxfId="1457">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1128">
+    <format dxfId="1456">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1127">
+    <format dxfId="1455">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1126">
+    <format dxfId="1454">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1125">
+    <format dxfId="1453">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1124">
+    <format dxfId="1452">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1123">
+    <format dxfId="1451">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1122">
+    <format dxfId="1450">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1121">
+    <format dxfId="1449">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14247,7 +15342,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14686,61 +15781,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1120">
+    <format dxfId="1448">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1119">
+    <format dxfId="1447">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1118">
+    <format dxfId="1446">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1117">
+    <format dxfId="1445">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1116">
+    <format dxfId="1444">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1115">
+    <format dxfId="1443">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1114">
+    <format dxfId="1442">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1113">
+    <format dxfId="1441">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1112">
+    <format dxfId="1440">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1111">
+    <format dxfId="1439">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1110">
+    <format dxfId="1438">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1109">
+    <format dxfId="1437">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1108">
+    <format dxfId="1436">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1107">
+    <format dxfId="1435">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1106">
+    <format dxfId="1434">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1105">
+    <format dxfId="1433">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1104">
+    <format dxfId="1432">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1103">
+    <format dxfId="1431">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1102">
+    <format dxfId="1430">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14749,7 +15844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1101">
+    <format dxfId="1429">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14758,7 +15853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1100">
+    <format dxfId="1428">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14767,7 +15862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1099">
+    <format dxfId="1427">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14776,7 +15871,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1098">
+    <format dxfId="1426">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14785,7 +15880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1097">
+    <format dxfId="1425">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14794,7 +15889,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1096">
+    <format dxfId="1424">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14803,7 +15898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1095">
+    <format dxfId="1423">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14812,7 +15907,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1094">
+    <format dxfId="1422">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14821,51 +15916,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1093">
+    <format dxfId="1421">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1092">
+    <format dxfId="1420">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1091">
+    <format dxfId="1419">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1090">
+    <format dxfId="1418">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1089">
+    <format dxfId="1417">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1088">
+    <format dxfId="1416">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1087">
+    <format dxfId="1415">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1086">
+    <format dxfId="1414">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1085">
+    <format dxfId="1413">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14882,7 +15977,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15331,61 +16426,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1084">
+    <format dxfId="1412">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1083">
+    <format dxfId="1411">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1082">
+    <format dxfId="1410">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1081">
+    <format dxfId="1409">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1080">
+    <format dxfId="1408">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1079">
+    <format dxfId="1407">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1078">
+    <format dxfId="1406">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1077">
+    <format dxfId="1405">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1076">
+    <format dxfId="1404">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1075">
+    <format dxfId="1403">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1074">
+    <format dxfId="1402">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1073">
+    <format dxfId="1401">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1072">
+    <format dxfId="1400">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1071">
+    <format dxfId="1399">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1070">
+    <format dxfId="1398">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1069">
+    <format dxfId="1397">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1068">
+    <format dxfId="1396">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1067">
+    <format dxfId="1395">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1066">
+    <format dxfId="1394">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15394,7 +16489,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1065">
+    <format dxfId="1393">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15403,7 +16498,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1064">
+    <format dxfId="1392">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15412,7 +16507,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1063">
+    <format dxfId="1391">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15421,7 +16516,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1062">
+    <format dxfId="1390">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15430,7 +16525,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1061">
+    <format dxfId="1389">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15439,7 +16534,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1060">
+    <format dxfId="1388">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15448,7 +16543,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1059">
+    <format dxfId="1387">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15457,7 +16552,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1058">
+    <format dxfId="1386">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15466,51 +16561,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1057">
+    <format dxfId="1385">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1056">
+    <format dxfId="1384">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1055">
+    <format dxfId="1383">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1054">
+    <format dxfId="1382">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1053">
+    <format dxfId="1381">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1052">
+    <format dxfId="1380">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1051">
+    <format dxfId="1379">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1050">
+    <format dxfId="1378">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1049">
+    <format dxfId="1377">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15527,7 +16622,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15621,7 +16716,7 @@
         <item m="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="274">
         <item m="1" x="248"/>
         <item m="1" x="148"/>
@@ -15898,6 +16993,15 @@
         <item m="1" x="127"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15916,25 +17020,25 @@
   </rowFields>
   <rowItems count="8">
     <i>
-      <x v="6"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="37"/>
+      <x v="254"/>
     </i>
     <i>
       <x v="71"/>
     </i>
     <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
       <x v="135"/>
     </i>
     <i>
-      <x v="157"/>
-    </i>
-    <i>
       <x v="230"/>
-    </i>
-    <i>
-      <x v="254"/>
     </i>
     <i t="grand">
       <x/>
@@ -15970,61 +17074,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1048">
+    <format dxfId="1376">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1047">
+    <format dxfId="1375">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1046">
+    <format dxfId="1374">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1045">
+    <format dxfId="1373">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1044">
+    <format dxfId="1372">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1043">
+    <format dxfId="1371">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1042">
+    <format dxfId="1370">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1041">
+    <format dxfId="1369">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1040">
+    <format dxfId="1368">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1039">
+    <format dxfId="1367">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1038">
+    <format dxfId="1366">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1037">
+    <format dxfId="1365">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1036">
+    <format dxfId="1364">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1035">
+    <format dxfId="1363">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1034">
+    <format dxfId="1362">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1033">
+    <format dxfId="1361">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1032">
+    <format dxfId="1360">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1031">
+    <format dxfId="1359">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1030">
+    <format dxfId="1358">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16033,7 +17137,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1029">
+    <format dxfId="1357">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16042,7 +17146,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1028">
+    <format dxfId="1356">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16051,7 +17155,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1027">
+    <format dxfId="1355">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16060,7 +17164,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1026">
+    <format dxfId="1354">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16069,7 +17173,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1025">
+    <format dxfId="1353">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16078,7 +17182,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1024">
+    <format dxfId="1352">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16087,7 +17191,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1023">
+    <format dxfId="1351">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16096,7 +17200,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1022">
+    <format dxfId="1350">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16105,51 +17209,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1021">
+    <format dxfId="1349">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1020">
+    <format dxfId="1348">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1019">
+    <format dxfId="1347">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1018">
+    <format dxfId="1346">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1017">
+    <format dxfId="1345">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1016">
+    <format dxfId="1344">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1015">
+    <format dxfId="1343">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1014">
+    <format dxfId="1342">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1013">
+    <format dxfId="1341">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16166,7 +17270,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16260,7 +17364,7 @@
         <item m="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="274">
         <item m="1" x="248"/>
         <item m="1" x="148"/>
@@ -16537,6 +17641,15 @@
         <item m="1" x="127"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16555,28 +17668,28 @@
   </rowFields>
   <rowItems count="9">
     <i>
+      <x v="233"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
       <x v="56"/>
+    </i>
+    <i>
+      <x v="258"/>
+    </i>
+    <i>
+      <x v="183"/>
     </i>
     <i>
       <x v="97"/>
     </i>
     <i>
-      <x v="129"/>
-    </i>
-    <i>
       <x v="152"/>
-    </i>
-    <i>
-      <x v="165"/>
-    </i>
-    <i>
-      <x v="183"/>
-    </i>
-    <i>
-      <x v="233"/>
-    </i>
-    <i>
-      <x v="258"/>
     </i>
     <i t="grand">
       <x/>
@@ -16612,61 +17725,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="1012">
+    <format dxfId="1340">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1011">
+    <format dxfId="1339">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1010">
+    <format dxfId="1338">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1009">
+    <format dxfId="1337">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1008">
+    <format dxfId="1336">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1007">
+    <format dxfId="1335">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1006">
+    <format dxfId="1334">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1005">
+    <format dxfId="1333">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1004">
+    <format dxfId="1332">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1003">
+    <format dxfId="1331">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1002">
+    <format dxfId="1330">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1001">
+    <format dxfId="1329">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1000">
+    <format dxfId="1328">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="999">
+    <format dxfId="1327">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="998">
+    <format dxfId="1326">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="997">
+    <format dxfId="1325">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="996">
+    <format dxfId="1324">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="995">
+    <format dxfId="1323">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="994">
+    <format dxfId="1322">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16675,7 +17788,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="993">
+    <format dxfId="1321">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16684,7 +17797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="992">
+    <format dxfId="1320">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16693,7 +17806,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="991">
+    <format dxfId="1319">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16702,7 +17815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="990">
+    <format dxfId="1318">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16711,7 +17824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="989">
+    <format dxfId="1317">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16720,7 +17833,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="988">
+    <format dxfId="1316">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16729,7 +17842,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="987">
+    <format dxfId="1315">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16738,7 +17851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="986">
+    <format dxfId="1314">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16747,71 +17860,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="985">
+    <format dxfId="1313">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="984">
+    <format dxfId="1312">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="983">
+    <format dxfId="1311">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="982">
+    <format dxfId="1310">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="981">
+    <format dxfId="1309">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="980">
+    <format dxfId="1308">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="979">
+    <format dxfId="1307">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="978">
+    <format dxfId="1306">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="977">
+    <format dxfId="1305">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="976">
+    <format dxfId="1304">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="975">
+    <format dxfId="1303">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="974">
+    <format dxfId="1302">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="973">
+    <format dxfId="1301">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -16870,16 +17983,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1268">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1596">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Scaled Fem"/>
+        <filter val="RX Masc"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Prova 1A"/>
+        <filter val="Prova 1B"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16894,23 +18008,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1267"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1595"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1266"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1265">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1594"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1593">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1264">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1592">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1263"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1262">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1591"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1590">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1261">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1589">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16922,7 +18036,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="972"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="1300"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17225,14 +18339,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="O101" sqref="O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -17262,11 +18376,11 @@
     <row r="1" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11">
         <f>SUBTOTAL(3,C3:C2352)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J1" s="11">
         <f>SUBTOTAL(3,J3:J2352)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -17334,7 +18448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17391,7 +18505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -17442,7 +18556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -17493,7 +18607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -17544,7 +18658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -17601,7 +18715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -17658,7 +18772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -17717,7 +18831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -17774,7 +18888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -17831,7 +18945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -17873,7 +18987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -19474,7 +20588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>44</v>
       </c>
@@ -19507,26 +20621,31 @@
       <c r="N42">
         <v>150</v>
       </c>
-      <c r="P42" s="8"/>
+      <c r="O42">
+        <v>40</v>
+      </c>
+      <c r="P42" s="8">
+        <v>96</v>
+      </c>
       <c r="Q42" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R42" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="S42" s="8"/>
       <c r="T42" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U42" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R42,$R$42:$R$49,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>45</v>
       </c>
@@ -19559,26 +20678,31 @@
       <c r="N43">
         <v>150</v>
       </c>
-      <c r="P43" s="8"/>
+      <c r="O43">
+        <v>40</v>
+      </c>
+      <c r="P43" s="8">
+        <v>123</v>
+      </c>
       <c r="Q43" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R43" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="S43" s="8"/>
       <c r="T43" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="U43" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R43,$R$42:$R$49,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>46</v>
       </c>
@@ -19611,26 +20735,31 @@
       <c r="N44">
         <v>150</v>
       </c>
-      <c r="P44" s="8"/>
+      <c r="O44">
+        <v>40</v>
+      </c>
+      <c r="P44" s="8">
+        <v>110</v>
+      </c>
       <c r="Q44" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R44" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="S44" s="8"/>
       <c r="T44" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U44" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R44,$R$42:$R$49,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>47</v>
       </c>
@@ -19663,26 +20792,31 @@
       <c r="N45">
         <v>150</v>
       </c>
-      <c r="P45" s="8"/>
+      <c r="O45">
+        <v>40</v>
+      </c>
+      <c r="P45" s="8">
+        <v>110</v>
+      </c>
       <c r="Q45" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R45" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="S45" s="8"/>
       <c r="T45" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U45" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R45,$R$42:$R$49,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>48</v>
       </c>
@@ -19715,26 +20849,31 @@
       <c r="N46">
         <v>150</v>
       </c>
-      <c r="P46" s="8"/>
+      <c r="O46">
+        <v>40</v>
+      </c>
+      <c r="P46" s="8">
+        <v>81</v>
+      </c>
       <c r="Q46" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R46" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S46" s="8"/>
       <c r="T46" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U46" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R46,$R$42:$R$49,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>49</v>
       </c>
@@ -19767,26 +20906,31 @@
       <c r="N47">
         <v>150</v>
       </c>
-      <c r="P47" s="8"/>
+      <c r="O47">
+        <v>40</v>
+      </c>
+      <c r="P47" s="8">
+        <v>109</v>
+      </c>
       <c r="Q47" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R47" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="S47" s="8"/>
       <c r="T47" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U47" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R47,$R$42:$R$49,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -19819,26 +20963,31 @@
       <c r="N48">
         <v>150</v>
       </c>
-      <c r="P48" s="8"/>
+      <c r="O48">
+        <v>40</v>
+      </c>
+      <c r="P48" s="8">
+        <v>93</v>
+      </c>
       <c r="Q48" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R48" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="S48" s="8"/>
       <c r="T48" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U48" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R48,$R$42:$R$49,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>53</v>
       </c>
@@ -19873,24 +21022,28 @@
       <c r="N49" s="12">
         <v>150</v>
       </c>
-      <c r="O49" s="12"/>
-      <c r="P49" s="14"/>
+      <c r="O49" s="12">
+        <v>40</v>
+      </c>
+      <c r="P49" s="14">
+        <v>109</v>
+      </c>
       <c r="Q49" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R49" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="S49" s="14"/>
       <c r="T49" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U49" s="15" t="str">
+        <v>91</v>
+      </c>
+      <c r="U49" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R49,$R$42:$R$49,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -19926,23 +21079,28 @@
       <c r="N50">
         <v>150</v>
       </c>
-      <c r="P50" s="8"/>
+      <c r="O50">
+        <v>40</v>
+      </c>
+      <c r="P50" s="8">
+        <v>114</v>
+      </c>
       <c r="Q50" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R50" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="S50" s="8"/>
       <c r="T50" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U50" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U50" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R50,$R$50:$R$56,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -19978,23 +21136,28 @@
       <c r="N51">
         <v>150</v>
       </c>
-      <c r="P51" s="8"/>
+      <c r="O51">
+        <v>40</v>
+      </c>
+      <c r="P51" s="8">
+        <v>103</v>
+      </c>
       <c r="Q51" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R51" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="S51" s="8"/>
       <c r="T51" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U51" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U51" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R51,$R$50:$R$56,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -20030,23 +21193,28 @@
       <c r="N52">
         <v>150</v>
       </c>
-      <c r="P52" s="8"/>
+      <c r="O52">
+        <v>40</v>
+      </c>
+      <c r="P52" s="8">
+        <v>119</v>
+      </c>
       <c r="Q52" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R52" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="S52" s="8"/>
       <c r="T52" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U52" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R52,$R$50:$R$56,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -20082,23 +21250,28 @@
       <c r="N53">
         <v>150</v>
       </c>
-      <c r="P53" s="8"/>
+      <c r="O53">
+        <v>40</v>
+      </c>
+      <c r="P53" s="8">
+        <v>143</v>
+      </c>
       <c r="Q53" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R53" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U53" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="U53" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R53,$R$50:$R$56,1),"A definir")</f>
-        <v>A definir</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -20134,23 +21307,28 @@
       <c r="N54">
         <v>150</v>
       </c>
-      <c r="P54" s="8"/>
+      <c r="O54">
+        <v>40</v>
+      </c>
+      <c r="P54" s="8">
+        <v>107</v>
+      </c>
       <c r="Q54" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R54" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="S54" s="8"/>
       <c r="T54" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U54" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U54" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R54,$R$50:$R$56,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -20186,23 +21364,28 @@
       <c r="N55">
         <v>150</v>
       </c>
-      <c r="P55" s="8"/>
+      <c r="O55">
+        <v>40</v>
+      </c>
+      <c r="P55" s="8">
+        <v>117</v>
+      </c>
       <c r="Q55" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R55" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="S55" s="8"/>
       <c r="T55" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U55" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U55" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R55,$R$50:$R$56,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -20238,24 +21421,28 @@
       <c r="N56" s="12">
         <v>150</v>
       </c>
-      <c r="O56" s="12"/>
-      <c r="P56" s="14"/>
+      <c r="O56" s="12">
+        <v>40</v>
+      </c>
+      <c r="P56" s="14">
+        <v>116</v>
+      </c>
       <c r="Q56" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R56" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="S56" s="14"/>
       <c r="T56" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U56" s="15" t="str">
+        <v>91</v>
+      </c>
+      <c r="U56" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R56,$R$50:$R$56,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -22465,7 +23652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>125</v>
       </c>
@@ -22498,26 +23685,31 @@
       <c r="N96">
         <v>840</v>
       </c>
-      <c r="P96" s="8"/>
+      <c r="O96">
+        <v>540</v>
+      </c>
+      <c r="P96" s="8">
+        <v>698</v>
+      </c>
       <c r="Q96" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R96" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="S96" s="8"/>
       <c r="T96" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U96" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U96" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R96,$R$96:$R$103,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>126</v>
       </c>
@@ -22550,26 +23742,31 @@
       <c r="N97">
         <v>840</v>
       </c>
-      <c r="P97" s="8"/>
+      <c r="O97">
+        <v>540</v>
+      </c>
+      <c r="P97" s="8">
+        <v>754</v>
+      </c>
       <c r="Q97" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R97" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U97" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U97" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R97,$R$96:$R$103,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>127</v>
       </c>
@@ -22602,26 +23799,31 @@
       <c r="N98">
         <v>840</v>
       </c>
-      <c r="P98" s="8"/>
+      <c r="O98">
+        <v>540</v>
+      </c>
+      <c r="P98" s="8">
+        <v>796</v>
+      </c>
       <c r="Q98" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R98" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="S98" s="8"/>
       <c r="T98" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U98" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U98" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R98,$R$96:$R$103,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>128</v>
       </c>
@@ -22654,26 +23856,31 @@
       <c r="N99">
         <v>840</v>
       </c>
-      <c r="P99" s="8"/>
+      <c r="O99">
+        <v>532</v>
+      </c>
+      <c r="P99" s="8">
+        <v>840</v>
+      </c>
       <c r="Q99" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R99" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="S99" s="8"/>
       <c r="T99" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U99" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U99" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R99,$R$96:$R$103,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>129</v>
       </c>
@@ -22708,26 +23915,31 @@
       <c r="N100">
         <v>840</v>
       </c>
-      <c r="P100" s="8"/>
+      <c r="O100">
+        <v>540</v>
+      </c>
+      <c r="P100" s="8">
+        <v>803</v>
+      </c>
       <c r="Q100" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R100" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="S100" s="8"/>
       <c r="T100" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U100" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U100" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R100,$R$96:$R$103,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>130</v>
       </c>
@@ -22762,26 +23974,31 @@
       <c r="N101">
         <v>840</v>
       </c>
-      <c r="P101" s="8"/>
+      <c r="O101">
+        <v>510</v>
+      </c>
+      <c r="P101" s="8">
+        <v>840</v>
+      </c>
       <c r="Q101" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R101" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="S101" s="8"/>
       <c r="T101" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U101" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="U101" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R101,$R$96:$R$103,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>131</v>
       </c>
@@ -22816,26 +24033,31 @@
       <c r="N102">
         <v>840</v>
       </c>
-      <c r="P102" s="8"/>
+      <c r="O102">
+        <v>540</v>
+      </c>
+      <c r="P102" s="8">
+        <v>719</v>
+      </c>
       <c r="Q102" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R102" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="S102" s="8"/>
       <c r="T102" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U102" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U102" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R102,$R$96:$R$103,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>134</v>
       </c>
@@ -22872,24 +24094,28 @@
       <c r="N103" s="12">
         <v>840</v>
       </c>
-      <c r="O103" s="12"/>
-      <c r="P103" s="14"/>
+      <c r="O103" s="12">
+        <v>509</v>
+      </c>
+      <c r="P103" s="14">
+        <v>840</v>
+      </c>
       <c r="Q103" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R103" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="S103" s="14"/>
       <c r="T103" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U103" s="15" t="str">
+        <v>79</v>
+      </c>
+      <c r="U103" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R103,$R$96:$R$103,1),"A definir")</f>
-        <v>A definir</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -22927,23 +24153,28 @@
       <c r="N104">
         <v>840</v>
       </c>
-      <c r="P104" s="8"/>
+      <c r="O104">
+        <v>405</v>
+      </c>
+      <c r="P104" s="8">
+        <v>840</v>
+      </c>
       <c r="Q104" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="R104" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="S104" s="8"/>
       <c r="T104" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U104" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="U104" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R104,$R$104:$R$110,1),"A definir")</f>
-        <v>A definir</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -22981,23 +24212,28 @@
       <c r="N105">
         <v>840</v>
       </c>
-      <c r="P105" s="8"/>
+      <c r="O105">
+        <v>530</v>
+      </c>
+      <c r="P105" s="8">
+        <v>840</v>
+      </c>
       <c r="Q105" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R105" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="S105" s="8"/>
       <c r="T105" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U105" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U105" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R105,$R$104:$R$110,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -23035,23 +24271,28 @@
       <c r="N106">
         <v>840</v>
       </c>
-      <c r="P106" s="8"/>
+      <c r="O106">
+        <v>510</v>
+      </c>
+      <c r="P106" s="8">
+        <v>840</v>
+      </c>
       <c r="Q106" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R106" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="S106" s="8"/>
       <c r="T106" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U106" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U106" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R106,$R$104:$R$110,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -23089,23 +24330,28 @@
       <c r="N107">
         <v>840</v>
       </c>
-      <c r="P107" s="8"/>
+      <c r="O107">
+        <v>500</v>
+      </c>
+      <c r="P107" s="8">
+        <v>840</v>
+      </c>
       <c r="Q107" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R107" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="S107" s="8"/>
       <c r="T107" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U107" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U107" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R107,$R$104:$R$110,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -23143,23 +24389,28 @@
       <c r="N108">
         <v>840</v>
       </c>
-      <c r="P108" s="8"/>
+      <c r="O108">
+        <v>538</v>
+      </c>
+      <c r="P108" s="8">
+        <v>840</v>
+      </c>
       <c r="Q108" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R108" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="S108" s="8"/>
       <c r="T108" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U108" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U108" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R108,$R$104:$R$110,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -23197,23 +24448,28 @@
       <c r="N109">
         <v>840</v>
       </c>
-      <c r="P109" s="8"/>
+      <c r="O109">
+        <v>540</v>
+      </c>
+      <c r="P109" s="8">
+        <v>782</v>
+      </c>
       <c r="Q109" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R109" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="S109" s="8"/>
       <c r="T109" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U109" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U109" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R109,$R$104:$R$110,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -23253,24 +24509,28 @@
       <c r="N110" s="12">
         <v>840</v>
       </c>
-      <c r="O110" s="12"/>
-      <c r="P110" s="14"/>
+      <c r="O110" s="12">
+        <v>484</v>
+      </c>
+      <c r="P110" s="14">
+        <v>840</v>
+      </c>
       <c r="Q110" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="R110" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="S110" s="14"/>
       <c r="T110" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U110" s="15" t="str">
+        <v>85</v>
+      </c>
+      <c r="U110" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R110,$R$104:$R$110,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -31009,14 +32269,13 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId5"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -32673,14 +33932,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="4" previousRow="4" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="9" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32743,13 +33995,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -32761,18 +34013,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B6" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -32784,7 +34036,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -32792,10 +34044,10 @@
         <v>81</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -32807,18 +34059,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -32830,19 +34082,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="8">
+        <v>94</v>
+      </c>
+      <c r="C9" s="8">
         <v>82</v>
       </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
@@ -32853,18 +34105,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -32876,18 +34128,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C11" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -32899,7 +34151,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -32907,10 +34159,10 @@
         <v>34</v>
       </c>
       <c r="B12" s="26">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="C12" s="26">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="D12" s="26">
         <v>0</v>
@@ -32922,7 +34174,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="10">
-        <v>0</v>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -32934,8 +34186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32998,13 +34250,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -33016,18 +34268,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -33039,18 +34291,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -33062,18 +34314,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -33085,18 +34337,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C9" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -33108,7 +34360,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -33116,10 +34368,10 @@
         <v>88</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C10" s="27">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -33131,18 +34383,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C11" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -33154,18 +34406,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -33177,7 +34429,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -33185,10 +34437,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="26">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="C13" s="26">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="D13" s="26">
         <v>0</v>
@@ -33200,7 +34452,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AEB49A-8D99-43DA-8851-B07F92F285AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44A6323-1F8B-408C-B332-E9CB4894ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Dados" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="108" r:id="rId11"/>
+    <pivotCache cacheId="189" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -524,7 +524,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1597">
+  <dxfs count="2025">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -760,6 +760,842 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1738,6 +2574,148 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC3399"/>
         </patternFill>
       </fill>
@@ -1860,6 +2838,720 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2838,6 +4530,148 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC3399"/>
         </patternFill>
       </fill>
@@ -2960,6 +4794,720 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3938,6 +6486,270 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -4060,156 +6872,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4446,250 +7116,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
@@ -4947,984 +7373,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0&quot;º&quot;"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6135,7 +7583,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.467964583331" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.509478472224" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -6520,7 +7968,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="28" maxValue="770"/>
     </cacheField>
     <cacheField name="Time Cap (s)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="150" maxValue="840"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="840"/>
     </cacheField>
     <cacheField name="Reps" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="798"/>
@@ -9054,12 +10502,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="92"/>
+    <n v="0"/>
+    <n v="92"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="146"/>
@@ -9077,12 +10525,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="100"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="147"/>
@@ -9100,12 +10548,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="90"/>
+    <n v="0"/>
+    <n v="90"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="148"/>
@@ -9123,12 +10571,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="108"/>
+    <n v="0"/>
+    <n v="108"/>
+    <m/>
+    <n v="73"/>
+    <n v="10"/>
   </r>
   <r>
     <n v="149"/>
@@ -9146,12 +10594,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="105"/>
+    <n v="0"/>
+    <n v="105"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
   </r>
   <r>
     <n v="150"/>
@@ -9169,12 +10617,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="150"/>
+    <n v="0"/>
+    <n v="150"/>
+    <m/>
+    <n v="70"/>
+    <n v="11"/>
   </r>
   <r>
     <n v="151"/>
@@ -9192,12 +10640,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="90"/>
+    <n v="0"/>
+    <n v="90"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="152"/>
@@ -9215,12 +10663,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="96"/>
+    <n v="0"/>
+    <n v="96"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <m/>
@@ -9238,12 +10686,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="85"/>
+    <n v="0"/>
+    <n v="85"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="153"/>
@@ -9261,12 +10709,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="106"/>
+    <n v="0"/>
+    <n v="106"/>
+    <m/>
+    <n v="76"/>
+    <n v="9"/>
   </r>
   <r>
     <n v="154"/>
@@ -9284,12 +10732,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="70"/>
+    <n v="0"/>
+    <n v="70"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -9307,12 +10755,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="104"/>
+    <n v="0"/>
+    <n v="104"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="156"/>
@@ -9330,12 +10778,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="127"/>
+    <n v="0"/>
+    <n v="127"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="157"/>
@@ -9353,12 +10801,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="100"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="158"/>
@@ -9376,12 +10824,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="147"/>
+    <n v="0"/>
+    <n v="147"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="159"/>
@@ -9399,12 +10847,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="98"/>
+    <n v="0"/>
+    <n v="98"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="165"/>
@@ -10293,15 +11741,15 @@
     <x v="0"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="125"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="5"/>
+    <n v="185"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <m/>
@@ -10316,15 +11764,15 @@
     <x v="1"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="71"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="59"/>
+    <n v="239"/>
+    <m/>
+    <n v="76"/>
+    <n v="9"/>
   </r>
   <r>
     <m/>
@@ -10339,15 +11787,15 @@
     <x v="2"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="119"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="11"/>
+    <n v="191"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <m/>
@@ -10362,15 +11810,15 @@
     <x v="3"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="89"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="41"/>
+    <n v="221"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <m/>
@@ -10385,15 +11833,15 @@
     <x v="4"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="54"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="76"/>
+    <n v="256"/>
+    <m/>
+    <n v="70"/>
+    <n v="11"/>
   </r>
   <r>
     <m/>
@@ -10408,15 +11856,15 @@
     <x v="5"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="76"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="54"/>
+    <n v="234"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
   </r>
   <r>
     <m/>
@@ -10431,15 +11879,15 @@
     <x v="6"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="120"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="10"/>
+    <n v="190"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <m/>
@@ -10454,15 +11902,15 @@
     <x v="7"/>
     <m/>
     <s v="-"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="127"/>
+    <n v="180"/>
+    <n v="3"/>
+    <n v="183"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -10477,15 +11925,15 @@
     <x v="8"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="62"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="68"/>
+    <n v="248"/>
+    <m/>
+    <n v="73"/>
+    <n v="10"/>
   </r>
   <r>
     <m/>
@@ -10500,15 +11948,15 @@
     <x v="9"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="89"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="41"/>
+    <n v="221"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <m/>
@@ -10523,15 +11971,15 @@
     <x v="10"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="90"/>
     <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="40"/>
+    <n v="220"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <m/>
@@ -10546,15 +11994,15 @@
     <x v="11"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="115"/>
+    <n v="600"/>
+    <n v="15"/>
+    <n v="615"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -10569,15 +12017,15 @@
     <x v="12"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="37"/>
+    <n v="600"/>
+    <n v="93"/>
+    <n v="693"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <m/>
@@ -10592,15 +12040,15 @@
     <x v="13"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="90"/>
+    <n v="600"/>
+    <n v="40"/>
+    <n v="640"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <m/>
@@ -10615,15 +12063,15 @@
     <x v="14"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="46"/>
+    <n v="600"/>
+    <n v="84"/>
+    <n v="684"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <m/>
@@ -10638,15 +12086,15 @@
     <x v="15"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="64"/>
+    <n v="600"/>
+    <n v="66"/>
+    <n v="666"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <m/>
@@ -12768,7 +14216,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -13166,19 +14614,13 @@
   </rowFields>
   <rowItems count="12">
     <i>
-      <x v="31"/>
-    </i>
-    <i>
       <x v="224"/>
     </i>
     <i>
       <x v="251"/>
     </i>
     <i>
-      <x v="176"/>
-    </i>
-    <i>
-      <x v="93"/>
+      <x v="31"/>
     </i>
     <i>
       <x v="173"/>
@@ -13187,16 +14629,22 @@
       <x v="231"/>
     </i>
     <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
       <x v="36"/>
     </i>
     <i>
       <x v="124"/>
     </i>
     <i>
-      <x v="95"/>
+      <x v="156"/>
     </i>
     <i>
-      <x v="156"/>
+      <x v="95"/>
     </i>
     <i t="grand">
       <x/>
@@ -13232,61 +14680,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="1588">
+    <format dxfId="1984">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1587">
+    <format dxfId="1985">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1586">
+    <format dxfId="1986">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1585">
+    <format dxfId="1987">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1584">
+    <format dxfId="1988">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1583">
+    <format dxfId="1989">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1582">
+    <format dxfId="1990">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1581">
+    <format dxfId="1991">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1580">
+    <format dxfId="1992">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1579">
+    <format dxfId="1993">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1578">
+    <format dxfId="1994">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1577">
+    <format dxfId="1995">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1576">
+    <format dxfId="1996">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1575">
+    <format dxfId="1997">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1574">
+    <format dxfId="1998">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1573">
+    <format dxfId="1999">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1572">
+    <format dxfId="2000">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1571">
+    <format dxfId="2001">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1570">
+    <format dxfId="2002">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13295,7 +14743,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1569">
+    <format dxfId="2003">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13304,7 +14752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1568">
+    <format dxfId="2004">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13313,7 +14761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1567">
+    <format dxfId="2005">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13322,7 +14770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1566">
+    <format dxfId="2006">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13331,7 +14779,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1565">
+    <format dxfId="2007">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13340,7 +14788,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1564">
+    <format dxfId="2008">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13349,7 +14797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1563">
+    <format dxfId="2009">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13358,7 +14806,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1562">
+    <format dxfId="2010">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13367,31 +14815,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1561">
+    <format dxfId="2011">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1560">
+    <format dxfId="2012">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1559">
+    <format dxfId="2013">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1558">
+    <format dxfId="2014">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1557">
+    <format dxfId="2015">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13408,7 +14856,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -13854,61 +15302,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1556">
+    <format dxfId="1948">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1555">
+    <format dxfId="1949">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1554">
+    <format dxfId="1950">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1553">
+    <format dxfId="1951">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1552">
+    <format dxfId="1952">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1551">
+    <format dxfId="1953">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1550">
+    <format dxfId="1954">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1549">
+    <format dxfId="1955">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1548">
+    <format dxfId="1956">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1547">
+    <format dxfId="1957">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1546">
+    <format dxfId="1958">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1545">
+    <format dxfId="1959">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1544">
+    <format dxfId="1960">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1543">
+    <format dxfId="1961">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1542">
+    <format dxfId="1962">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1541">
+    <format dxfId="1963">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1540">
+    <format dxfId="1964">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1539">
+    <format dxfId="1965">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1538">
+    <format dxfId="1966">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13917,7 +15365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1537">
+    <format dxfId="1967">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13926,7 +15374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1536">
+    <format dxfId="1968">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13935,7 +15383,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1535">
+    <format dxfId="1969">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13944,7 +15392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1534">
+    <format dxfId="1970">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13953,7 +15401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1533">
+    <format dxfId="1971">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13962,7 +15410,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1532">
+    <format dxfId="1972">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13971,7 +15419,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1531">
+    <format dxfId="1973">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13980,7 +15428,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1530">
+    <format dxfId="1974">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13989,51 +15437,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1529">
+    <format dxfId="1975">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1528">
+    <format dxfId="1976">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1527">
+    <format dxfId="1977">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1526">
+    <format dxfId="1978">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1525">
+    <format dxfId="1979">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1524">
+    <format dxfId="1980">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1523">
+    <format dxfId="1981">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1522">
+    <format dxfId="1982">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1521">
+    <format dxfId="1983">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14050,7 +15498,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14505,61 +15953,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1520">
+    <format dxfId="1912">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1519">
+    <format dxfId="1913">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1518">
+    <format dxfId="1914">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1517">
+    <format dxfId="1915">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1516">
+    <format dxfId="1916">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1515">
+    <format dxfId="1917">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1514">
+    <format dxfId="1918">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1513">
+    <format dxfId="1919">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1512">
+    <format dxfId="1920">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1511">
+    <format dxfId="1921">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1510">
+    <format dxfId="1922">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1509">
+    <format dxfId="1923">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1508">
+    <format dxfId="1924">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1507">
+    <format dxfId="1925">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1506">
+    <format dxfId="1926">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1505">
+    <format dxfId="1927">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1504">
+    <format dxfId="1928">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1503">
+    <format dxfId="1929">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1502">
+    <format dxfId="1930">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14568,7 +16016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1501">
+    <format dxfId="1931">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14577,7 +16025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1500">
+    <format dxfId="1932">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14586,7 +16034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1499">
+    <format dxfId="1933">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14595,7 +16043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1498">
+    <format dxfId="1934">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14604,7 +16052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1497">
+    <format dxfId="1935">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14613,7 +16061,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1496">
+    <format dxfId="1936">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14622,7 +16070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1495">
+    <format dxfId="1937">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14631,7 +16079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1494">
+    <format dxfId="1938">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14640,47 +16088,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1493">
+    <format dxfId="1939">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1492">
+    <format dxfId="1940">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1491">
+    <format dxfId="1941">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1490">
+    <format dxfId="1942">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1489">
+    <format dxfId="1943">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1488">
+    <format dxfId="1944">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1487">
+    <format dxfId="1945">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1486">
+    <format dxfId="1946">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1485">
+    <format dxfId="1947">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14697,7 +16145,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15146,61 +16594,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1484">
+    <format dxfId="1876">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1483">
+    <format dxfId="1877">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1482">
+    <format dxfId="1878">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1481">
+    <format dxfId="1879">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1480">
+    <format dxfId="1880">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1479">
+    <format dxfId="1881">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1478">
+    <format dxfId="1882">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1477">
+    <format dxfId="1883">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1476">
+    <format dxfId="1884">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1475">
+    <format dxfId="1885">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1474">
+    <format dxfId="1886">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1473">
+    <format dxfId="1887">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1472">
+    <format dxfId="1888">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1471">
+    <format dxfId="1889">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1470">
+    <format dxfId="1890">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1469">
+    <format dxfId="1891">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1468">
+    <format dxfId="1892">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1467">
+    <format dxfId="1893">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1466">
+    <format dxfId="1894">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15209,7 +16657,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1465">
+    <format dxfId="1895">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15218,7 +16666,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1464">
+    <format dxfId="1896">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15227,7 +16675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1463">
+    <format dxfId="1897">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15236,7 +16684,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1462">
+    <format dxfId="1898">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15245,7 +16693,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1461">
+    <format dxfId="1899">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15254,7 +16702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1460">
+    <format dxfId="1900">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15263,7 +16711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1459">
+    <format dxfId="1901">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15272,7 +16720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1458">
+    <format dxfId="1902">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15281,51 +16729,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1457">
+    <format dxfId="1903">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1456">
+    <format dxfId="1904">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1455">
+    <format dxfId="1905">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1454">
+    <format dxfId="1906">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1453">
+    <format dxfId="1907">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1452">
+    <format dxfId="1908">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1451">
+    <format dxfId="1909">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1450">
+    <format dxfId="1910">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1449">
+    <format dxfId="1911">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15342,7 +16790,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15781,61 +17229,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1448">
+    <format dxfId="1840">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1447">
+    <format dxfId="1841">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1446">
+    <format dxfId="1842">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1445">
+    <format dxfId="1843">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1444">
+    <format dxfId="1844">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1443">
+    <format dxfId="1845">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1442">
+    <format dxfId="1846">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1441">
+    <format dxfId="1847">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1440">
+    <format dxfId="1848">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1439">
+    <format dxfId="1849">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1438">
+    <format dxfId="1850">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1437">
+    <format dxfId="1851">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1436">
+    <format dxfId="1852">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1435">
+    <format dxfId="1853">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1434">
+    <format dxfId="1854">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1433">
+    <format dxfId="1855">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1432">
+    <format dxfId="1856">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1431">
+    <format dxfId="1857">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1430">
+    <format dxfId="1858">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15844,7 +17292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1429">
+    <format dxfId="1859">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15853,7 +17301,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1428">
+    <format dxfId="1860">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15862,7 +17310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1427">
+    <format dxfId="1861">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15871,7 +17319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1426">
+    <format dxfId="1862">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15880,7 +17328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1425">
+    <format dxfId="1863">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15889,7 +17337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1424">
+    <format dxfId="1864">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15898,7 +17346,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1423">
+    <format dxfId="1865">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15907,7 +17355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1422">
+    <format dxfId="1866">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15916,51 +17364,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1421">
+    <format dxfId="1867">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1420">
+    <format dxfId="1868">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1419">
+    <format dxfId="1869">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1418">
+    <format dxfId="1870">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1417">
+    <format dxfId="1871">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1416">
+    <format dxfId="1872">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1415">
+    <format dxfId="1873">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1414">
+    <format dxfId="1874">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1413">
+    <format dxfId="1875">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15977,7 +17425,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16426,61 +17874,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1412">
+    <format dxfId="1804">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1411">
+    <format dxfId="1805">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1410">
+    <format dxfId="1806">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1409">
+    <format dxfId="1807">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1408">
+    <format dxfId="1808">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1407">
+    <format dxfId="1809">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1406">
+    <format dxfId="1810">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1405">
+    <format dxfId="1811">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1404">
+    <format dxfId="1812">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1403">
+    <format dxfId="1813">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1402">
+    <format dxfId="1814">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1401">
+    <format dxfId="1815">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1400">
+    <format dxfId="1816">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1399">
+    <format dxfId="1817">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1398">
+    <format dxfId="1818">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1397">
+    <format dxfId="1819">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1396">
+    <format dxfId="1820">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1395">
+    <format dxfId="1821">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1394">
+    <format dxfId="1822">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16489,7 +17937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1393">
+    <format dxfId="1823">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16498,7 +17946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1392">
+    <format dxfId="1824">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16507,7 +17955,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1391">
+    <format dxfId="1825">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16516,7 +17964,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1390">
+    <format dxfId="1826">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16525,7 +17973,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1389">
+    <format dxfId="1827">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16534,7 +17982,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1388">
+    <format dxfId="1828">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16543,7 +17991,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1387">
+    <format dxfId="1829">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16552,7 +18000,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1386">
+    <format dxfId="1830">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16561,51 +18009,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1385">
+    <format dxfId="1831">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1384">
+    <format dxfId="1832">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1383">
+    <format dxfId="1833">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1382">
+    <format dxfId="1834">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1381">
+    <format dxfId="1835">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1380">
+    <format dxfId="1836">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1379">
+    <format dxfId="1837">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1378">
+    <format dxfId="1838">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1377">
+    <format dxfId="1839">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16622,7 +18070,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -17074,61 +18522,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1376">
+    <format dxfId="1768">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1375">
+    <format dxfId="1769">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1374">
+    <format dxfId="1770">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1373">
+    <format dxfId="1771">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1372">
+    <format dxfId="1772">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1371">
+    <format dxfId="1773">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1370">
+    <format dxfId="1774">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1369">
+    <format dxfId="1775">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1368">
+    <format dxfId="1776">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1367">
+    <format dxfId="1777">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1366">
+    <format dxfId="1778">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1365">
+    <format dxfId="1779">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1364">
+    <format dxfId="1780">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1363">
+    <format dxfId="1781">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1362">
+    <format dxfId="1782">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1361">
+    <format dxfId="1783">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1360">
+    <format dxfId="1784">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1359">
+    <format dxfId="1785">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1358">
+    <format dxfId="1786">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17137,7 +18585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1357">
+    <format dxfId="1787">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17146,7 +18594,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1356">
+    <format dxfId="1788">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17155,7 +18603,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1355">
+    <format dxfId="1789">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17164,7 +18612,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1354">
+    <format dxfId="1790">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17173,7 +18621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1353">
+    <format dxfId="1791">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17182,7 +18630,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1352">
+    <format dxfId="1792">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17191,7 +18639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1351">
+    <format dxfId="1793">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17200,7 +18648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1350">
+    <format dxfId="1794">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17209,51 +18657,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1349">
+    <format dxfId="1795">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1348">
+    <format dxfId="1796">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1347">
+    <format dxfId="1797">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1346">
+    <format dxfId="1798">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1345">
+    <format dxfId="1799">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1344">
+    <format dxfId="1800">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1343">
+    <format dxfId="1801">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1342">
+    <format dxfId="1802">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1341">
+    <format dxfId="1803">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -17270,7 +18718,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -17725,61 +19173,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="1340">
+    <format dxfId="1728">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1339">
+    <format dxfId="1729">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1338">
+    <format dxfId="1730">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1337">
+    <format dxfId="1731">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1336">
+    <format dxfId="1732">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1335">
+    <format dxfId="1733">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1334">
+    <format dxfId="1734">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1333">
+    <format dxfId="1735">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1332">
+    <format dxfId="1736">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1331">
+    <format dxfId="1737">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1330">
+    <format dxfId="1738">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1329">
+    <format dxfId="1739">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1328">
+    <format dxfId="1740">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1327">
+    <format dxfId="1741">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1326">
+    <format dxfId="1742">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1325">
+    <format dxfId="1743">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1324">
+    <format dxfId="1744">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1323">
+    <format dxfId="1745">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1322">
+    <format dxfId="1746">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17788,7 +19236,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1321">
+    <format dxfId="1747">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17797,7 +19245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1320">
+    <format dxfId="1748">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17806,7 +19254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1319">
+    <format dxfId="1749">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17815,7 +19263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1318">
+    <format dxfId="1750">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17824,7 +19272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1317">
+    <format dxfId="1751">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17833,7 +19281,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1316">
+    <format dxfId="1752">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17842,7 +19290,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1315">
+    <format dxfId="1753">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17851,7 +19299,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1314">
+    <format dxfId="1754">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17860,71 +19308,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1313">
+    <format dxfId="1755">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1312">
+    <format dxfId="1756">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1311">
+    <format dxfId="1757">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1310">
+    <format dxfId="1758">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="1309">
+    <format dxfId="1759">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1308">
+    <format dxfId="1760">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1307">
+    <format dxfId="1761">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1306">
+    <format dxfId="1762">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1305">
+    <format dxfId="1763">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1304">
+    <format dxfId="1764">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1303">
+    <format dxfId="1765">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1302">
+    <format dxfId="1766">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1301">
+    <format dxfId="1767">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -17983,17 +19431,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1596">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="2024">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="RX Masc"/>
+        <filter val="Scaled Fem"/>
+        <filter val="Scaled Masc"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="Prova 1A"/>
-        <filter val="Prova 1B"/>
+        <filter val="Prova 2A"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18008,23 +19456,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1595"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="2023"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1594"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1593">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="2022"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="2021">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1592">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="2020">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1591"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1590">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="2019"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="2018">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1589">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="2017">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18036,7 +19484,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="1300"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="2016"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -18343,10 +19791,10 @@
   <dimension ref="A1:U272"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="M111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O101" sqref="O101"/>
+      <selection pane="bottomRight" activeCell="P274" sqref="P274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -20588,7 +22036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>44</v>
       </c>
@@ -20645,7 +22093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>45</v>
       </c>
@@ -20702,7 +22150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>46</v>
       </c>
@@ -20759,7 +22207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>47</v>
       </c>
@@ -20816,7 +22264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>48</v>
       </c>
@@ -20873,7 +22321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>49</v>
       </c>
@@ -20930,7 +22378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -20987,7 +22435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>53</v>
       </c>
@@ -23652,7 +25100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>125</v>
       </c>
@@ -23709,7 +25157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>126</v>
       </c>
@@ -23766,7 +25214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>127</v>
       </c>
@@ -23823,7 +25271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>128</v>
       </c>
@@ -23880,7 +25328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>129</v>
       </c>
@@ -23939,7 +25387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>130</v>
       </c>
@@ -23998,7 +25446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>131</v>
       </c>
@@ -24057,7 +25505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>134</v>
       </c>
@@ -24533,7 +25981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>145</v>
       </c>
@@ -24571,26 +26019,28 @@
       <c r="O111">
         <v>36</v>
       </c>
-      <c r="P111" s="8"/>
+      <c r="P111" s="8">
+        <v>92</v>
+      </c>
       <c r="Q111" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R111" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="S111" s="8"/>
       <c r="T111" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U111" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U111" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R111,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>146</v>
       </c>
@@ -24628,26 +26078,28 @@
       <c r="O112">
         <v>36</v>
       </c>
-      <c r="P112" s="8"/>
+      <c r="P112" s="8">
+        <v>100</v>
+      </c>
       <c r="Q112" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R112" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S112" s="8"/>
       <c r="T112" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U112" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="U112" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R112,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>147</v>
       </c>
@@ -24685,26 +26137,28 @@
       <c r="O113">
         <v>36</v>
       </c>
-      <c r="P113" s="8"/>
+      <c r="P113" s="8">
+        <v>90</v>
+      </c>
       <c r="Q113" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R113" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S113" s="8"/>
       <c r="T113" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U113" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U113" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R113,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>148</v>
       </c>
@@ -24742,26 +26196,28 @@
       <c r="O114">
         <v>36</v>
       </c>
-      <c r="P114" s="8"/>
+      <c r="P114" s="8">
+        <v>108</v>
+      </c>
       <c r="Q114" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R114" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="S114" s="8"/>
       <c r="T114" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U114" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="U114" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R114,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>149</v>
       </c>
@@ -24799,26 +26255,28 @@
       <c r="O115">
         <v>36</v>
       </c>
-      <c r="P115" s="8"/>
+      <c r="P115" s="8">
+        <v>105</v>
+      </c>
       <c r="Q115" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R115" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="S115" s="8"/>
       <c r="T115" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U115" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="U115" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R115,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>150</v>
       </c>
@@ -24856,26 +26314,28 @@
       <c r="O116">
         <v>36</v>
       </c>
-      <c r="P116" s="8"/>
+      <c r="P116" s="8">
+        <v>150</v>
+      </c>
       <c r="Q116" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R116" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S116" s="8"/>
       <c r="T116" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U116" s="1" t="str">
+        <v>70</v>
+      </c>
+      <c r="U116" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R116,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>151</v>
       </c>
@@ -24913,26 +26373,28 @@
       <c r="O117">
         <v>36</v>
       </c>
-      <c r="P117" s="8"/>
+      <c r="P117" s="8">
+        <v>90</v>
+      </c>
       <c r="Q117" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R117" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S117" s="8"/>
       <c r="T117" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U117" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U117" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R117,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>152</v>
       </c>
@@ -24970,26 +26432,28 @@
       <c r="O118">
         <v>36</v>
       </c>
-      <c r="P118" s="8"/>
+      <c r="P118" s="8">
+        <v>96</v>
+      </c>
       <c r="Q118" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R118" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="S118" s="8"/>
       <c r="T118" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U118" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U118" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R118,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>21</v>
       </c>
@@ -25012,26 +26476,28 @@
       <c r="O119">
         <v>36</v>
       </c>
-      <c r="P119" s="8"/>
+      <c r="P119" s="8">
+        <v>85</v>
+      </c>
       <c r="Q119" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R119" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="S119" s="8"/>
       <c r="T119" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U119" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U119" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R119,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>153</v>
       </c>
@@ -25069,26 +26535,28 @@
       <c r="O120">
         <v>36</v>
       </c>
-      <c r="P120" s="8"/>
+      <c r="P120" s="8">
+        <v>106</v>
+      </c>
       <c r="Q120" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R120" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="S120" s="8"/>
       <c r="T120" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U120" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="U120" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R120,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>154</v>
       </c>
@@ -25128,26 +26596,28 @@
       <c r="O121" s="12">
         <v>36</v>
       </c>
-      <c r="P121" s="14"/>
+      <c r="P121" s="14">
+        <v>70</v>
+      </c>
       <c r="Q121" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R121" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S121" s="14"/>
       <c r="T121" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U121" s="15" t="str">
+        <v>100</v>
+      </c>
+      <c r="U121" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R121,$R$111:$R$121,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>24</v>
       </c>
@@ -25182,26 +26652,28 @@
       <c r="O122">
         <v>36</v>
       </c>
-      <c r="P122" s="8"/>
+      <c r="P122" s="8">
+        <v>104</v>
+      </c>
       <c r="Q122" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R122" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="S122" s="8"/>
       <c r="T122" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U122" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U122" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R122,$R$122:$R$126,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>156</v>
       </c>
@@ -25239,26 +26711,28 @@
       <c r="O123">
         <v>36</v>
       </c>
-      <c r="P123" s="8"/>
+      <c r="P123" s="8">
+        <v>127</v>
+      </c>
       <c r="Q123" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R123" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="S123" s="8"/>
       <c r="T123" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U123" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U123" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R123,$R$122:$R$126,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>157</v>
       </c>
@@ -25296,26 +26770,28 @@
       <c r="O124">
         <v>36</v>
       </c>
-      <c r="P124" s="8"/>
+      <c r="P124" s="8">
+        <v>100</v>
+      </c>
       <c r="Q124" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R124" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S124" s="8"/>
       <c r="T124" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U124" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U124" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R124,$R$122:$R$126,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>158</v>
       </c>
@@ -25353,26 +26829,28 @@
       <c r="O125">
         <v>36</v>
       </c>
-      <c r="P125" s="8"/>
+      <c r="P125" s="8">
+        <v>147</v>
+      </c>
       <c r="Q125" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R125" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="S125" s="8"/>
       <c r="T125" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U125" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U125" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R125,$R$122:$R$126,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>159</v>
       </c>
@@ -25410,23 +26888,25 @@
       <c r="O126" s="12">
         <v>36</v>
       </c>
-      <c r="P126" s="14"/>
+      <c r="P126" s="14">
+        <v>98</v>
+      </c>
       <c r="Q126" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R126" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="S126" s="14"/>
       <c r="T126" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U126" s="15" t="str">
+        <v>100</v>
+      </c>
+      <c r="U126" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R126,$R$122:$R$126,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27325,28 +28805,33 @@
         <v>25</v>
       </c>
       <c r="M165">
+        <v>130</v>
+      </c>
+      <c r="N165">
+        <v>100</v>
+      </c>
+      <c r="O165">
+        <v>125</v>
+      </c>
+      <c r="P165" s="8">
         <v>180</v>
       </c>
-      <c r="N165">
-        <v>600</v>
-      </c>
-      <c r="P165" s="8"/>
       <c r="Q165" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R165" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="S165" s="8"/>
       <c r="T165" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U165" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U165" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R165,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27373,28 +28858,33 @@
         <v>25</v>
       </c>
       <c r="M166">
+        <v>130</v>
+      </c>
+      <c r="N166">
+        <v>100</v>
+      </c>
+      <c r="O166">
+        <v>71</v>
+      </c>
+      <c r="P166" s="8">
         <v>180</v>
       </c>
-      <c r="N166">
-        <v>600</v>
-      </c>
-      <c r="P166" s="8"/>
       <c r="Q166" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R166" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="S166" s="8"/>
       <c r="T166" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U166" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="U166" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R166,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27421,28 +28911,33 @@
         <v>25</v>
       </c>
       <c r="M167">
+        <v>130</v>
+      </c>
+      <c r="N167">
+        <v>100</v>
+      </c>
+      <c r="O167">
+        <v>119</v>
+      </c>
+      <c r="P167" s="8">
         <v>180</v>
       </c>
-      <c r="N167">
-        <v>600</v>
-      </c>
-      <c r="P167" s="8"/>
       <c r="Q167" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R167" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="S167" s="8"/>
       <c r="T167" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U167" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U167" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R167,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27469,28 +28964,33 @@
         <v>25</v>
       </c>
       <c r="M168">
+        <v>130</v>
+      </c>
+      <c r="N168">
+        <v>100</v>
+      </c>
+      <c r="O168">
+        <v>89</v>
+      </c>
+      <c r="P168" s="8">
         <v>180</v>
       </c>
-      <c r="N168">
-        <v>600</v>
-      </c>
-      <c r="P168" s="8"/>
       <c r="Q168" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="R168" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="S168" s="8"/>
       <c r="T168" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U168" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U168" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R168,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27517,28 +29017,33 @@
         <v>25</v>
       </c>
       <c r="M169">
+        <v>130</v>
+      </c>
+      <c r="N169">
+        <v>100</v>
+      </c>
+      <c r="O169">
+        <v>54</v>
+      </c>
+      <c r="P169" s="8">
         <v>180</v>
       </c>
-      <c r="N169">
-        <v>600</v>
-      </c>
-      <c r="P169" s="8"/>
       <c r="Q169" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R169" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="S169" s="8"/>
       <c r="T169" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U169" s="1" t="str">
+        <v>70</v>
+      </c>
+      <c r="U169" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R169,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27565,28 +29070,33 @@
         <v>25</v>
       </c>
       <c r="M170">
+        <v>130</v>
+      </c>
+      <c r="N170">
+        <v>100</v>
+      </c>
+      <c r="O170">
+        <v>76</v>
+      </c>
+      <c r="P170" s="8">
         <v>180</v>
       </c>
-      <c r="N170">
-        <v>600</v>
-      </c>
-      <c r="P170" s="8"/>
       <c r="Q170" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="R170" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="S170" s="8"/>
       <c r="T170" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U170" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="U170" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R170,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27613,28 +29123,33 @@
         <v>25</v>
       </c>
       <c r="M171">
+        <v>130</v>
+      </c>
+      <c r="N171">
+        <v>100</v>
+      </c>
+      <c r="O171">
+        <v>120</v>
+      </c>
+      <c r="P171" s="8">
         <v>180</v>
       </c>
-      <c r="N171">
-        <v>600</v>
-      </c>
-      <c r="P171" s="8"/>
       <c r="Q171" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R171" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="S171" s="8"/>
       <c r="T171" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U171" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U171" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R171,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27651,23 +29166,34 @@
       <c r="L172" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P172" s="8"/>
+      <c r="M172">
+        <v>130</v>
+      </c>
+      <c r="N172">
+        <v>100</v>
+      </c>
+      <c r="O172">
+        <v>127</v>
+      </c>
+      <c r="P172" s="8">
+        <v>180</v>
+      </c>
       <c r="Q172" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R172" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="S172" s="8"/>
       <c r="T172" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U172" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U172" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R172,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27694,28 +29220,33 @@
         <v>25</v>
       </c>
       <c r="M173">
+        <v>130</v>
+      </c>
+      <c r="N173">
+        <v>100</v>
+      </c>
+      <c r="O173">
+        <v>62</v>
+      </c>
+      <c r="P173" s="8">
         <v>180</v>
       </c>
-      <c r="N173">
-        <v>600</v>
-      </c>
-      <c r="P173" s="8"/>
       <c r="Q173" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="R173" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="S173" s="8"/>
       <c r="T173" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U173" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="U173" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R173,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27742,28 +29273,33 @@
         <v>25</v>
       </c>
       <c r="M174">
+        <v>130</v>
+      </c>
+      <c r="N174">
+        <v>100</v>
+      </c>
+      <c r="O174">
+        <v>89</v>
+      </c>
+      <c r="P174" s="8">
         <v>180</v>
       </c>
-      <c r="N174">
-        <v>600</v>
-      </c>
-      <c r="P174" s="8"/>
       <c r="Q174" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="R174" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="S174" s="8"/>
       <c r="T174" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U174" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U174" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R174,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -27792,29 +29328,33 @@
         <v>25</v>
       </c>
       <c r="M175" s="12">
+        <v>130</v>
+      </c>
+      <c r="N175" s="12">
+        <v>100</v>
+      </c>
+      <c r="O175" s="12">
+        <v>90</v>
+      </c>
+      <c r="P175" s="14">
         <v>180</v>
       </c>
-      <c r="N175" s="12">
-        <v>600</v>
-      </c>
-      <c r="O175" s="12"/>
-      <c r="P175" s="14"/>
       <c r="Q175" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R175" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="S175" s="14"/>
       <c r="T175" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U175" s="15" t="str">
+        <v>88</v>
+      </c>
+      <c r="U175" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R175,$R$165:$R$175,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27841,28 +29381,33 @@
         <v>25</v>
       </c>
       <c r="M176">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N176">
         <v>600</v>
       </c>
-      <c r="P176" s="8"/>
+      <c r="O176">
+        <v>115</v>
+      </c>
+      <c r="P176" s="8">
+        <v>600</v>
+      </c>
       <c r="Q176" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R176" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="S176" s="8"/>
       <c r="T176" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U176" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U176" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R176,$R$176:$R$180,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27889,28 +29434,33 @@
         <v>25</v>
       </c>
       <c r="M177">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N177">
         <v>600</v>
       </c>
-      <c r="P177" s="8"/>
+      <c r="O177">
+        <v>37</v>
+      </c>
+      <c r="P177" s="8">
+        <v>600</v>
+      </c>
       <c r="Q177" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="R177" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="S177" s="8"/>
       <c r="T177" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U177" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U177" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R177,$R$176:$R$180,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27937,28 +29487,33 @@
         <v>25</v>
       </c>
       <c r="M178">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N178">
         <v>600</v>
       </c>
-      <c r="P178" s="8"/>
+      <c r="O178">
+        <v>90</v>
+      </c>
+      <c r="P178" s="8">
+        <v>600</v>
+      </c>
       <c r="Q178" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R178" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="S178" s="8"/>
       <c r="T178" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U178" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U178" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R178,$R$176:$R$180,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27985,28 +29540,33 @@
         <v>25</v>
       </c>
       <c r="M179">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N179">
         <v>600</v>
       </c>
-      <c r="P179" s="8"/>
+      <c r="O179">
+        <v>46</v>
+      </c>
+      <c r="P179" s="8">
+        <v>600</v>
+      </c>
       <c r="Q179" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="R179" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="S179" s="8"/>
       <c r="T179" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U179" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U179" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R179,$R$176:$R$180,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -28033,29 +29593,33 @@
         <v>25</v>
       </c>
       <c r="M180" s="12">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N180" s="12">
         <v>600</v>
       </c>
-      <c r="O180" s="12"/>
-      <c r="P180" s="14"/>
-      <c r="Q180" s="8">
+      <c r="O180" s="12">
+        <v>64</v>
+      </c>
+      <c r="P180" s="14">
+        <v>600</v>
+      </c>
+      <c r="Q180" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R180" s="8">
+        <v>66</v>
+      </c>
+      <c r="R180" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
-      </c>
-      <c r="S180" s="8"/>
+        <v>666</v>
+      </c>
+      <c r="S180" s="14"/>
       <c r="T180" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U180" s="15" t="str">
+        <v>94</v>
+      </c>
+      <c r="U180" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R180,$R$176:$R$180,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -32287,7 +33851,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32476,8 +34040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32537,163 +34101,163 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8">
+        <v>100</v>
+      </c>
+      <c r="D5" s="8">
         <v>94</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>191</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8">
+        <v>97</v>
+      </c>
+      <c r="D6" s="8">
+        <v>85</v>
+      </c>
+      <c r="E6" s="8">
         <v>100</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>191</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8">
+        <v>97</v>
+      </c>
+      <c r="C7" s="8">
         <v>94</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
+        <v>88</v>
+      </c>
+      <c r="E7" s="8">
         <v>97</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>191</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="8">
+        <v>82</v>
+      </c>
+      <c r="C8" s="8">
+        <v>85</v>
+      </c>
+      <c r="D8" s="8">
         <v>100</v>
       </c>
-      <c r="C8" s="8">
+      <c r="E8" s="8">
         <v>88</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>188</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8">
         <v>88</v>
       </c>
       <c r="C9" s="8">
+        <v>76</v>
+      </c>
+      <c r="D9" s="8">
+        <v>94</v>
+      </c>
+      <c r="E9" s="8">
         <v>91</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>179</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="8">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8">
+        <v>91</v>
+      </c>
+      <c r="D10" s="8">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8">
         <v>85</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>167</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="8">
+        <v>100</v>
+      </c>
+      <c r="C11" s="8">
         <v>88</v>
       </c>
-      <c r="C11" s="8">
-        <v>76</v>
-      </c>
       <c r="D11" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>164</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -32707,16 +34271,16 @@
         <v>82</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>161</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -32730,62 +34294,62 @@
         <v>79</v>
       </c>
       <c r="D13" s="8">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E13" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <v>152</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B14" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="9">
-        <v>146</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8">
+        <v>76</v>
+      </c>
+      <c r="C15" s="8">
         <v>70</v>
       </c>
-      <c r="C15" s="8">
-        <v>73</v>
-      </c>
       <c r="D15" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E15" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <v>143</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -32799,16 +34363,16 @@
         <v>935</v>
       </c>
       <c r="D16" s="26">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="E16" s="26">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="F16" s="26">
         <v>0</v>
       </c>
       <c r="G16" s="10">
-        <v>1873</v>
+        <v>3749</v>
       </c>
     </row>
   </sheetData>
@@ -32821,7 +34385,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32893,16 +34457,16 @@
         <v>100</v>
       </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>200</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -32916,16 +34480,16 @@
         <v>94</v>
       </c>
       <c r="D6" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>191</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -32939,16 +34503,16 @@
         <v>97</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>188</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -32962,16 +34526,16 @@
         <v>91</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>185</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -32985,16 +34549,16 @@
         <v>88</v>
       </c>
       <c r="D9" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>176</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -33008,16 +34572,16 @@
         <v>470</v>
       </c>
       <c r="D10" s="26">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="E10" s="26">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="F10" s="26">
         <v>0</v>
       </c>
       <c r="G10" s="10">
-        <v>940</v>
+        <v>1880</v>
       </c>
     </row>
   </sheetData>
@@ -33029,8 +34593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -33932,7 +35496,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -34186,8 +35750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44A6323-1F8B-408C-B332-E9CB4894ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19268E30-4316-4743-AA61-8072001F93D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Dados" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="189" r:id="rId11"/>
+    <pivotCache cacheId="270" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -385,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +440,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -462,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,6 +526,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7583,7 +7591,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.509478472224" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.560488541669" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -7971,10 +7979,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="840"/>
     </cacheField>
     <cacheField name="Reps" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="798"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="798"/>
     </cacheField>
     <cacheField name="Tempo CP (s)" numFmtId="41">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="68" maxValue="840"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="62" maxValue="840"/>
     </cacheField>
     <cacheField name="Tempo P. (s)" numFmtId="41">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="354"/>
@@ -9191,9 +9199,9 @@
     <n v="40"/>
     <n v="150"/>
     <n v="40"/>
-    <n v="107"/>
+    <n v="105"/>
     <n v="0"/>
-    <n v="107"/>
+    <n v="105"/>
     <m/>
     <n v="97"/>
     <n v="2"/>
@@ -9949,10 +9957,10 @@
     <m/>
     <n v="770"/>
     <n v="840"/>
-    <n v="513"/>
+    <n v="553"/>
     <n v="840"/>
-    <n v="257"/>
-    <n v="1097"/>
+    <n v="217"/>
+    <n v="1057"/>
     <m/>
     <n v="97"/>
     <n v="2"/>
@@ -10506,8 +10514,8 @@
     <n v="0"/>
     <n v="92"/>
     <m/>
-    <n v="88"/>
-    <n v="5"/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="146"/>
@@ -10529,8 +10537,8 @@
     <n v="0"/>
     <n v="100"/>
     <m/>
-    <n v="82"/>
-    <n v="7"/>
+    <n v="79"/>
+    <n v="8"/>
   </r>
   <r>
     <n v="147"/>
@@ -10575,8 +10583,8 @@
     <n v="0"/>
     <n v="108"/>
     <m/>
-    <n v="73"/>
-    <n v="10"/>
+    <n v="70"/>
+    <n v="11"/>
   </r>
   <r>
     <n v="149"/>
@@ -10598,8 +10606,8 @@
     <n v="0"/>
     <n v="105"/>
     <m/>
-    <n v="79"/>
-    <n v="8"/>
+    <n v="76"/>
+    <n v="9"/>
   </r>
   <r>
     <n v="150"/>
@@ -10617,12 +10625,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <n v="150"/>
+    <n v="91"/>
     <n v="0"/>
-    <n v="150"/>
-    <m/>
-    <n v="70"/>
-    <n v="11"/>
+    <n v="91"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="151"/>
@@ -10667,8 +10675,8 @@
     <n v="0"/>
     <n v="96"/>
     <m/>
-    <n v="85"/>
-    <n v="6"/>
+    <n v="82"/>
+    <n v="7"/>
   </r>
   <r>
     <m/>
@@ -10713,8 +10721,8 @@
     <n v="0"/>
     <n v="106"/>
     <m/>
-    <n v="76"/>
-    <n v="9"/>
+    <n v="73"/>
+    <n v="10"/>
   </r>
   <r>
     <n v="154"/>
@@ -10869,13 +10877,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="176"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="176"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
   </r>
   <r>
     <n v="166"/>
@@ -10892,13 +10900,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="162"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="162"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
   </r>
   <r>
     <n v="167"/>
@@ -10915,13 +10923,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="83"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="83"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="168"/>
@@ -10938,13 +10946,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="98"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="98"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="169"/>
@@ -10961,13 +10969,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="79"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="79"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="170"/>
@@ -10984,13 +10992,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="124"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="124"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="173"/>
@@ -11007,13 +11015,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="100"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="100"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="174"/>
@@ -11030,13 +11038,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="149"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="149"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="175"/>
@@ -11053,13 +11061,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="117"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="117"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="176"/>
@@ -11076,13 +11084,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="30"/>
+    <n v="180"/>
+    <n v="2"/>
+    <n v="182"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="177"/>
@@ -11099,13 +11107,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="90"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="90"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="178"/>
@@ -11122,13 +11130,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="117"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="117"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="183"/>
@@ -11145,13 +11153,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="87"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="87"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="184"/>
@@ -11168,13 +11176,13 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="67"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="67"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="185"/>
@@ -11191,7 +11199,122 @@
     <s v="-"/>
     <n v="32"/>
     <n v="180"/>
-    <m/>
+    <n v="32"/>
+    <n v="180"/>
+    <n v="0"/>
+    <n v="180"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="31"/>
+    <m/>
+    <s v="-"/>
+    <n v="32"/>
+    <n v="180"/>
+    <n v="32"/>
+    <n v="111"/>
+    <n v="0"/>
+    <n v="111"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="32"/>
+    <m/>
+    <s v="-"/>
+    <n v="32"/>
+    <n v="180"/>
+    <n v="32"/>
+    <n v="135"/>
+    <n v="0"/>
+    <n v="135"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="33"/>
+    <m/>
+    <s v="-"/>
+    <n v="32"/>
+    <n v="180"/>
+    <n v="32"/>
+    <n v="64"/>
+    <n v="0"/>
+    <n v="64"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="34"/>
+    <m/>
+    <s v="-"/>
+    <n v="32"/>
+    <n v="180"/>
+    <n v="32"/>
+    <n v="107"/>
+    <n v="0"/>
+    <n v="107"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="35"/>
+    <m/>
+    <s v="-"/>
+    <n v="32"/>
+    <n v="180"/>
+    <n v="32"/>
     <m/>
     <n v="0"/>
     <n v="0"/>
@@ -11202,17 +11325,86 @@
   <r>
     <m/>
     <m/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
-    <x v="31"/>
+    <x v="36"/>
     <m/>
     <s v="-"/>
     <n v="32"/>
+    <n v="180"/>
+    <n v="32"/>
+    <n v="68"/>
+    <n v="0"/>
+    <n v="68"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="37"/>
+    <m/>
+    <s v="-"/>
+    <n v="32"/>
+    <n v="180"/>
+    <n v="32"/>
+    <n v="62"/>
+    <n v="0"/>
+    <n v="62"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="38"/>
+    <m/>
+    <s v="-"/>
+    <n v="32"/>
+    <n v="180"/>
+    <n v="32"/>
+    <n v="84"/>
+    <n v="0"/>
+    <n v="84"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="39"/>
+    <m/>
+    <s v="-"/>
+    <n v="28"/>
     <n v="180"/>
     <m/>
     <m/>
@@ -11225,17 +11417,17 @@
   <r>
     <m/>
     <m/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
-    <x v="32"/>
+    <x v="40"/>
     <m/>
     <s v="-"/>
-    <n v="32"/>
+    <n v="28"/>
     <n v="180"/>
     <m/>
     <m/>
@@ -11248,17 +11440,17 @@
   <r>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
-    <x v="33"/>
+    <x v="41"/>
     <m/>
     <s v="-"/>
-    <n v="32"/>
+    <n v="28"/>
     <n v="180"/>
     <m/>
     <m/>
@@ -11271,17 +11463,17 @@
   <r>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
-    <x v="34"/>
+    <x v="42"/>
     <m/>
     <s v="-"/>
-    <n v="32"/>
+    <n v="28"/>
     <n v="180"/>
     <m/>
     <m/>
@@ -11294,17 +11486,17 @@
   <r>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
-    <x v="35"/>
+    <x v="43"/>
     <m/>
     <s v="-"/>
-    <n v="32"/>
+    <n v="28"/>
     <n v="180"/>
     <m/>
     <m/>
@@ -11317,17 +11509,17 @@
   <r>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
-    <x v="36"/>
+    <x v="44"/>
     <m/>
     <s v="-"/>
-    <n v="32"/>
+    <n v="28"/>
     <n v="180"/>
     <m/>
     <m/>
@@ -11340,17 +11532,17 @@
   <r>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
-    <x v="37"/>
+    <x v="45"/>
     <m/>
     <s v="-"/>
-    <n v="32"/>
+    <n v="28"/>
     <n v="180"/>
     <m/>
     <m/>
@@ -11363,17 +11555,17 @@
   <r>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
-    <x v="38"/>
+    <x v="46"/>
     <m/>
     <s v="-"/>
-    <n v="32"/>
+    <n v="28"/>
     <n v="180"/>
     <m/>
     <m/>
@@ -11386,18 +11578,984 @@
   <r>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
-    <x v="39"/>
+    <x v="47"/>
     <m/>
     <s v="-"/>
     <n v="28"/>
     <n v="180"/>
+    <n v="28"/>
+    <n v="174"/>
+    <n v="0"/>
+    <n v="174"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="48"/>
+    <m/>
+    <s v="-"/>
+    <n v="28"/>
+    <n v="180"/>
+    <n v="28"/>
+    <n v="150"/>
+    <n v="0"/>
+    <n v="150"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="49"/>
+    <m/>
+    <s v="-"/>
+    <n v="28"/>
+    <n v="180"/>
+    <n v="28"/>
+    <n v="158"/>
+    <n v="0"/>
+    <n v="158"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="50"/>
+    <m/>
+    <s v="-"/>
+    <n v="28"/>
+    <n v="180"/>
+    <n v="28"/>
+    <n v="143"/>
+    <n v="0"/>
+    <n v="143"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="51"/>
+    <m/>
+    <s v="-"/>
+    <n v="28"/>
+    <n v="180"/>
+    <n v="28"/>
+    <n v="138"/>
+    <n v="0"/>
+    <n v="138"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="52"/>
+    <m/>
+    <s v="-"/>
+    <n v="28"/>
+    <n v="180"/>
+    <n v="28"/>
+    <n v="137"/>
+    <n v="0"/>
+    <n v="137"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="53"/>
+    <m/>
+    <s v="-"/>
+    <n v="28"/>
+    <n v="180"/>
+    <n v="28"/>
+    <n v="169"/>
+    <n v="0"/>
+    <n v="169"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="125"/>
+    <m/>
+    <n v="5"/>
+    <n v="5"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="71"/>
+    <m/>
+    <n v="59"/>
+    <n v="59"/>
+    <m/>
+    <n v="76"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="119"/>
+    <m/>
+    <n v="11"/>
+    <n v="11"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="89"/>
+    <m/>
+    <n v="41"/>
+    <n v="41"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="54"/>
+    <m/>
+    <n v="76"/>
+    <n v="76"/>
+    <m/>
+    <n v="70"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="76"/>
+    <m/>
+    <n v="54"/>
+    <n v="54"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="120"/>
+    <m/>
+    <n v="10"/>
+    <n v="10"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="127"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="62"/>
+    <m/>
+    <n v="68"/>
+    <n v="68"/>
+    <m/>
+    <n v="73"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="89"/>
+    <m/>
+    <n v="41"/>
+    <n v="41"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="10"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="100"/>
+    <n v="90"/>
+    <m/>
+    <n v="40"/>
+    <n v="40"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="11"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="115"/>
+    <m/>
+    <n v="15"/>
+    <n v="15"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="12"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="37"/>
+    <m/>
+    <n v="93"/>
+    <n v="93"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="13"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="90"/>
+    <m/>
+    <n v="40"/>
+    <n v="40"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="14"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="46"/>
+    <m/>
+    <n v="84"/>
+    <n v="84"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="15"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="64"/>
+    <m/>
+    <n v="66"/>
+    <n v="66"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="16"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="35"/>
+    <m/>
+    <n v="145"/>
+    <n v="145"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="17"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="7"/>
+    <m/>
+    <n v="173"/>
+    <n v="173"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="18"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="54"/>
+    <m/>
+    <n v="126"/>
+    <n v="126"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="19"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="31"/>
+    <m/>
+    <n v="149"/>
+    <n v="149"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="20"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="63"/>
+    <m/>
+    <n v="117"/>
+    <n v="117"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="21"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="34"/>
+    <m/>
+    <n v="146"/>
+    <n v="146"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="22"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="87"/>
+    <m/>
+    <n v="93"/>
+    <n v="93"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="23"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="27"/>
+    <m/>
+    <n v="153"/>
+    <n v="153"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="24"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="36"/>
+    <m/>
+    <n v="144"/>
+    <n v="144"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="25"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="25"/>
+    <m/>
+    <n v="155"/>
+    <n v="155"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="26"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="20"/>
+    <m/>
+    <n v="160"/>
+    <n v="160"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="27"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="23"/>
+    <m/>
+    <n v="157"/>
+    <n v="157"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="28"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="34"/>
+    <m/>
+    <n v="146"/>
+    <n v="146"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="29"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="40"/>
+    <m/>
+    <n v="140"/>
+    <n v="140"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="30"/>
+    <m/>
+    <s v="-"/>
+    <n v="180"/>
+    <n v="600"/>
+    <n v="32"/>
+    <m/>
+    <n v="148"/>
+    <n v="148"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="31"/>
+    <m/>
+    <s v="-"/>
+    <n v="100"/>
+    <n v="600"/>
+    <n v="39"/>
+    <m/>
+    <n v="61"/>
+    <n v="61"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="32"/>
+    <m/>
+    <s v="-"/>
+    <n v="100"/>
+    <n v="600"/>
+    <n v="36"/>
+    <m/>
+    <n v="64"/>
+    <n v="64"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="33"/>
+    <m/>
+    <s v="-"/>
+    <n v="100"/>
+    <n v="600"/>
+    <n v="31"/>
+    <m/>
+    <n v="69"/>
+    <n v="69"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="34"/>
+    <m/>
+    <s v="-"/>
+    <n v="100"/>
+    <n v="600"/>
+    <n v="26"/>
+    <m/>
+    <n v="74"/>
+    <n v="74"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="35"/>
+    <m/>
+    <s v="-"/>
+    <n v="100"/>
+    <n v="600"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -11409,18 +12567,87 @@
   <r>
     <m/>
     <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="36"/>
+    <m/>
+    <s v="-"/>
+    <n v="100"/>
+    <n v="600"/>
+    <n v="38"/>
+    <m/>
+    <n v="62"/>
+    <n v="62"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="37"/>
+    <m/>
+    <s v="-"/>
+    <n v="100"/>
+    <n v="600"/>
+    <n v="57"/>
+    <m/>
+    <n v="43"/>
+    <n v="43"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="38"/>
+    <m/>
+    <s v="-"/>
+    <n v="100"/>
+    <n v="600"/>
+    <n v="32"/>
+    <m/>
+    <n v="68"/>
+    <n v="68"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="6"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="40"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="39"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
-    <n v="180"/>
+    <n v="100"/>
+    <n v="600"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -11436,14 +12663,14 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="41"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="40"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
-    <n v="180"/>
+    <n v="100"/>
+    <n v="600"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -11459,14 +12686,14 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="42"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="41"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
-    <n v="180"/>
+    <n v="100"/>
+    <n v="600"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -11482,14 +12709,14 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="43"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="42"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
     <n v="180"/>
+    <n v="600"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -11505,14 +12732,14 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="44"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="43"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
     <n v="180"/>
+    <n v="600"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -11528,14 +12755,14 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="45"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="44"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
     <n v="180"/>
+    <n v="600"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -11551,14 +12778,14 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="46"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="45"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
     <n v="180"/>
+    <n v="600"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -11570,18 +12797,18 @@
   <r>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="6"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="47"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="46"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
     <n v="180"/>
+    <n v="600"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -11597,21 +12824,21 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="48"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="47"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="600"/>
+    <n v="11"/>
+    <m/>
+    <n v="169"/>
+    <n v="169"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <m/>
@@ -11620,21 +12847,21 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="49"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="48"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="600"/>
+    <n v="5"/>
+    <m/>
+    <n v="175"/>
+    <n v="175"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <m/>
@@ -11643,21 +12870,21 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="50"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="49"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="600"/>
+    <n v="15"/>
+    <m/>
+    <n v="165"/>
+    <n v="165"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <m/>
@@ -11666,87 +12893,18 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="51"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="50"/>
     <m/>
     <s v="-"/>
-    <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="52"/>
-    <m/>
-    <s v="-"/>
-    <n v="28"/>
-    <n v="180"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="53"/>
-    <m/>
-    <s v="-"/>
-    <n v="28"/>
-    <n v="180"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="125"/>
-    <n v="180"/>
-    <n v="5"/>
-    <n v="185"/>
+    <n v="600"/>
+    <n v="17"/>
+    <m/>
+    <n v="163"/>
+    <n v="163"/>
     <m/>
     <n v="97"/>
     <n v="2"/>
@@ -11754,160 +12912,22 @@
   <r>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="7"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="3"/>
     <m/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="51"/>
     <m/>
     <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="71"/>
     <n v="180"/>
-    <n v="59"/>
-    <n v="239"/>
-    <m/>
-    <n v="76"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="119"/>
-    <n v="180"/>
-    <n v="11"/>
-    <n v="191"/>
-    <m/>
-    <n v="91"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="89"/>
-    <n v="180"/>
-    <n v="41"/>
-    <n v="221"/>
-    <m/>
-    <n v="85"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="4"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="54"/>
-    <n v="180"/>
-    <n v="76"/>
-    <n v="256"/>
-    <m/>
-    <n v="70"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="5"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="76"/>
-    <n v="180"/>
-    <n v="54"/>
-    <n v="234"/>
-    <m/>
-    <n v="79"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="6"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="120"/>
-    <n v="180"/>
-    <n v="10"/>
-    <n v="190"/>
-    <m/>
-    <n v="94"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="7"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="127"/>
-    <n v="180"/>
-    <n v="3"/>
-    <n v="183"/>
+    <n v="600"/>
+    <n v="27"/>
+    <m/>
+    <n v="153"/>
+    <n v="153"/>
     <m/>
     <n v="100"/>
     <n v="1"/>
@@ -11915,1060 +12935,48 @@
   <r>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="7"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="3"/>
     <m/>
     <x v="0"/>
-    <x v="8"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="62"/>
-    <n v="180"/>
-    <n v="68"/>
-    <n v="248"/>
-    <m/>
-    <n v="73"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="9"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="89"/>
-    <n v="180"/>
-    <n v="41"/>
-    <n v="221"/>
-    <m/>
-    <n v="85"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="10"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="100"/>
-    <n v="90"/>
-    <n v="180"/>
-    <n v="40"/>
-    <n v="220"/>
-    <m/>
-    <n v="88"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="11"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="600"/>
-    <n v="115"/>
-    <n v="600"/>
-    <n v="15"/>
-    <n v="615"/>
-    <m/>
-    <n v="100"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="12"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="600"/>
-    <n v="37"/>
-    <n v="600"/>
-    <n v="93"/>
-    <n v="693"/>
-    <m/>
-    <n v="88"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="13"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="600"/>
-    <n v="90"/>
-    <n v="600"/>
-    <n v="40"/>
-    <n v="640"/>
-    <m/>
-    <n v="97"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="14"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="600"/>
-    <n v="46"/>
-    <n v="600"/>
-    <n v="84"/>
-    <n v="684"/>
-    <m/>
-    <n v="91"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="15"/>
-    <m/>
-    <s v="-"/>
-    <n v="130"/>
-    <n v="600"/>
-    <n v="64"/>
-    <n v="600"/>
-    <n v="66"/>
-    <n v="666"/>
-    <m/>
-    <n v="94"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="16"/>
+    <x v="52"/>
     <m/>
     <s v="-"/>
     <n v="180"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="3"/>
+    <m/>
+    <n v="177"/>
+    <n v="177"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="7"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="3"/>
     <m/>
     <x v="0"/>
-    <x v="17"/>
+    <x v="53"/>
     <m/>
     <s v="-"/>
     <n v="180"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="18"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="19"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="20"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="21"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="22"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="23"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="24"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="25"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="26"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="27"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="28"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="29"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="30"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="31"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="32"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="33"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="34"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="35"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="36"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="37"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="38"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="39"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="40"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="41"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="42"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="43"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="44"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="45"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="46"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="47"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="48"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="49"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="50"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="51"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="52"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="53"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="12"/>
+    <m/>
+    <n v="168"/>
+    <n v="168"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <m/>
@@ -14216,7 +14224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14626,22 +14634,22 @@
       <x v="173"/>
     </i>
     <i>
+      <x v="176"/>
+    </i>
+    <i>
       <x v="231"/>
     </i>
     <i>
       <x v="93"/>
     </i>
     <i>
-      <x v="176"/>
-    </i>
-    <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="124"/>
+      <x v="156"/>
     </i>
     <i>
-      <x v="156"/>
+      <x v="124"/>
     </i>
     <i>
       <x v="95"/>
@@ -14856,7 +14864,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15498,7 +15506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15902,22 +15910,22 @@
       <x v="24"/>
     </i>
     <i>
-      <x v="209"/>
+      <x v="118"/>
     </i>
     <i>
-      <x v="118"/>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="209"/>
     </i>
     <i>
       <x v="172"/>
     </i>
     <i>
-      <x v="109"/>
+      <x v="257"/>
     </i>
     <i>
       <x v="228"/>
-    </i>
-    <i>
-      <x v="257"/>
     </i>
     <i t="grand">
       <x/>
@@ -16145,7 +16153,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16543,22 +16551,22 @@
   </rowFields>
   <rowItems count="7">
     <i>
+      <x v="92"/>
+    </i>
+    <i>
       <x v="44"/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i>
       <x v="147"/>
     </i>
     <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="18"/>
+      <x v="215"/>
     </i>
     <i>
       <x v="252"/>
-    </i>
-    <i>
-      <x v="215"/>
     </i>
     <i t="grand">
       <x/>
@@ -16790,7 +16798,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -17187,13 +17195,13 @@
   </rowFields>
   <rowItems count="4">
     <i>
-      <x v="170"/>
-    </i>
-    <i>
       <x v="263"/>
     </i>
     <i>
       <x v="113"/>
+    </i>
+    <i>
+      <x v="170"/>
     </i>
     <i t="grand">
       <x/>
@@ -17425,7 +17433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -17823,22 +17831,22 @@
   </rowFields>
   <rowItems count="7">
     <i>
-      <x v="125"/>
+      <x v="210"/>
     </i>
     <i>
-      <x v="210"/>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="237"/>
     </i>
     <i>
       <x v="139"/>
     </i>
     <i>
-      <x v="237"/>
+      <x v="188"/>
     </i>
     <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="188"/>
+      <x v="125"/>
     </i>
     <i t="grand">
       <x/>
@@ -18070,7 +18078,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -18468,25 +18476,25 @@
   </rowFields>
   <rowItems count="8">
     <i>
-      <x v="37"/>
-    </i>
-    <i>
       <x v="254"/>
     </i>
     <i>
       <x v="71"/>
     </i>
     <i>
-      <x v="157"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="230"/>
     </i>
     <i>
       <x v="135"/>
     </i>
     <i>
-      <x v="230"/>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -18718,7 +18726,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -19435,13 +19443,13 @@
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Scaled Fem"/>
-        <filter val="Scaled Masc"/>
+        <filter val="RX Fem"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Prova 2A"/>
+        <filter val="Prova 2B"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19790,11 +19798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="M111" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="M135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P274" sqref="P274"/>
+      <selection pane="bottomRight" activeCell="P214" sqref="P214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -19824,11 +19832,11 @@
     <row r="1" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11">
         <f>SUBTOTAL(3,C3:C2352)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="11">
         <f>SUBTOTAL(3,J3:J2352)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -22758,8 +22766,9 @@
       <c r="O54">
         <v>40</v>
       </c>
-      <c r="P54" s="8">
-        <v>107</v>
+      <c r="P54" s="30">
+        <f>107-2</f>
+        <v>105</v>
       </c>
       <c r="Q54" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
@@ -22767,7 +22776,7 @@
       </c>
       <c r="R54" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S54" s="8"/>
       <c r="T54" s="1">
@@ -24640,19 +24649,20 @@
       <c r="N87">
         <v>840</v>
       </c>
-      <c r="O87">
-        <v>513</v>
+      <c r="O87" s="29">
+        <f>513+40</f>
+        <v>553</v>
       </c>
       <c r="P87" s="8">
         <v>840</v>
       </c>
       <c r="Q87" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="R87" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>1097</v>
+        <v>1057</v>
       </c>
       <c r="S87" s="8"/>
       <c r="T87" s="1">
@@ -25981,7 +25991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>145</v>
       </c>
@@ -26033,14 +26043,14 @@
       <c r="S111" s="8"/>
       <c r="T111" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U111" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R111,$R$111:$R$121,1),"A definir")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>146</v>
       </c>
@@ -26092,14 +26102,14 @@
       <c r="S112" s="8"/>
       <c r="T112" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="U112" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R112,$R$111:$R$121,1),"A definir")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>147</v>
       </c>
@@ -26158,7 +26168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>148</v>
       </c>
@@ -26210,14 +26220,14 @@
       <c r="S114" s="8"/>
       <c r="T114" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="U114" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R114,$R$111:$R$121,1),"A definir")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>149</v>
       </c>
@@ -26269,14 +26279,14 @@
       <c r="S115" s="8"/>
       <c r="T115" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U115" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R115,$R$111:$R$121,1),"A definir")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>150</v>
       </c>
@@ -26314,8 +26324,9 @@
       <c r="O116">
         <v>36</v>
       </c>
-      <c r="P116" s="8">
-        <v>150</v>
+      <c r="P116" s="30">
+        <f>150-59</f>
+        <v>91</v>
       </c>
       <c r="Q116" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
@@ -26323,19 +26334,19 @@
       </c>
       <c r="R116" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="S116" s="8"/>
       <c r="T116" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="U116" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R116,$R$111:$R$121,1),"A definir")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>151</v>
       </c>
@@ -26394,7 +26405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>152</v>
       </c>
@@ -26446,14 +26457,14 @@
       <c r="S118" s="8"/>
       <c r="T118" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U118" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R118,$R$111:$R$121,1),"A definir")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>21</v>
       </c>
@@ -26497,7 +26508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>153</v>
       </c>
@@ -26549,14 +26560,14 @@
       <c r="S120" s="8"/>
       <c r="T120" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U120" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R120,$R$111:$R$121,1),"A definir")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>154</v>
       </c>
@@ -26617,7 +26628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>24</v>
       </c>
@@ -26673,7 +26684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>156</v>
       </c>
@@ -26732,7 +26743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>157</v>
       </c>
@@ -26791,7 +26802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>158</v>
       </c>
@@ -26850,7 +26861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>159</v>
       </c>
@@ -26941,23 +26952,28 @@
       <c r="N127">
         <v>180</v>
       </c>
-      <c r="P127" s="8"/>
+      <c r="O127">
+        <v>32</v>
+      </c>
+      <c r="P127" s="8">
+        <v>176</v>
+      </c>
       <c r="Q127" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R127" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="S127" s="8"/>
       <c r="T127" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U127" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="U127" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R127,$R$127:$R$134,1),"A definir")</f>
-        <v>A definir</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -26992,23 +27008,28 @@
       <c r="N128">
         <v>180</v>
       </c>
-      <c r="P128" s="8"/>
+      <c r="O128">
+        <v>32</v>
+      </c>
+      <c r="P128" s="8">
+        <v>162</v>
+      </c>
       <c r="Q128" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R128" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="S128" s="8"/>
       <c r="T128" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U128" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="U128" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R128,$R$127:$R$134,1),"A definir")</f>
-        <v>A definir</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27043,23 +27064,28 @@
       <c r="N129">
         <v>180</v>
       </c>
-      <c r="P129" s="8"/>
+      <c r="O129">
+        <v>32</v>
+      </c>
+      <c r="P129" s="8">
+        <v>83</v>
+      </c>
       <c r="Q129" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R129" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="S129" s="8"/>
       <c r="T129" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U129" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U129" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R129,$R$127:$R$134,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27094,23 +27120,28 @@
       <c r="N130">
         <v>180</v>
       </c>
-      <c r="P130" s="8"/>
+      <c r="O130">
+        <v>32</v>
+      </c>
+      <c r="P130" s="8">
+        <v>98</v>
+      </c>
       <c r="Q130" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R130" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="S130" s="8"/>
       <c r="T130" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U130" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U130" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R130,$R$127:$R$134,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27145,23 +27176,28 @@
       <c r="N131">
         <v>180</v>
       </c>
-      <c r="P131" s="8"/>
+      <c r="O131">
+        <v>32</v>
+      </c>
+      <c r="P131" s="8">
+        <v>79</v>
+      </c>
       <c r="Q131" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R131" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="S131" s="8"/>
       <c r="T131" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U131" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U131" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R131,$R$127:$R$134,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27196,23 +27232,28 @@
       <c r="N132">
         <v>180</v>
       </c>
-      <c r="P132" s="8"/>
+      <c r="O132">
+        <v>32</v>
+      </c>
+      <c r="P132" s="8">
+        <v>124</v>
+      </c>
       <c r="Q132" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R132" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="S132" s="8"/>
       <c r="T132" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U132" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U132" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R132,$R$127:$R$134,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27247,23 +27288,28 @@
       <c r="N133">
         <v>180</v>
       </c>
-      <c r="P133" s="8"/>
+      <c r="O133">
+        <v>32</v>
+      </c>
+      <c r="P133" s="8">
+        <v>100</v>
+      </c>
       <c r="Q133" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R133" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S133" s="8"/>
       <c r="T133" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U133" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U133" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R133,$R$127:$R$134,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -27300,24 +27346,28 @@
       <c r="N134" s="12">
         <v>180</v>
       </c>
-      <c r="O134" s="12"/>
-      <c r="P134" s="14"/>
+      <c r="O134" s="12">
+        <v>32</v>
+      </c>
+      <c r="P134" s="14">
+        <v>149</v>
+      </c>
       <c r="Q134" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R134" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="S134" s="14"/>
       <c r="T134" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U134" s="15" t="str">
+        <v>85</v>
+      </c>
+      <c r="U134" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R134,$R$127:$R$134,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27352,23 +27402,28 @@
       <c r="N135">
         <v>180</v>
       </c>
-      <c r="P135" s="8"/>
+      <c r="O135">
+        <v>32</v>
+      </c>
+      <c r="P135" s="8">
+        <v>117</v>
+      </c>
       <c r="Q135" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R135" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="S135" s="8"/>
       <c r="T135" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U135" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U135" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R135,$R$135:$R$140,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27403,23 +27458,28 @@
       <c r="N136">
         <v>180</v>
       </c>
-      <c r="P136" s="8"/>
+      <c r="O136">
+        <v>30</v>
+      </c>
+      <c r="P136" s="8">
+        <v>180</v>
+      </c>
       <c r="Q136" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R136" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="S136" s="8"/>
       <c r="T136" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U136" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U136" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R136,$R$135:$R$140,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27454,23 +27514,28 @@
       <c r="N137">
         <v>180</v>
       </c>
-      <c r="P137" s="8"/>
+      <c r="O137">
+        <v>32</v>
+      </c>
+      <c r="P137" s="8">
+        <v>90</v>
+      </c>
       <c r="Q137" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R137" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S137" s="8"/>
       <c r="T137" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U137" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U137" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R137,$R$135:$R$140,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27505,23 +27570,28 @@
       <c r="N138">
         <v>180</v>
       </c>
-      <c r="P138" s="8"/>
+      <c r="O138">
+        <v>32</v>
+      </c>
+      <c r="P138" s="8">
+        <v>117</v>
+      </c>
       <c r="Q138" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R138" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="S138" s="8"/>
       <c r="T138" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U138" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U138" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R138,$R$135:$R$140,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27559,23 +27629,28 @@
       <c r="N139">
         <v>180</v>
       </c>
-      <c r="P139" s="8"/>
+      <c r="O139">
+        <v>32</v>
+      </c>
+      <c r="P139" s="8">
+        <v>87</v>
+      </c>
       <c r="Q139" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R139" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="S139" s="8"/>
       <c r="T139" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U139" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U139" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R139,$R$135:$R$140,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -27615,24 +27690,28 @@
       <c r="N140" s="12">
         <v>180</v>
       </c>
-      <c r="O140" s="12"/>
-      <c r="P140" s="14"/>
+      <c r="O140" s="12">
+        <v>32</v>
+      </c>
+      <c r="P140" s="14">
+        <v>67</v>
+      </c>
       <c r="Q140" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R140" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="S140" s="14"/>
       <c r="T140" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U140" s="15" t="str">
+        <v>100</v>
+      </c>
+      <c r="U140" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R140,$R$135:$R$140,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27661,23 +27740,28 @@
       <c r="N141">
         <v>180</v>
       </c>
-      <c r="P141" s="8"/>
+      <c r="O141">
+        <v>32</v>
+      </c>
+      <c r="P141" s="8">
+        <v>180</v>
+      </c>
       <c r="Q141" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R141" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="S141" s="8"/>
       <c r="T141" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U141" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U141" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R141,$R$141:$R$143,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27700,23 +27784,28 @@
       <c r="N142">
         <v>180</v>
       </c>
-      <c r="P142" s="8"/>
+      <c r="O142">
+        <v>32</v>
+      </c>
+      <c r="P142" s="8">
+        <v>111</v>
+      </c>
       <c r="Q142" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R142" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="S142" s="8"/>
       <c r="T142" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U142" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U142" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R142,$R$141:$R$143,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -27744,24 +27833,28 @@
       <c r="N143" s="12">
         <v>180</v>
       </c>
-      <c r="O143" s="12"/>
-      <c r="P143" s="14"/>
+      <c r="O143" s="12">
+        <v>32</v>
+      </c>
+      <c r="P143" s="14">
+        <v>135</v>
+      </c>
       <c r="Q143" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R143" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="S143" s="14"/>
       <c r="T143" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U143" s="15" t="str">
+        <v>97</v>
+      </c>
+      <c r="U143" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R143,$R$141:$R$143,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27793,23 +27886,28 @@
       <c r="N144">
         <v>180</v>
       </c>
-      <c r="P144" s="8"/>
+      <c r="O144">
+        <v>32</v>
+      </c>
+      <c r="P144" s="8">
+        <v>64</v>
+      </c>
       <c r="Q144" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R144" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="S144" s="8"/>
       <c r="T144" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U144" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U144" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R144,$R$144:$R$149,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27841,23 +27939,28 @@
       <c r="N145">
         <v>180</v>
       </c>
-      <c r="P145" s="8"/>
+      <c r="O145">
+        <v>32</v>
+      </c>
+      <c r="P145" s="8">
+        <v>107</v>
+      </c>
       <c r="Q145" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R145" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="S145" s="8"/>
       <c r="T145" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U145" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U145" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R145,$R$144:$R$149,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27889,6 +27992,9 @@
       <c r="N146">
         <v>180</v>
       </c>
+      <c r="O146">
+        <v>32</v>
+      </c>
       <c r="P146" s="8"/>
       <c r="Q146" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
@@ -27937,23 +28043,28 @@
       <c r="N147">
         <v>180</v>
       </c>
-      <c r="P147" s="8"/>
+      <c r="O147">
+        <v>32</v>
+      </c>
+      <c r="P147" s="8">
+        <v>68</v>
+      </c>
       <c r="Q147" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R147" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="S147" s="8"/>
       <c r="T147" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U147" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U147" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R147,$R$144:$R$149,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -27985,23 +28096,28 @@
       <c r="N148">
         <v>180</v>
       </c>
-      <c r="P148" s="8"/>
+      <c r="O148">
+        <v>32</v>
+      </c>
+      <c r="P148" s="8">
+        <v>62</v>
+      </c>
       <c r="Q148" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R148" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="S148" s="8"/>
       <c r="T148" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U148" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U148" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R148,$R$144:$R$149,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -28035,24 +28151,28 @@
       <c r="N149" s="12">
         <v>180</v>
       </c>
-      <c r="O149" s="12"/>
-      <c r="P149" s="14"/>
+      <c r="O149" s="12">
+        <v>32</v>
+      </c>
+      <c r="P149" s="14">
+        <v>84</v>
+      </c>
       <c r="Q149" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R149" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="S149" s="14"/>
       <c r="T149" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U149" s="15" t="str">
+        <v>88</v>
+      </c>
+      <c r="U149" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R149,$R$144:$R$149,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28442,7 +28562,7 @@
         <v>A definir</v>
       </c>
     </row>
-    <row r="158" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>30</v>
       </c>
@@ -28471,26 +28591,31 @@
       <c r="N158">
         <v>180</v>
       </c>
-      <c r="P158" s="8"/>
+      <c r="O158">
+        <v>28</v>
+      </c>
+      <c r="P158" s="8">
+        <v>174</v>
+      </c>
       <c r="Q158" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R158" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="S158" s="8"/>
       <c r="T158" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U158" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="U158" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R158,$R$158:$R$164,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="159" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>30</v>
       </c>
@@ -28519,26 +28644,31 @@
       <c r="N159">
         <v>180</v>
       </c>
-      <c r="P159" s="8"/>
+      <c r="O159">
+        <v>28</v>
+      </c>
+      <c r="P159" s="8">
+        <v>150</v>
+      </c>
       <c r="Q159" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R159" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S159" s="8"/>
       <c r="T159" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U159" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U159" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R159,$R$158:$R$164,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="160" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>30</v>
       </c>
@@ -28567,26 +28697,31 @@
       <c r="N160">
         <v>180</v>
       </c>
-      <c r="P160" s="8"/>
+      <c r="O160">
+        <v>28</v>
+      </c>
+      <c r="P160" s="8">
+        <v>158</v>
+      </c>
       <c r="Q160" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R160" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="S160" s="8"/>
       <c r="T160" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U160" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U160" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R160,$R$158:$R$164,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="161" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>30</v>
       </c>
@@ -28615,26 +28750,31 @@
       <c r="N161">
         <v>180</v>
       </c>
-      <c r="P161" s="8"/>
+      <c r="O161">
+        <v>28</v>
+      </c>
+      <c r="P161" s="8">
+        <v>143</v>
+      </c>
       <c r="Q161" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R161" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="S161" s="8"/>
       <c r="T161" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U161" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U161" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R161,$R$158:$R$164,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="162" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>30</v>
       </c>
@@ -28663,26 +28803,31 @@
       <c r="N162">
         <v>180</v>
       </c>
-      <c r="P162" s="8"/>
+      <c r="O162">
+        <v>28</v>
+      </c>
+      <c r="P162" s="8">
+        <v>138</v>
+      </c>
       <c r="Q162" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R162" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="S162" s="8"/>
       <c r="T162" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U162" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U162" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R162,$R$158:$R$164,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="163" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>30</v>
       </c>
@@ -28711,26 +28856,31 @@
       <c r="N163">
         <v>180</v>
       </c>
-      <c r="P163" s="8"/>
+      <c r="O163">
+        <v>28</v>
+      </c>
+      <c r="P163" s="8">
+        <v>137</v>
+      </c>
       <c r="Q163" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R163" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="S163" s="8"/>
       <c r="T163" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U163" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U163" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R163,$R$158:$R$164,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="164" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C164" s="12" t="s">
         <v>30</v>
       </c>
@@ -28761,24 +28911,28 @@
       <c r="N164" s="12">
         <v>180</v>
       </c>
-      <c r="O164" s="12"/>
-      <c r="P164" s="14"/>
+      <c r="O164" s="12">
+        <v>28</v>
+      </c>
+      <c r="P164" s="14">
+        <v>169</v>
+      </c>
       <c r="Q164" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R164" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="S164" s="14"/>
       <c r="T164" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U164" s="15" t="str">
+        <v>85</v>
+      </c>
+      <c r="U164" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R164,$R$158:$R$164,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28813,16 +28967,14 @@
       <c r="O165">
         <v>125</v>
       </c>
-      <c r="P165" s="8">
-        <v>180</v>
-      </c>
+      <c r="P165" s="8"/>
       <c r="Q165" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>5</v>
       </c>
       <c r="R165" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="S165" s="8"/>
       <c r="T165" s="1">
@@ -28866,16 +29018,14 @@
       <c r="O166">
         <v>71</v>
       </c>
-      <c r="P166" s="8">
-        <v>180</v>
-      </c>
+      <c r="P166" s="8"/>
       <c r="Q166" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>59</v>
       </c>
       <c r="R166" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="S166" s="8"/>
       <c r="T166" s="1">
@@ -28919,16 +29069,14 @@
       <c r="O167">
         <v>119</v>
       </c>
-      <c r="P167" s="8">
-        <v>180</v>
-      </c>
+      <c r="P167" s="8"/>
       <c r="Q167" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>11</v>
       </c>
       <c r="R167" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="S167" s="8"/>
       <c r="T167" s="1">
@@ -28972,16 +29120,14 @@
       <c r="O168">
         <v>89</v>
       </c>
-      <c r="P168" s="8">
-        <v>180</v>
-      </c>
+      <c r="P168" s="8"/>
       <c r="Q168" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>41</v>
       </c>
       <c r="R168" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="S168" s="8"/>
       <c r="T168" s="1">
@@ -29025,16 +29171,14 @@
       <c r="O169">
         <v>54</v>
       </c>
-      <c r="P169" s="8">
-        <v>180</v>
-      </c>
+      <c r="P169" s="8"/>
       <c r="Q169" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>76</v>
       </c>
       <c r="R169" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="S169" s="8"/>
       <c r="T169" s="1">
@@ -29078,16 +29222,14 @@
       <c r="O170">
         <v>76</v>
       </c>
-      <c r="P170" s="8">
-        <v>180</v>
-      </c>
+      <c r="P170" s="8"/>
       <c r="Q170" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>54</v>
       </c>
       <c r="R170" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="S170" s="8"/>
       <c r="T170" s="1">
@@ -29131,16 +29273,14 @@
       <c r="O171">
         <v>120</v>
       </c>
-      <c r="P171" s="8">
-        <v>180</v>
-      </c>
+      <c r="P171" s="8"/>
       <c r="Q171" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>10</v>
       </c>
       <c r="R171" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="S171" s="8"/>
       <c r="T171" s="1">
@@ -29175,16 +29315,14 @@
       <c r="O172">
         <v>127</v>
       </c>
-      <c r="P172" s="8">
-        <v>180</v>
-      </c>
+      <c r="P172" s="8"/>
       <c r="Q172" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>3</v>
       </c>
       <c r="R172" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="S172" s="8"/>
       <c r="T172" s="1">
@@ -29228,16 +29366,14 @@
       <c r="O173">
         <v>62</v>
       </c>
-      <c r="P173" s="8">
-        <v>180</v>
-      </c>
+      <c r="P173" s="8"/>
       <c r="Q173" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>68</v>
       </c>
       <c r="R173" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>248</v>
+        <v>68</v>
       </c>
       <c r="S173" s="8"/>
       <c r="T173" s="1">
@@ -29281,16 +29417,14 @@
       <c r="O174">
         <v>89</v>
       </c>
-      <c r="P174" s="8">
-        <v>180</v>
-      </c>
+      <c r="P174" s="8"/>
       <c r="Q174" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>41</v>
       </c>
       <c r="R174" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="S174" s="8"/>
       <c r="T174" s="1">
@@ -29336,16 +29470,14 @@
       <c r="O175" s="12">
         <v>90</v>
       </c>
-      <c r="P175" s="14">
-        <v>180</v>
-      </c>
+      <c r="P175" s="14"/>
       <c r="Q175" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>40</v>
       </c>
       <c r="R175" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="S175" s="14"/>
       <c r="T175" s="15">
@@ -29389,16 +29521,14 @@
       <c r="O176">
         <v>115</v>
       </c>
-      <c r="P176" s="8">
-        <v>600</v>
-      </c>
+      <c r="P176" s="8"/>
       <c r="Q176" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>15</v>
       </c>
       <c r="R176" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>615</v>
+        <v>15</v>
       </c>
       <c r="S176" s="8"/>
       <c r="T176" s="1">
@@ -29442,16 +29572,14 @@
       <c r="O177">
         <v>37</v>
       </c>
-      <c r="P177" s="8">
-        <v>600</v>
-      </c>
+      <c r="P177" s="8"/>
       <c r="Q177" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>93</v>
       </c>
       <c r="R177" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>693</v>
+        <v>93</v>
       </c>
       <c r="S177" s="8"/>
       <c r="T177" s="1">
@@ -29495,16 +29623,14 @@
       <c r="O178">
         <v>90</v>
       </c>
-      <c r="P178" s="8">
-        <v>600</v>
-      </c>
+      <c r="P178" s="8"/>
       <c r="Q178" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>40</v>
       </c>
       <c r="R178" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="S178" s="8"/>
       <c r="T178" s="1">
@@ -29548,16 +29674,14 @@
       <c r="O179">
         <v>46</v>
       </c>
-      <c r="P179" s="8">
-        <v>600</v>
-      </c>
+      <c r="P179" s="8"/>
       <c r="Q179" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>84</v>
       </c>
       <c r="R179" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>684</v>
+        <v>84</v>
       </c>
       <c r="S179" s="8"/>
       <c r="T179" s="1">
@@ -29601,16 +29725,14 @@
       <c r="O180" s="12">
         <v>64</v>
       </c>
-      <c r="P180" s="14">
-        <v>600</v>
-      </c>
+      <c r="P180" s="14"/>
       <c r="Q180" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>66</v>
       </c>
       <c r="R180" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>666</v>
+        <v>66</v>
       </c>
       <c r="S180" s="14"/>
       <c r="T180" s="15">
@@ -29651,23 +29773,26 @@
       <c r="N181">
         <v>600</v>
       </c>
+      <c r="O181">
+        <v>35</v>
+      </c>
       <c r="P181" s="8"/>
       <c r="Q181" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="R181" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="S181" s="8"/>
       <c r="T181" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U181" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U181" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R181,$R$181:$R$188,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -29699,23 +29824,26 @@
       <c r="N182">
         <v>600</v>
       </c>
+      <c r="O182">
+        <v>7</v>
+      </c>
       <c r="P182" s="8"/>
       <c r="Q182" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="R182" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="S182" s="8"/>
       <c r="T182" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U182" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="U182" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R182,$R$181:$R$188,1),"A definir")</f>
-        <v>A definir</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -29747,23 +29875,26 @@
       <c r="N183">
         <v>600</v>
       </c>
+      <c r="O183">
+        <v>54</v>
+      </c>
       <c r="P183" s="8"/>
       <c r="Q183" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="R183" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="S183" s="8"/>
       <c r="T183" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U183" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U183" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R183,$R$181:$R$188,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -29795,23 +29926,26 @@
       <c r="N184">
         <v>600</v>
       </c>
+      <c r="O184">
+        <v>31</v>
+      </c>
       <c r="P184" s="8"/>
       <c r="Q184" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="R184" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="S184" s="8"/>
       <c r="T184" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U184" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U184" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R184,$R$181:$R$188,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -29843,23 +29977,26 @@
       <c r="N185">
         <v>600</v>
       </c>
+      <c r="O185">
+        <v>63</v>
+      </c>
       <c r="P185" s="8"/>
       <c r="Q185" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="R185" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="S185" s="8"/>
       <c r="T185" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U185" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U185" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R185,$R$181:$R$188,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -29891,23 +30028,26 @@
       <c r="N186">
         <v>600</v>
       </c>
+      <c r="O186">
+        <v>34</v>
+      </c>
       <c r="P186" s="8"/>
       <c r="Q186" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="R186" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="S186" s="8"/>
       <c r="T186" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U186" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U186" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R186,$R$181:$R$188,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -29939,23 +30079,26 @@
       <c r="N187">
         <v>600</v>
       </c>
+      <c r="O187">
+        <v>87</v>
+      </c>
       <c r="P187" s="8"/>
       <c r="Q187" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="R187" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="S187" s="8"/>
       <c r="T187" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U187" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U187" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R187,$R$181:$R$188,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -29989,24 +30132,26 @@
       <c r="N188" s="12">
         <v>600</v>
       </c>
-      <c r="O188" s="12"/>
+      <c r="O188" s="12">
+        <v>27</v>
+      </c>
       <c r="P188" s="14"/>
       <c r="Q188" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="R188" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="S188" s="14"/>
       <c r="T188" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U188" s="15" t="str">
+        <v>82</v>
+      </c>
+      <c r="U188" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R188,$R$181:$R$188,1),"A definir")</f>
-        <v>A definir</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30038,23 +30183,26 @@
       <c r="N189">
         <v>600</v>
       </c>
+      <c r="O189">
+        <v>36</v>
+      </c>
       <c r="P189" s="8"/>
       <c r="Q189" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="R189" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="S189" s="8"/>
       <c r="T189" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U189" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U189" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R189,$R$189:$R$194,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30086,23 +30234,26 @@
       <c r="N190">
         <v>600</v>
       </c>
+      <c r="O190">
+        <v>25</v>
+      </c>
       <c r="P190" s="8"/>
       <c r="Q190" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="R190" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="S190" s="8"/>
       <c r="T190" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U190" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U190" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R190,$R$189:$R$194,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30134,23 +30285,26 @@
       <c r="N191">
         <v>600</v>
       </c>
+      <c r="O191">
+        <v>20</v>
+      </c>
       <c r="P191" s="8"/>
       <c r="Q191" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="R191" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S191" s="8"/>
       <c r="T191" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U191" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U191" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R191,$R$189:$R$194,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30182,23 +30336,26 @@
       <c r="N192">
         <v>600</v>
       </c>
+      <c r="O192">
+        <v>23</v>
+      </c>
       <c r="P192" s="8"/>
       <c r="Q192" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="R192" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="S192" s="8"/>
       <c r="T192" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U192" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U192" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R192,$R$189:$R$194,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30230,23 +30387,26 @@
       <c r="N193">
         <v>600</v>
       </c>
+      <c r="O193">
+        <v>34</v>
+      </c>
       <c r="P193" s="8"/>
       <c r="Q193" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="R193" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="S193" s="8"/>
       <c r="T193" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U193" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U193" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R193,$R$189:$R$194,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -30280,24 +30440,26 @@
       <c r="N194" s="12">
         <v>600</v>
       </c>
-      <c r="O194" s="12"/>
+      <c r="O194" s="12">
+        <v>40</v>
+      </c>
       <c r="P194" s="14"/>
       <c r="Q194" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="R194" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="S194" s="14"/>
       <c r="T194" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U194" s="15" t="str">
+        <v>100</v>
+      </c>
+      <c r="U194" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R194,$R$189:$R$194,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30320,23 +30482,26 @@
       <c r="N195">
         <v>600</v>
       </c>
+      <c r="O195">
+        <v>32</v>
+      </c>
       <c r="P195" s="8"/>
       <c r="Q195" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R195" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="S195" s="8"/>
       <c r="T195" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U195" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U195" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R195,$R$195:$R$197,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30359,23 +30524,26 @@
       <c r="N196">
         <v>600</v>
       </c>
+      <c r="O196">
+        <v>39</v>
+      </c>
       <c r="P196" s="8"/>
       <c r="Q196" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="R196" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="S196" s="8"/>
       <c r="T196" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U196" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U196" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R196,$R$195:$R$197,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -30403,24 +30571,26 @@
       <c r="N197" s="12">
         <v>600</v>
       </c>
-      <c r="O197" s="12"/>
+      <c r="O197" s="12">
+        <v>36</v>
+      </c>
       <c r="P197" s="14"/>
       <c r="Q197" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="R197" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="S197" s="14"/>
       <c r="T197" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U197" s="15" t="str">
+        <v>97</v>
+      </c>
+      <c r="U197" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R197,$R$195:$R$197,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30452,23 +30622,26 @@
       <c r="N198">
         <v>600</v>
       </c>
+      <c r="O198">
+        <v>31</v>
+      </c>
       <c r="P198" s="8"/>
       <c r="Q198" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="R198" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="S198" s="8"/>
       <c r="T198" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U198" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U198" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R198,$R$198:$R$203,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30500,23 +30673,26 @@
       <c r="N199">
         <v>600</v>
       </c>
+      <c r="O199">
+        <v>26</v>
+      </c>
       <c r="P199" s="8"/>
       <c r="Q199" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="R199" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="S199" s="8"/>
       <c r="T199" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U199" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U199" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R199,$R$198:$R$203,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30596,23 +30772,26 @@
       <c r="N201">
         <v>600</v>
       </c>
+      <c r="O201">
+        <v>38</v>
+      </c>
       <c r="P201" s="8"/>
       <c r="Q201" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R201" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="S201" s="8"/>
       <c r="T201" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U201" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U201" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R201,$R$198:$R$203,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -30644,23 +30823,26 @@
       <c r="N202">
         <v>600</v>
       </c>
+      <c r="O202">
+        <v>57</v>
+      </c>
       <c r="P202" s="8"/>
       <c r="Q202" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="R202" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="S202" s="8"/>
       <c r="T202" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U202" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U202" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R202,$R$198:$R$203,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -30694,24 +30876,26 @@
       <c r="N203" s="12">
         <v>600</v>
       </c>
-      <c r="O203" s="12"/>
+      <c r="O203" s="12">
+        <v>32</v>
+      </c>
       <c r="P203" s="14"/>
       <c r="Q203" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="R203" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="S203" s="14"/>
       <c r="T203" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U203" s="15" t="str">
+        <v>91</v>
+      </c>
+      <c r="U203" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R203,$R$198:$R$203,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -31101,7 +31285,7 @@
         <v>A definir</v>
       </c>
     </row>
-    <row r="212" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>30</v>
       </c>
@@ -31130,26 +31314,29 @@
       <c r="N212">
         <v>600</v>
       </c>
+      <c r="O212">
+        <v>11</v>
+      </c>
       <c r="P212" s="8"/>
       <c r="Q212" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="R212" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="S212" s="8"/>
       <c r="T212" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U212" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U212" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R212,$R$212:$R$218,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="213" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>30</v>
       </c>
@@ -31178,26 +31365,29 @@
       <c r="N213">
         <v>600</v>
       </c>
+      <c r="O213">
+        <v>5</v>
+      </c>
       <c r="P213" s="8"/>
       <c r="Q213" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="R213" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="S213" s="8"/>
       <c r="T213" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U213" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U213" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R213,$R$212:$R$218,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="214" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>30</v>
       </c>
@@ -31226,26 +31416,29 @@
       <c r="N214">
         <v>600</v>
       </c>
+      <c r="O214">
+        <v>15</v>
+      </c>
       <c r="P214" s="8"/>
       <c r="Q214" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="R214" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="S214" s="8"/>
       <c r="T214" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U214" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U214" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R214,$R$212:$R$218,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="215" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>30</v>
       </c>
@@ -31274,26 +31467,29 @@
       <c r="N215">
         <v>600</v>
       </c>
+      <c r="O215">
+        <v>17</v>
+      </c>
       <c r="P215" s="8"/>
       <c r="Q215" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="R215" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="S215" s="8"/>
       <c r="T215" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U215" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U215" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R215,$R$212:$R$218,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="216" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>30</v>
       </c>
@@ -31322,26 +31518,29 @@
       <c r="N216">
         <v>600</v>
       </c>
+      <c r="O216">
+        <v>27</v>
+      </c>
       <c r="P216" s="8"/>
       <c r="Q216" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="R216" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="S216" s="8"/>
       <c r="T216" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U216" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U216" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R216,$R$212:$R$218,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="217" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>30</v>
       </c>
@@ -31370,26 +31569,29 @@
       <c r="N217">
         <v>600</v>
       </c>
+      <c r="O217">
+        <v>3</v>
+      </c>
       <c r="P217" s="8"/>
       <c r="Q217" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="R217" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="S217" s="8"/>
       <c r="T217" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U217" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="U217" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R217,$R$212:$R$218,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="218" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C218" s="12" t="s">
         <v>30</v>
       </c>
@@ -31420,24 +31622,26 @@
       <c r="N218" s="12">
         <v>600</v>
       </c>
-      <c r="O218" s="12"/>
+      <c r="O218" s="12">
+        <v>12</v>
+      </c>
       <c r="P218" s="14"/>
       <c r="Q218" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="R218" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="S218" s="14"/>
       <c r="T218" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U218" s="15" t="str">
+        <v>91</v>
+      </c>
+      <c r="U218" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R218,$R$212:$R$218,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -34041,7 +34245,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -34133,7 +34337,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E6" s="8">
         <v>100</v>
@@ -34142,7 +34346,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -34156,7 +34360,7 @@
         <v>94</v>
       </c>
       <c r="D7" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E7" s="8">
         <v>97</v>
@@ -34165,7 +34369,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -34193,71 +34397,71 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8">
+        <v>100</v>
+      </c>
+      <c r="C9" s="8">
         <v>88</v>
       </c>
-      <c r="C9" s="8">
-        <v>76</v>
-      </c>
       <c r="D9" s="8">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E9" s="8">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8">
         <v>88</v>
       </c>
       <c r="C10" s="8">
+        <v>76</v>
+      </c>
+      <c r="D10" s="8">
+        <v>94</v>
+      </c>
+      <c r="E10" s="8">
         <v>91</v>
       </c>
-      <c r="D10" s="8">
-        <v>73</v>
-      </c>
-      <c r="E10" s="8">
-        <v>85</v>
-      </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C11" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" s="8">
         <v>70</v>
       </c>
       <c r="E11" s="8">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -34271,7 +34475,7 @@
         <v>82</v>
       </c>
       <c r="D12" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="8">
         <v>76</v>
@@ -34280,24 +34484,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8">
         <v>73</v>
       </c>
-      <c r="C13" s="8">
-        <v>79</v>
-      </c>
       <c r="D13" s="8">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E13" s="8">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -34308,25 +34512,25 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B14" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="8">
+        <v>79</v>
+      </c>
+      <c r="D14" s="8">
         <v>73</v>
       </c>
-      <c r="D14" s="8">
-        <v>97</v>
-      </c>
       <c r="E14" s="8">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="9">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -34340,7 +34544,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" s="8">
         <v>70</v>
@@ -34349,7 +34553,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -34385,7 +34589,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -34593,8 +34797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -34663,16 +34867,16 @@
         <v>100</v>
       </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>200</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -34686,154 +34890,154 @@
         <v>94</v>
       </c>
       <c r="D6" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>191</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C7" s="8">
+        <v>97</v>
+      </c>
+      <c r="D7" s="8">
         <v>91</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>185</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8">
         <v>85</v>
       </c>
       <c r="C8" s="8">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>182</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B9" s="8">
+        <v>94</v>
+      </c>
+      <c r="C9" s="8">
         <v>91</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>85</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>176</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="8">
+        <v>91</v>
+      </c>
+      <c r="C10" s="8">
         <v>85</v>
       </c>
-      <c r="C10" s="8">
-        <v>88</v>
-      </c>
       <c r="D10" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>173</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B11" s="8">
+        <v>79</v>
+      </c>
+      <c r="C11" s="8">
+        <v>82</v>
+      </c>
+      <c r="D11" s="8">
         <v>88</v>
       </c>
-      <c r="C11" s="8">
-        <v>79</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
       <c r="E11" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>167</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8">
+        <v>88</v>
+      </c>
+      <c r="C12" s="8">
         <v>79</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <v>82</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>161</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -34847,16 +35051,16 @@
         <v>716</v>
       </c>
       <c r="D13" s="26">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="E13" s="26">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="F13" s="26">
         <v>0</v>
       </c>
       <c r="G13" s="10">
-        <v>1435</v>
+        <v>2867</v>
       </c>
     </row>
   </sheetData>
@@ -34869,7 +35073,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -34932,140 +35136,140 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="8">
+        <v>97</v>
+      </c>
+      <c r="C5" s="8">
+        <v>94</v>
+      </c>
+      <c r="D5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="8">
-        <v>97</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>197</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="8">
+        <v>100</v>
+      </c>
+      <c r="C6" s="8">
+        <v>97</v>
+      </c>
+      <c r="D6" s="8">
         <v>91</v>
       </c>
-      <c r="C6" s="8">
-        <v>100</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>191</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="8">
+        <v>94</v>
+      </c>
+      <c r="C7" s="8">
+        <v>91</v>
+      </c>
+      <c r="D7" s="8">
         <v>97</v>
       </c>
-      <c r="C7" s="8">
+      <c r="E7" s="8">
         <v>94</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>191</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="8">
+        <v>91</v>
+      </c>
+      <c r="C8" s="8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8">
         <v>94</v>
       </c>
-      <c r="C8" s="8">
-        <v>91</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>185</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B9" s="8">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8">
         <v>85</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
+        <v>91</v>
+      </c>
+      <c r="E9" s="8">
         <v>88</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>173</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B10" s="8">
+        <v>85</v>
+      </c>
+      <c r="C10" s="8">
         <v>88</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>85</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>173</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -35079,16 +35283,16 @@
         <v>555</v>
       </c>
       <c r="D11" s="26">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="E11" s="26">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="F11" s="26">
         <v>0</v>
       </c>
       <c r="G11" s="10">
-        <v>1110</v>
+        <v>2223</v>
       </c>
     </row>
   </sheetData>
@@ -35101,7 +35305,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -35164,71 +35368,71 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8">
+        <v>94</v>
+      </c>
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="8">
-        <v>97</v>
-      </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>197</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8">
+        <v>97</v>
+      </c>
+      <c r="C6" s="8">
         <v>94</v>
       </c>
-      <c r="C6" s="8">
-        <v>100</v>
-      </c>
       <c r="D6" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>194</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="8">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8">
         <v>97</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>94</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>191</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -35242,16 +35446,16 @@
         <v>291</v>
       </c>
       <c r="D8" s="26">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="E8" s="26">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="F8" s="26">
         <v>0</v>
       </c>
       <c r="G8" s="10">
-        <v>582</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
@@ -35327,128 +35531,128 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B5" s="8">
+        <v>94</v>
+      </c>
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="8">
-        <v>94</v>
-      </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>194</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8">
+        <v>97</v>
+      </c>
+      <c r="C6" s="8">
+        <v>85</v>
+      </c>
+      <c r="D6" s="8">
+        <v>91</v>
+      </c>
+      <c r="E6" s="8">
         <v>94</v>
       </c>
-      <c r="C6" s="8">
-        <v>100</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>194</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B7" s="8">
+        <v>91</v>
+      </c>
+      <c r="C7" s="8">
+        <v>91</v>
+      </c>
+      <c r="D7" s="8">
+        <v>94</v>
+      </c>
+      <c r="E7" s="8">
         <v>88</v>
       </c>
-      <c r="C7" s="8">
-        <v>97</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>185</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B8" s="8">
+        <v>88</v>
+      </c>
+      <c r="C8" s="8">
+        <v>97</v>
+      </c>
+      <c r="D8" s="8">
+        <v>88</v>
+      </c>
+      <c r="E8" s="8">
         <v>91</v>
       </c>
-      <c r="C8" s="8">
-        <v>91</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>182</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="8">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8">
+        <v>88</v>
+      </c>
+      <c r="D9" s="8">
         <v>85</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>182</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B10" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C10" s="8">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -35460,7 +35664,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -35474,16 +35678,16 @@
         <v>555</v>
       </c>
       <c r="D11" s="26">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E11" s="26">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="F11" s="26">
         <v>0</v>
       </c>
       <c r="G11" s="10">
-        <v>1110</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -35496,7 +35700,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -35559,163 +35763,163 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8">
+        <v>97</v>
+      </c>
+      <c r="C5" s="8">
+        <v>97</v>
+      </c>
+      <c r="D5" s="8">
+        <v>97</v>
+      </c>
+      <c r="E5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="8">
-        <v>94</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>194</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="8">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C6" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>194</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="8">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C7" s="8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>188</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="8">
         <v>82</v>
       </c>
-      <c r="B8" s="8">
-        <v>91</v>
-      </c>
       <c r="C8" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>176</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="8">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8">
+        <v>91</v>
+      </c>
+      <c r="D9" s="8">
+        <v>88</v>
+      </c>
+      <c r="E9" s="8">
         <v>94</v>
       </c>
-      <c r="C9" s="8">
-        <v>82</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>176</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B10" s="8">
+        <v>91</v>
+      </c>
+      <c r="C10" s="8">
         <v>85</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8">
         <v>91</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>176</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8">
+        <v>94</v>
+      </c>
+      <c r="C11" s="8">
         <v>82</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
+        <v>82</v>
+      </c>
+      <c r="E11" s="8">
         <v>88</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>170</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -35729,16 +35933,16 @@
         <v>637</v>
       </c>
       <c r="D12" s="26">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="E12" s="26">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="F12" s="26">
         <v>0</v>
       </c>
       <c r="G12" s="10">
-        <v>1274</v>
+        <v>2548</v>
       </c>
     </row>
   </sheetData>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19268E30-4316-4743-AA61-8072001F93D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F213092-A0A3-4D8A-9BD7-8DAA9BFDE814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,1963 +532,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2025">
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="1449">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -14688,61 +12732,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="1984">
+    <format dxfId="1408">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1985">
+    <format dxfId="1409">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1986">
+    <format dxfId="1410">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1987">
+    <format dxfId="1411">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1988">
+    <format dxfId="1412">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1989">
+    <format dxfId="1413">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1990">
+    <format dxfId="1414">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1991">
+    <format dxfId="1415">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1992">
+    <format dxfId="1416">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1993">
+    <format dxfId="1417">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1994">
+    <format dxfId="1418">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1995">
+    <format dxfId="1419">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1996">
+    <format dxfId="1420">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1997">
+    <format dxfId="1421">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1998">
+    <format dxfId="1422">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1999">
+    <format dxfId="1423">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2000">
+    <format dxfId="1424">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2001">
+    <format dxfId="1425">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2002">
+    <format dxfId="1426">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14751,7 +12795,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2003">
+    <format dxfId="1427">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14760,7 +12804,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2004">
+    <format dxfId="1428">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14769,7 +12813,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2005">
+    <format dxfId="1429">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14778,7 +12822,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2006">
+    <format dxfId="1430">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14787,7 +12831,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2007">
+    <format dxfId="1431">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14796,7 +12840,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2008">
+    <format dxfId="1432">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14805,7 +12849,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2009">
+    <format dxfId="1433">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14814,7 +12858,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2010">
+    <format dxfId="1434">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14823,31 +12867,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2011">
+    <format dxfId="1435">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2012">
+    <format dxfId="1436">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2013">
+    <format dxfId="1437">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2014">
+    <format dxfId="1438">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2015">
+    <format dxfId="1439">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15310,61 +13354,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1948">
+    <format dxfId="1372">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1949">
+    <format dxfId="1373">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1950">
+    <format dxfId="1374">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1951">
+    <format dxfId="1375">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1952">
+    <format dxfId="1376">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1953">
+    <format dxfId="1377">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1954">
+    <format dxfId="1378">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1955">
+    <format dxfId="1379">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1956">
+    <format dxfId="1380">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1957">
+    <format dxfId="1381">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1958">
+    <format dxfId="1382">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1959">
+    <format dxfId="1383">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1960">
+    <format dxfId="1384">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1961">
+    <format dxfId="1385">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1962">
+    <format dxfId="1386">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1963">
+    <format dxfId="1387">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1964">
+    <format dxfId="1388">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1965">
+    <format dxfId="1389">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1966">
+    <format dxfId="1390">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15373,7 +13417,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1967">
+    <format dxfId="1391">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15382,7 +13426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1968">
+    <format dxfId="1392">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15391,7 +13435,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1969">
+    <format dxfId="1393">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15400,7 +13444,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1970">
+    <format dxfId="1394">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15409,7 +13453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1971">
+    <format dxfId="1395">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15418,7 +13462,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1972">
+    <format dxfId="1396">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15427,7 +13471,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1973">
+    <format dxfId="1397">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15436,7 +13480,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1974">
+    <format dxfId="1398">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15445,51 +13489,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1975">
+    <format dxfId="1399">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1976">
+    <format dxfId="1400">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1977">
+    <format dxfId="1401">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1978">
+    <format dxfId="1402">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1979">
+    <format dxfId="1403">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1980">
+    <format dxfId="1404">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1981">
+    <format dxfId="1405">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1982">
+    <format dxfId="1406">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1983">
+    <format dxfId="1407">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15961,61 +14005,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1912">
+    <format dxfId="1336">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1913">
+    <format dxfId="1337">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1914">
+    <format dxfId="1338">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1915">
+    <format dxfId="1339">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1916">
+    <format dxfId="1340">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1917">
+    <format dxfId="1341">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1918">
+    <format dxfId="1342">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1919">
+    <format dxfId="1343">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1920">
+    <format dxfId="1344">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1921">
+    <format dxfId="1345">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1922">
+    <format dxfId="1346">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1923">
+    <format dxfId="1347">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1924">
+    <format dxfId="1348">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1925">
+    <format dxfId="1349">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1926">
+    <format dxfId="1350">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1927">
+    <format dxfId="1351">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1928">
+    <format dxfId="1352">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1929">
+    <format dxfId="1353">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1930">
+    <format dxfId="1354">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16024,7 +14068,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1931">
+    <format dxfId="1355">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16033,7 +14077,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1932">
+    <format dxfId="1356">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16042,7 +14086,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1933">
+    <format dxfId="1357">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16051,7 +14095,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1934">
+    <format dxfId="1358">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16060,7 +14104,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1935">
+    <format dxfId="1359">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16069,7 +14113,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1936">
+    <format dxfId="1360">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16078,7 +14122,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1937">
+    <format dxfId="1361">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16087,7 +14131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1938">
+    <format dxfId="1362">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16096,47 +14140,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1939">
+    <format dxfId="1363">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1940">
+    <format dxfId="1364">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1941">
+    <format dxfId="1365">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1942">
+    <format dxfId="1366">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1943">
+    <format dxfId="1367">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1944">
+    <format dxfId="1368">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1945">
+    <format dxfId="1369">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1946">
+    <format dxfId="1370">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1947">
+    <format dxfId="1371">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16602,61 +14646,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1876">
+    <format dxfId="1300">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1877">
+    <format dxfId="1301">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1878">
+    <format dxfId="1302">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1879">
+    <format dxfId="1303">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1880">
+    <format dxfId="1304">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1881">
+    <format dxfId="1305">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1882">
+    <format dxfId="1306">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1883">
+    <format dxfId="1307">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1884">
+    <format dxfId="1308">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1885">
+    <format dxfId="1309">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1886">
+    <format dxfId="1310">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1887">
+    <format dxfId="1311">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1888">
+    <format dxfId="1312">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1889">
+    <format dxfId="1313">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1890">
+    <format dxfId="1314">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1891">
+    <format dxfId="1315">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1892">
+    <format dxfId="1316">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1893">
+    <format dxfId="1317">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1894">
+    <format dxfId="1318">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16665,7 +14709,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1895">
+    <format dxfId="1319">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16674,7 +14718,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1896">
+    <format dxfId="1320">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16683,7 +14727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1897">
+    <format dxfId="1321">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16692,7 +14736,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1898">
+    <format dxfId="1322">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16701,7 +14745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1899">
+    <format dxfId="1323">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16710,7 +14754,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1900">
+    <format dxfId="1324">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16719,7 +14763,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1901">
+    <format dxfId="1325">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16728,7 +14772,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1902">
+    <format dxfId="1326">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16737,51 +14781,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1903">
+    <format dxfId="1327">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1904">
+    <format dxfId="1328">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1905">
+    <format dxfId="1329">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1906">
+    <format dxfId="1330">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1907">
+    <format dxfId="1331">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1908">
+    <format dxfId="1332">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1909">
+    <format dxfId="1333">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1910">
+    <format dxfId="1334">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1911">
+    <format dxfId="1335">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -17237,61 +15281,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1840">
+    <format dxfId="1264">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1841">
+    <format dxfId="1265">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1842">
+    <format dxfId="1266">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1843">
+    <format dxfId="1267">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1844">
+    <format dxfId="1268">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1845">
+    <format dxfId="1269">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1846">
+    <format dxfId="1270">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1847">
+    <format dxfId="1271">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1848">
+    <format dxfId="1272">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1849">
+    <format dxfId="1273">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1850">
+    <format dxfId="1274">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1851">
+    <format dxfId="1275">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1852">
+    <format dxfId="1276">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1853">
+    <format dxfId="1277">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1854">
+    <format dxfId="1278">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1855">
+    <format dxfId="1279">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1856">
+    <format dxfId="1280">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1857">
+    <format dxfId="1281">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1858">
+    <format dxfId="1282">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17300,7 +15344,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1859">
+    <format dxfId="1283">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17309,7 +15353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1860">
+    <format dxfId="1284">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17318,7 +15362,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1861">
+    <format dxfId="1285">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17327,7 +15371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1862">
+    <format dxfId="1286">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17336,7 +15380,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1863">
+    <format dxfId="1287">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17345,7 +15389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1864">
+    <format dxfId="1288">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17354,7 +15398,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1865">
+    <format dxfId="1289">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17363,7 +15407,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1866">
+    <format dxfId="1290">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17372,51 +15416,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1867">
+    <format dxfId="1291">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1868">
+    <format dxfId="1292">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1869">
+    <format dxfId="1293">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1870">
+    <format dxfId="1294">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1871">
+    <format dxfId="1295">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1872">
+    <format dxfId="1296">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1873">
+    <format dxfId="1297">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1874">
+    <format dxfId="1298">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1875">
+    <format dxfId="1299">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -17882,61 +15926,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1804">
+    <format dxfId="1228">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1805">
+    <format dxfId="1229">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1806">
+    <format dxfId="1230">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1807">
+    <format dxfId="1231">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1808">
+    <format dxfId="1232">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1809">
+    <format dxfId="1233">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1810">
+    <format dxfId="1234">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1811">
+    <format dxfId="1235">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1812">
+    <format dxfId="1236">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1813">
+    <format dxfId="1237">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1814">
+    <format dxfId="1238">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1815">
+    <format dxfId="1239">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1816">
+    <format dxfId="1240">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1817">
+    <format dxfId="1241">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1818">
+    <format dxfId="1242">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1819">
+    <format dxfId="1243">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1820">
+    <format dxfId="1244">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1821">
+    <format dxfId="1245">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1822">
+    <format dxfId="1246">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17945,7 +15989,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1823">
+    <format dxfId="1247">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17954,7 +15998,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1824">
+    <format dxfId="1248">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17963,7 +16007,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1825">
+    <format dxfId="1249">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17972,7 +16016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1826">
+    <format dxfId="1250">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17981,7 +16025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1827">
+    <format dxfId="1251">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17990,7 +16034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1828">
+    <format dxfId="1252">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17999,7 +16043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1829">
+    <format dxfId="1253">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18008,7 +16052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1830">
+    <format dxfId="1254">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18017,51 +16061,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1831">
+    <format dxfId="1255">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1832">
+    <format dxfId="1256">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1833">
+    <format dxfId="1257">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1834">
+    <format dxfId="1258">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1835">
+    <format dxfId="1259">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1836">
+    <format dxfId="1260">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1837">
+    <format dxfId="1261">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1838">
+    <format dxfId="1262">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1839">
+    <format dxfId="1263">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -18530,61 +16574,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1768">
+    <format dxfId="1192">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1769">
+    <format dxfId="1193">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1770">
+    <format dxfId="1194">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1771">
+    <format dxfId="1195">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1772">
+    <format dxfId="1196">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1773">
+    <format dxfId="1197">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1774">
+    <format dxfId="1198">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1775">
+    <format dxfId="1199">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1776">
+    <format dxfId="1200">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1777">
+    <format dxfId="1201">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1778">
+    <format dxfId="1202">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1779">
+    <format dxfId="1203">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1780">
+    <format dxfId="1204">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1781">
+    <format dxfId="1205">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1782">
+    <format dxfId="1206">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1783">
+    <format dxfId="1207">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1784">
+    <format dxfId="1208">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1785">
+    <format dxfId="1209">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1786">
+    <format dxfId="1210">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18593,7 +16637,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1787">
+    <format dxfId="1211">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18602,7 +16646,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1788">
+    <format dxfId="1212">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18611,7 +16655,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1789">
+    <format dxfId="1213">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18620,7 +16664,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1790">
+    <format dxfId="1214">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18629,7 +16673,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1791">
+    <format dxfId="1215">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18638,7 +16682,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1792">
+    <format dxfId="1216">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18647,7 +16691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1793">
+    <format dxfId="1217">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18656,7 +16700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1794">
+    <format dxfId="1218">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18665,51 +16709,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1795">
+    <format dxfId="1219">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1796">
+    <format dxfId="1220">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1797">
+    <format dxfId="1221">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1798">
+    <format dxfId="1222">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1799">
+    <format dxfId="1223">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1800">
+    <format dxfId="1224">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1801">
+    <format dxfId="1225">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1802">
+    <format dxfId="1226">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1803">
+    <format dxfId="1227">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -19181,61 +17225,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="1728">
+    <format dxfId="1152">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1729">
+    <format dxfId="1153">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1730">
+    <format dxfId="1154">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1731">
+    <format dxfId="1155">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1732">
+    <format dxfId="1156">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1733">
+    <format dxfId="1157">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1734">
+    <format dxfId="1158">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1735">
+    <format dxfId="1159">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1736">
+    <format dxfId="1160">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1737">
+    <format dxfId="1161">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1738">
+    <format dxfId="1162">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1739">
+    <format dxfId="1163">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1740">
+    <format dxfId="1164">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1741">
+    <format dxfId="1165">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1742">
+    <format dxfId="1166">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1743">
+    <format dxfId="1167">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1744">
+    <format dxfId="1168">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1745">
+    <format dxfId="1169">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1746">
+    <format dxfId="1170">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19244,7 +17288,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1747">
+    <format dxfId="1171">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19253,7 +17297,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1748">
+    <format dxfId="1172">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19262,7 +17306,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1749">
+    <format dxfId="1173">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19271,7 +17315,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1750">
+    <format dxfId="1174">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19280,7 +17324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1751">
+    <format dxfId="1175">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19289,7 +17333,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1752">
+    <format dxfId="1176">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19298,7 +17342,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1753">
+    <format dxfId="1177">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19307,7 +17351,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1754">
+    <format dxfId="1178">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19316,71 +17360,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1755">
+    <format dxfId="1179">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1756">
+    <format dxfId="1180">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1757">
+    <format dxfId="1181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1758">
+    <format dxfId="1182">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="1759">
+    <format dxfId="1183">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1760">
+    <format dxfId="1184">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1761">
+    <format dxfId="1185">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1762">
+    <format dxfId="1186">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1763">
+    <format dxfId="1187">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1764">
+    <format dxfId="1188">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1765">
+    <format dxfId="1189">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1766">
+    <format dxfId="1190">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1767">
+    <format dxfId="1191">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -19439,11 +17483,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="2024">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1448">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="RX Fem"/>
+        <filter val="Master Masc"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
@@ -19464,23 +17508,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="2023"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1447"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="2022"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="2021">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1446"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1445">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="2020">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1444">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="2019"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="2018">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1443"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1442">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="2017">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1441">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19492,7 +17536,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="2016"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="1440"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19802,7 +17846,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="M135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P214" sqref="P214"/>
+      <selection pane="bottomRight" activeCell="P147" sqref="P147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -19832,11 +17876,11 @@
     <row r="1" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11">
         <f>SUBTOTAL(3,C3:C2352)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" s="11">
         <f>SUBTOTAL(3,J3:J2352)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -27857,7 +25901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>36</v>
       </c>
@@ -27903,14 +25947,14 @@
       <c r="S144" s="8"/>
       <c r="T144" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="U144" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R144,$R$144:$R$149,1),"A definir")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>36</v>
       </c>
@@ -27963,7 +26007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>36</v>
       </c>
@@ -27995,26 +26039,28 @@
       <c r="O146">
         <v>32</v>
       </c>
-      <c r="P146" s="8"/>
+      <c r="P146" s="8">
+        <v>100</v>
+      </c>
       <c r="Q146" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R146" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S146" s="8"/>
       <c r="T146" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U146" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U146" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R146,$R$144:$R$149,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="147" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>36</v>
       </c>
@@ -28060,14 +26106,14 @@
       <c r="S147" s="8"/>
       <c r="T147" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="U147" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R147,$R$144:$R$149,1),"A definir")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>36</v>
       </c>
@@ -28113,14 +26159,14 @@
       <c r="S148" s="8"/>
       <c r="T148" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="U148" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R148,$R$144:$R$149,1),"A definir")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C149" s="12" t="s">
         <v>36</v>
       </c>
@@ -28168,11 +26214,11 @@
       <c r="S149" s="14"/>
       <c r="T149" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U149" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R149,$R$144:$R$149,1),"A definir")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28562,7 +26608,7 @@
         <v>A definir</v>
       </c>
     </row>
-    <row r="158" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>30</v>
       </c>
@@ -28615,7 +26661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>30</v>
       </c>
@@ -28668,7 +26714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>30</v>
       </c>
@@ -28721,7 +26767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>30</v>
       </c>
@@ -28774,7 +26820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>30</v>
       </c>
@@ -28827,7 +26873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>30</v>
       </c>
@@ -28880,7 +26926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C164" s="12" t="s">
         <v>30</v>
       </c>
@@ -30593,7 +28639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>36</v>
       </c>
@@ -30637,14 +28683,14 @@
       <c r="S198" s="8"/>
       <c r="T198" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U198" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R198,$R$198:$R$203,1),"A definir")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>36</v>
       </c>
@@ -30688,14 +28734,14 @@
       <c r="S199" s="8"/>
       <c r="T199" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U199" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R199,$R$198:$R$203,1),"A definir")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>36</v>
       </c>
@@ -30724,26 +28770,29 @@
       <c r="N200">
         <v>600</v>
       </c>
+      <c r="O200">
+        <v>25</v>
+      </c>
       <c r="P200" s="8"/>
       <c r="Q200" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R200" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="S200" s="8"/>
       <c r="T200" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U200" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U200" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R200,$R$198:$R$203,1),"A definir")</f>
-        <v>A definir</v>
-      </c>
-    </row>
-    <row r="201" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>36</v>
       </c>
@@ -30787,14 +28836,14 @@
       <c r="S201" s="8"/>
       <c r="T201" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="U201" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R201,$R$198:$R$203,1),"A definir")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>36</v>
       </c>
@@ -30838,14 +28887,14 @@
       <c r="S202" s="8"/>
       <c r="T202" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="U202" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R202,$R$198:$R$203,1),"A definir")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C203" s="12" t="s">
         <v>36</v>
       </c>
@@ -30891,11 +28940,11 @@
       <c r="S203" s="14"/>
       <c r="T203" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="U203" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R203,$R$198:$R$203,1),"A definir")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -31285,7 +29334,7 @@
         <v>A definir</v>
       </c>
     </row>
-    <row r="212" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>30</v>
       </c>
@@ -31336,7 +29385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>30</v>
       </c>
@@ -31387,7 +29436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>30</v>
       </c>
@@ -31438,7 +29487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>30</v>
       </c>
@@ -31489,7 +29538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>30</v>
       </c>
@@ -31540,7 +29589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>30</v>
       </c>
@@ -31591,7 +29640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C218" s="12" t="s">
         <v>30</v>
       </c>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F213092-A0A3-4D8A-9BD7-8DAA9BFDE814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615184D0-9158-4C9C-A69F-DFB902711BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="270" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -468,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,39 +523,15 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1449">
+  <dxfs count="297">
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="164" formatCode="0&quot;º&quot;"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -573,13 +549,24 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -588,11 +575,20 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <b/>
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -619,20 +615,11 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -641,27 +628,22 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -703,38 +685,32 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -761,74 +737,17 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -846,800 +765,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1681,38 +807,32 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -1739,74 +859,17 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1824,800 +887,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -2659,38 +929,32 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -2717,74 +981,17 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -2802,800 +1009,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -3637,38 +1051,32 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -3695,74 +1103,17 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -3780,800 +1131,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -4615,38 +1173,30 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -4673,32 +1223,38 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -4737,38 +1293,32 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -4795,32 +1345,38 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -4859,38 +1415,16 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -4917,32 +1451,38 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -4970,461 +1510,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0&quot;º&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -12268,7 +8353,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -12732,61 +8817,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="1408">
+    <format dxfId="288">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1409">
+    <format dxfId="287">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1410">
+    <format dxfId="286">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1411">
+    <format dxfId="285">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1412">
+    <format dxfId="284">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1413">
+    <format dxfId="283">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1414">
+    <format dxfId="282">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1415">
+    <format dxfId="281">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1416">
+    <format dxfId="280">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1417">
+    <format dxfId="279">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1418">
+    <format dxfId="278">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1419">
+    <format dxfId="277">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1420">
+    <format dxfId="276">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1421">
+    <format dxfId="275">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1422">
+    <format dxfId="274">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1423">
+    <format dxfId="273">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1424">
+    <format dxfId="272">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1425">
+    <format dxfId="271">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1426">
+    <format dxfId="270">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12795,7 +8880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1427">
+    <format dxfId="269">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12804,7 +8889,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1428">
+    <format dxfId="268">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12813,7 +8898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1429">
+    <format dxfId="267">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12822,7 +8907,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1430">
+    <format dxfId="266">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12831,7 +8916,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1431">
+    <format dxfId="265">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12840,7 +8925,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1432">
+    <format dxfId="264">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12849,7 +8934,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1433">
+    <format dxfId="263">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12858,7 +8943,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1434">
+    <format dxfId="262">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12867,31 +8952,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1435">
+    <format dxfId="261">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1436">
+    <format dxfId="260">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1437">
+    <format dxfId="259">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1438">
+    <format dxfId="258">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1439">
+    <format dxfId="257">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12908,7 +8993,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -13354,61 +9439,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1372">
+    <format dxfId="256">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1373">
+    <format dxfId="255">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1374">
+    <format dxfId="254">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1375">
+    <format dxfId="253">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1376">
+    <format dxfId="252">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1377">
+    <format dxfId="251">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1378">
+    <format dxfId="250">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1379">
+    <format dxfId="249">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1380">
+    <format dxfId="248">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1381">
+    <format dxfId="247">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1382">
+    <format dxfId="246">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1383">
+    <format dxfId="245">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1384">
+    <format dxfId="244">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1385">
+    <format dxfId="243">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1386">
+    <format dxfId="242">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1387">
+    <format dxfId="241">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1388">
+    <format dxfId="240">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1389">
+    <format dxfId="239">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1390">
+    <format dxfId="238">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13417,7 +9502,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1391">
+    <format dxfId="237">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13426,7 +9511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1392">
+    <format dxfId="236">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13435,7 +9520,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1393">
+    <format dxfId="235">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13444,7 +9529,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1394">
+    <format dxfId="234">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13453,7 +9538,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1395">
+    <format dxfId="233">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13462,7 +9547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1396">
+    <format dxfId="232">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13471,7 +9556,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1397">
+    <format dxfId="231">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13480,7 +9565,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1398">
+    <format dxfId="230">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13489,51 +9574,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1399">
+    <format dxfId="229">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1400">
+    <format dxfId="228">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1401">
+    <format dxfId="227">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1402">
+    <format dxfId="226">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1403">
+    <format dxfId="225">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1404">
+    <format dxfId="224">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1405">
+    <format dxfId="223">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1406">
+    <format dxfId="222">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1407">
+    <format dxfId="221">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13550,7 +9635,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14005,61 +10090,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1336">
+    <format dxfId="220">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1337">
+    <format dxfId="219">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1338">
+    <format dxfId="218">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1339">
+    <format dxfId="217">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1340">
+    <format dxfId="216">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1341">
+    <format dxfId="215">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1342">
+    <format dxfId="214">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1343">
+    <format dxfId="213">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1344">
+    <format dxfId="212">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1345">
+    <format dxfId="211">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1346">
+    <format dxfId="210">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1347">
+    <format dxfId="209">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1348">
+    <format dxfId="208">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1349">
+    <format dxfId="207">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1350">
+    <format dxfId="206">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1351">
+    <format dxfId="205">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1352">
+    <format dxfId="204">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1353">
+    <format dxfId="203">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1354">
+    <format dxfId="202">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14068,7 +10153,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1355">
+    <format dxfId="201">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14077,7 +10162,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1356">
+    <format dxfId="200">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14086,7 +10171,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1357">
+    <format dxfId="199">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14095,7 +10180,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1358">
+    <format dxfId="198">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14104,7 +10189,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1359">
+    <format dxfId="197">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14113,7 +10198,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1360">
+    <format dxfId="196">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14122,7 +10207,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1361">
+    <format dxfId="195">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14131,7 +10216,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1362">
+    <format dxfId="194">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14140,47 +10225,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1363">
+    <format dxfId="193">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1364">
+    <format dxfId="192">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1365">
+    <format dxfId="191">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1366">
+    <format dxfId="190">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1367">
+    <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1368">
+    <format dxfId="188">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1369">
+    <format dxfId="187">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1370">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1371">
+    <format dxfId="185">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14197,7 +10282,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14646,61 +10731,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1300">
+    <format dxfId="184">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1301">
+    <format dxfId="183">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1302">
+    <format dxfId="182">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1303">
+    <format dxfId="181">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1304">
+    <format dxfId="180">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1305">
+    <format dxfId="179">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1306">
+    <format dxfId="178">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1307">
+    <format dxfId="177">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1308">
+    <format dxfId="176">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1309">
+    <format dxfId="175">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1310">
+    <format dxfId="174">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1311">
+    <format dxfId="173">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1312">
+    <format dxfId="172">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1313">
+    <format dxfId="171">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1314">
+    <format dxfId="170">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1315">
+    <format dxfId="169">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1316">
+    <format dxfId="168">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1317">
+    <format dxfId="167">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1318">
+    <format dxfId="166">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14709,7 +10794,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1319">
+    <format dxfId="165">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14718,7 +10803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1320">
+    <format dxfId="164">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14727,7 +10812,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1321">
+    <format dxfId="163">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14736,7 +10821,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1322">
+    <format dxfId="162">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14745,7 +10830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1323">
+    <format dxfId="161">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14754,7 +10839,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1324">
+    <format dxfId="160">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14763,7 +10848,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1325">
+    <format dxfId="159">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14772,7 +10857,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1326">
+    <format dxfId="158">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14781,51 +10866,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1327">
+    <format dxfId="157">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1328">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1329">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1330">
+    <format dxfId="154">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1331">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1332">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1333">
+    <format dxfId="151">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1334">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1335">
+    <format dxfId="149">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14842,7 +10927,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15281,61 +11366,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1264">
+    <format dxfId="148">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1265">
+    <format dxfId="147">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1266">
+    <format dxfId="146">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1267">
+    <format dxfId="145">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1268">
+    <format dxfId="144">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1269">
+    <format dxfId="143">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1270">
+    <format dxfId="142">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1271">
+    <format dxfId="141">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1272">
+    <format dxfId="140">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1273">
+    <format dxfId="139">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1274">
+    <format dxfId="138">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1275">
+    <format dxfId="137">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1276">
+    <format dxfId="136">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1277">
+    <format dxfId="135">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1278">
+    <format dxfId="134">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1279">
+    <format dxfId="133">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1280">
+    <format dxfId="132">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1281">
+    <format dxfId="131">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1282">
+    <format dxfId="130">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15344,7 +11429,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1283">
+    <format dxfId="129">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15353,7 +11438,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1284">
+    <format dxfId="128">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15362,7 +11447,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1285">
+    <format dxfId="127">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15371,7 +11456,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1286">
+    <format dxfId="126">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15380,7 +11465,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1287">
+    <format dxfId="125">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15389,7 +11474,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1288">
+    <format dxfId="124">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15398,7 +11483,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1289">
+    <format dxfId="123">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15407,7 +11492,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1290">
+    <format dxfId="122">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15416,51 +11501,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1291">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1292">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1293">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1294">
+    <format dxfId="118">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1295">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1296">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1297">
+    <format dxfId="115">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1298">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1299">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15477,7 +11562,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15926,61 +12011,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1228">
+    <format dxfId="112">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1229">
+    <format dxfId="111">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1230">
+    <format dxfId="110">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1231">
+    <format dxfId="109">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1232">
+    <format dxfId="108">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1233">
+    <format dxfId="107">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1234">
+    <format dxfId="106">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1235">
+    <format dxfId="105">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1236">
+    <format dxfId="104">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1237">
+    <format dxfId="103">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1238">
+    <format dxfId="102">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1239">
+    <format dxfId="101">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1240">
+    <format dxfId="100">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1241">
+    <format dxfId="99">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1242">
+    <format dxfId="98">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1243">
+    <format dxfId="97">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1244">
+    <format dxfId="96">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1245">
+    <format dxfId="95">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1246">
+    <format dxfId="94">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15989,7 +12074,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1247">
+    <format dxfId="93">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15998,7 +12083,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1248">
+    <format dxfId="92">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16007,7 +12092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1249">
+    <format dxfId="91">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16016,7 +12101,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1250">
+    <format dxfId="90">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16025,7 +12110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1251">
+    <format dxfId="89">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16034,7 +12119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1252">
+    <format dxfId="88">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16043,7 +12128,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1253">
+    <format dxfId="87">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16052,7 +12137,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1254">
+    <format dxfId="86">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16061,51 +12146,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1255">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1256">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1257">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1258">
+    <format dxfId="82">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1259">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1260">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1261">
+    <format dxfId="79">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1262">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1263">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16122,7 +12207,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16574,61 +12659,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1192">
+    <format dxfId="76">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1193">
+    <format dxfId="75">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1194">
+    <format dxfId="74">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1195">
+    <format dxfId="73">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1196">
+    <format dxfId="72">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1197">
+    <format dxfId="71">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1198">
+    <format dxfId="70">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1199">
+    <format dxfId="69">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1200">
+    <format dxfId="68">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1201">
+    <format dxfId="67">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1202">
+    <format dxfId="66">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1203">
+    <format dxfId="65">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1204">
+    <format dxfId="64">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1205">
+    <format dxfId="63">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1206">
+    <format dxfId="62">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1207">
+    <format dxfId="61">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1208">
+    <format dxfId="60">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1209">
+    <format dxfId="59">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1210">
+    <format dxfId="58">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16637,7 +12722,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1211">
+    <format dxfId="57">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16646,7 +12731,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1212">
+    <format dxfId="56">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16655,7 +12740,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1213">
+    <format dxfId="55">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16664,7 +12749,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1214">
+    <format dxfId="54">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16673,7 +12758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1215">
+    <format dxfId="53">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16682,7 +12767,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1216">
+    <format dxfId="52">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16691,7 +12776,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1217">
+    <format dxfId="51">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16700,7 +12785,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1218">
+    <format dxfId="50">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16709,51 +12794,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1219">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1220">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1221">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1222">
+    <format dxfId="46">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1223">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1224">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1225">
+    <format dxfId="43">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1226">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1227">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16770,7 +12855,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -17225,61 +13310,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="1152">
+    <format dxfId="40">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1153">
+    <format dxfId="39">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1154">
+    <format dxfId="38">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1155">
+    <format dxfId="37">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1156">
+    <format dxfId="36">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1157">
+    <format dxfId="35">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1158">
+    <format dxfId="34">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1159">
+    <format dxfId="33">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1160">
+    <format dxfId="32">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1161">
+    <format dxfId="31">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1162">
+    <format dxfId="30">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1163">
+    <format dxfId="29">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1164">
+    <format dxfId="28">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1165">
+    <format dxfId="27">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1166">
+    <format dxfId="26">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1167">
+    <format dxfId="25">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1168">
+    <format dxfId="24">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1169">
+    <format dxfId="23">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1170">
+    <format dxfId="22">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17288,7 +13373,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1171">
+    <format dxfId="21">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17297,7 +13382,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1172">
+    <format dxfId="20">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17306,7 +13391,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1173">
+    <format dxfId="19">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17315,7 +13400,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1174">
+    <format dxfId="18">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17324,7 +13409,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1175">
+    <format dxfId="17">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17333,7 +13418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1176">
+    <format dxfId="16">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17342,7 +13427,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1177">
+    <format dxfId="15">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17351,7 +13436,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1178">
+    <format dxfId="14">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17360,71 +13445,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1179">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1180">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1181">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1182">
+    <format dxfId="10">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="1183">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1184">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1185">
+    <format dxfId="7">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1186">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1187">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1188">
+    <format dxfId="4">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1189">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1190">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1191">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -17483,7 +13568,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1448">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="296">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
@@ -17508,23 +13593,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1447"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="295"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1446"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1445">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="294"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="293">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1444">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="292">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1443"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1442">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="291"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="290">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1441">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="289">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17536,7 +13621,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="1440"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17846,7 +13931,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="M135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P147" sqref="P147"/>
+      <selection pane="bottomRight" activeCell="O200" sqref="O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -20810,7 +16895,7 @@
       <c r="O54">
         <v>40</v>
       </c>
-      <c r="P54" s="30">
+      <c r="P54" s="29">
         <f>107-2</f>
         <v>105</v>
       </c>
@@ -22693,7 +18778,7 @@
       <c r="N87">
         <v>840</v>
       </c>
-      <c r="O87" s="29">
+      <c r="O87" s="28">
         <f>513+40</f>
         <v>553</v>
       </c>
@@ -24368,7 +20453,7 @@
       <c r="O116">
         <v>36</v>
       </c>
-      <c r="P116" s="30">
+      <c r="P116" s="29">
         <f>150-59</f>
         <v>91</v>
       </c>
@@ -32901,7 +28986,7 @@
       <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615184D0-9158-4C9C-A69F-DFB902711BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E0BE1A-E1CE-404B-A43D-9556FD15760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="27" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -468,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,11 +525,2948 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="297">
+  <dxfs count="1161">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0&quot;º&quot;"/>
     </dxf>
@@ -1720,7 +4657,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.560488541669" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.569159837964" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -5402,8 +8339,8 @@
     <n v="0"/>
     <n v="64"/>
     <m/>
-    <n v="94"/>
-    <n v="3"/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <m/>
@@ -5444,12 +8381,12 @@
     <n v="32"/>
     <n v="180"/>
     <n v="32"/>
-    <m/>
+    <n v="100"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="100"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <m/>
@@ -5471,8 +8408,8 @@
     <n v="0"/>
     <n v="68"/>
     <m/>
-    <n v="91"/>
-    <n v="4"/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <m/>
@@ -5494,8 +8431,8 @@
     <n v="0"/>
     <n v="62"/>
     <m/>
-    <n v="97"/>
-    <n v="2"/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -5517,8 +8454,8 @@
     <n v="0"/>
     <n v="84"/>
     <m/>
-    <n v="88"/>
-    <n v="5"/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <m/>
@@ -6644,6 +9581,29 @@
     <n v="69"/>
     <n v="69"/>
     <m/>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="34"/>
+    <m/>
+    <s v="-"/>
+    <n v="100"/>
+    <n v="600"/>
+    <n v="26"/>
+    <m/>
+    <n v="74"/>
+    <n v="74"/>
+    <m/>
     <n v="88"/>
     <n v="5"/>
   </r>
@@ -6657,15 +9617,15 @@
     <x v="3"/>
     <m/>
     <x v="0"/>
-    <x v="34"/>
+    <x v="35"/>
     <m/>
     <s v="-"/>
     <n v="100"/>
     <n v="600"/>
-    <n v="26"/>
-    <m/>
-    <n v="74"/>
-    <n v="74"/>
+    <n v="25"/>
+    <m/>
+    <n v="75"/>
+    <n v="75"/>
     <m/>
     <n v="85"/>
     <n v="6"/>
@@ -6680,29 +9640,6 @@
     <x v="3"/>
     <m/>
     <x v="0"/>
-    <x v="35"/>
-    <m/>
-    <s v="-"/>
-    <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
     <x v="36"/>
     <m/>
     <s v="-"/>
@@ -6713,8 +9650,8 @@
     <n v="62"/>
     <n v="62"/>
     <m/>
-    <n v="94"/>
-    <n v="3"/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <m/>
@@ -6736,8 +9673,8 @@
     <n v="43"/>
     <n v="43"/>
     <m/>
-    <n v="97"/>
-    <n v="2"/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -6759,8 +9696,8 @@
     <n v="68"/>
     <n v="68"/>
     <m/>
-    <n v="91"/>
-    <n v="4"/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <m/>
@@ -8353,7 +11290,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -8817,61 +11754,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="288">
+    <format dxfId="1152">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="287">
+    <format dxfId="1151">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="286">
+    <format dxfId="1150">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="285">
+    <format dxfId="1149">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="284">
+    <format dxfId="1148">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="283">
+    <format dxfId="1147">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="282">
+    <format dxfId="1146">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="281">
+    <format dxfId="1145">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="280">
+    <format dxfId="1144">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="279">
+    <format dxfId="1143">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="278">
+    <format dxfId="1142">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="277">
+    <format dxfId="1141">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="276">
+    <format dxfId="1140">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="275">
+    <format dxfId="1139">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="274">
+    <format dxfId="1138">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="273">
+    <format dxfId="1137">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="272">
+    <format dxfId="1136">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="271">
+    <format dxfId="1135">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="270">
+    <format dxfId="1134">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8880,7 +11817,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="269">
+    <format dxfId="1133">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8889,7 +11826,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="268">
+    <format dxfId="1132">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8898,7 +11835,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="267">
+    <format dxfId="1131">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8907,7 +11844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="266">
+    <format dxfId="1130">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8916,7 +11853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="265">
+    <format dxfId="1129">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8925,7 +11862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="264">
+    <format dxfId="1128">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8934,7 +11871,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="263">
+    <format dxfId="1127">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8943,7 +11880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="262">
+    <format dxfId="1126">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8952,31 +11889,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="261">
+    <format dxfId="1125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="260">
+    <format dxfId="1124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="259">
+    <format dxfId="1123">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="258">
+    <format dxfId="1122">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="257">
+    <format dxfId="1121">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -8993,7 +11930,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -9439,61 +12376,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="256">
+    <format dxfId="1120">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="255">
+    <format dxfId="1119">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="254">
+    <format dxfId="1118">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="253">
+    <format dxfId="1117">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="252">
+    <format dxfId="1116">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="251">
+    <format dxfId="1115">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="250">
+    <format dxfId="1114">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="249">
+    <format dxfId="1113">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="248">
+    <format dxfId="1112">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="247">
+    <format dxfId="1111">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="246">
+    <format dxfId="1110">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="245">
+    <format dxfId="1109">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="244">
+    <format dxfId="1108">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="243">
+    <format dxfId="1107">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="242">
+    <format dxfId="1106">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="241">
+    <format dxfId="1105">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="240">
+    <format dxfId="1104">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="239">
+    <format dxfId="1103">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="238">
+    <format dxfId="1102">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9502,7 +12439,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="237">
+    <format dxfId="1101">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -9511,7 +12448,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="236">
+    <format dxfId="1100">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -9520,7 +12457,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="235">
+    <format dxfId="1099">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -9529,7 +12466,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="234">
+    <format dxfId="1098">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -9538,7 +12475,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="233">
+    <format dxfId="1097">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -9547,7 +12484,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="232">
+    <format dxfId="1096">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -9556,7 +12493,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="231">
+    <format dxfId="1095">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -9565,7 +12502,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="230">
+    <format dxfId="1094">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -9574,51 +12511,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="229">
+    <format dxfId="1093">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="1092">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="227">
+    <format dxfId="1091">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="226">
+    <format dxfId="1090">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="225">
+    <format dxfId="1089">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="224">
+    <format dxfId="1088">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="223">
+    <format dxfId="1087">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="222">
+    <format dxfId="1086">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="1085">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9635,7 +12572,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -10090,61 +13027,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="220">
+    <format dxfId="1084">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="219">
+    <format dxfId="1083">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="218">
+    <format dxfId="1082">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="217">
+    <format dxfId="1081">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="216">
+    <format dxfId="1080">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="215">
+    <format dxfId="1079">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="214">
+    <format dxfId="1078">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="213">
+    <format dxfId="1077">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="212">
+    <format dxfId="1076">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="1075">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="210">
+    <format dxfId="1074">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="209">
+    <format dxfId="1073">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="208">
+    <format dxfId="1072">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="207">
+    <format dxfId="1071">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="206">
+    <format dxfId="1070">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="1069">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="204">
+    <format dxfId="1068">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="1067">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="1066">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10153,7 +13090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="201">
+    <format dxfId="1065">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10162,7 +13099,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="200">
+    <format dxfId="1064">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10171,7 +13108,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="199">
+    <format dxfId="1063">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10180,7 +13117,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="198">
+    <format dxfId="1062">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10189,7 +13126,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="197">
+    <format dxfId="1061">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10198,7 +13135,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="196">
+    <format dxfId="1060">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10207,7 +13144,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="195">
+    <format dxfId="1059">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10216,7 +13153,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="1058">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10225,47 +13162,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="193">
+    <format dxfId="1057">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="192">
+    <format dxfId="1056">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="191">
+    <format dxfId="1055">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="1054">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="1053">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="188">
+    <format dxfId="1052">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="1051">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="1050">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="185">
+    <format dxfId="1049">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10282,7 +13219,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -10731,61 +13668,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="184">
+    <format dxfId="1048">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="1047">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="1046">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="1045">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="1044">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="1043">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="1042">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="1041">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="1040">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="1039">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="1038">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="1037">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="1036">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="1035">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="1034">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="1033">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="1032">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="1031">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="1030">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10794,7 +13731,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="165">
+    <format dxfId="1029">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10803,7 +13740,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="1028">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10812,7 +13749,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="163">
+    <format dxfId="1027">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10821,7 +13758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="162">
+    <format dxfId="1026">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10830,7 +13767,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="161">
+    <format dxfId="1025">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10839,7 +13776,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="1024">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10848,7 +13785,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="159">
+    <format dxfId="1023">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10857,7 +13794,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="1022">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10866,51 +13803,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="1021">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="1020">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="1019">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="1018">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="1017">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="152">
+    <format dxfId="1016">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="1015">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="150">
+    <format dxfId="1014">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="149">
+    <format dxfId="1013">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10927,7 +13864,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -11366,61 +14303,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="148">
+    <format dxfId="1012">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="147">
+    <format dxfId="1011">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="1010">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="1009">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="1008">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="1007">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="1006">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="1005">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="1004">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="1003">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="1002">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="1001">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="1000">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="999">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="998">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="997">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="996">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="995">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="994">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -11429,7 +14366,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="129">
+    <format dxfId="993">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11438,7 +14375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="128">
+    <format dxfId="992">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11447,7 +14384,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="991">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11456,7 +14393,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
+    <format dxfId="990">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11465,7 +14402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="125">
+    <format dxfId="989">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11474,7 +14411,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="988">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11483,7 +14420,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="987">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11492,7 +14429,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="986">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11501,51 +14438,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="985">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="984">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="983">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="982">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="981">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="980">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="979">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="978">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="977">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -11562,7 +14499,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -11972,10 +14909,10 @@
       <x v="139"/>
     </i>
     <i>
-      <x v="188"/>
+      <x v="125"/>
     </i>
     <i>
-      <x v="125"/>
+      <x v="188"/>
     </i>
     <i t="grand">
       <x/>
@@ -12011,61 +14948,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="112">
+    <format dxfId="976">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="975">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="974">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="973">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="972">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="971">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="970">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="969">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="968">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="967">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="966">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="965">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="964">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="963">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="962">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="961">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="960">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="959">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="958">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12074,7 +15011,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="957">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12083,7 +15020,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="956">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12092,7 +15029,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="955">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12101,7 +15038,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="954">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12110,7 +15047,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="953">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12119,7 +15056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="952">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12128,7 +15065,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="951">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12137,7 +15074,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="950">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12146,51 +15083,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="949">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="948">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="947">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="946">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="945">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="944">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="943">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="942">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="941">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12207,7 +15144,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -12659,61 +15596,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="76">
+    <format dxfId="940">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="939">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="938">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="937">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="936">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="935">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="934">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="933">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="932">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="931">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="930">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="929">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="928">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="927">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="926">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="925">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="924">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="923">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="922">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12722,7 +15659,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="921">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12731,7 +15668,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="920">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12740,7 +15677,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="919">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12749,7 +15686,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="918">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12758,7 +15695,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="917">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12767,7 +15704,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="916">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12776,7 +15713,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="915">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12785,7 +15722,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="914">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12794,51 +15731,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="913">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="912">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="911">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="910">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="909">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="908">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="907">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="906">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="905">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12855,7 +15792,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -13310,61 +16247,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="40">
+    <format dxfId="904">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="903">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="902">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="901">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="900">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="899">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="898">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="897">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="896">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="895">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="894">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="893">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="892">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="891">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="890">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="889">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="888">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="887">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="886">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13373,7 +16310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="885">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13382,7 +16319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="884">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13391,7 +16328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="883">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13400,7 +16337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="882">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13409,7 +16346,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="881">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13418,7 +16355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="880">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13427,7 +16364,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="879">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13436,7 +16373,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="878">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13445,71 +16382,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="877">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="876">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="875">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="874">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="873">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="872">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="871">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="870">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="869">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="868">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="867">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="866">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="865">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -13568,7 +16505,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="296">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1160">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
@@ -13593,23 +16530,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="295"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1159"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="294"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="293">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1158"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1157">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="292">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1156">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="291"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="290">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1155"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1154">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="289">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1153">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13621,7 +16558,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="864"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13931,7 +16868,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="M135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O200" sqref="O200"/>
+      <selection pane="bottomRight" activeCell="O278" sqref="O278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -28986,7 +31923,7 @@
       <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="30" t="s">
         <v>34</v>
       </c>
     </row>
@@ -29602,7 +32539,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -29674,16 +32611,16 @@
         <v>100</v>
       </c>
       <c r="D5" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E5" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -29697,16 +32634,16 @@
         <v>85</v>
       </c>
       <c r="D6" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -29720,16 +32657,16 @@
         <v>91</v>
       </c>
       <c r="D7" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -29743,30 +32680,30 @@
         <v>97</v>
       </c>
       <c r="D8" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B9" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C9" s="8">
+        <v>94</v>
+      </c>
+      <c r="D9" s="8">
         <v>88</v>
-      </c>
-      <c r="D9" s="8">
-        <v>85</v>
       </c>
       <c r="E9" s="8">
         <v>85</v>
@@ -29775,30 +32712,30 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D10" s="8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>194</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -29812,16 +32749,16 @@
         <v>555</v>
       </c>
       <c r="D11" s="26">
-        <v>455</v>
+        <v>555</v>
       </c>
       <c r="E11" s="26">
-        <v>455</v>
+        <v>555</v>
       </c>
       <c r="F11" s="26">
         <v>0</v>
       </c>
       <c r="G11" s="10">
-        <v>2020</v>
+        <v>2220</v>
       </c>
     </row>
   </sheetData>
@@ -29834,7 +32771,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -30089,7 +33026,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E0BE1A-E1CE-404B-A43D-9556FD15760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777A23ED-69D6-401F-B79E-C4567411796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId11"/>
+    <pivotCache cacheId="63" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -532,7 +532,3919 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1161">
+  <dxfs count="2313">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -4657,7 +8569,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.569159837964" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.588347337965" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -8128,12 +12040,12 @@
     <n v="32"/>
     <n v="180"/>
     <n v="32"/>
-    <n v="117"/>
+    <n v="72"/>
     <n v="0"/>
-    <n v="117"/>
-    <m/>
-    <n v="91"/>
-    <n v="4"/>
+    <n v="72"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="176"/>
@@ -8178,8 +12090,8 @@
     <n v="0"/>
     <n v="90"/>
     <m/>
-    <n v="94"/>
-    <n v="3"/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="178"/>
@@ -8201,8 +12113,8 @@
     <n v="0"/>
     <n v="117"/>
     <m/>
-    <n v="91"/>
-    <n v="4"/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <n v="183"/>
@@ -8224,8 +12136,8 @@
     <n v="0"/>
     <n v="87"/>
     <m/>
-    <n v="97"/>
-    <n v="2"/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="184"/>
@@ -8381,9 +12293,9 @@
     <n v="32"/>
     <n v="180"/>
     <n v="32"/>
-    <n v="100"/>
+    <n v="104"/>
     <n v="0"/>
-    <n v="100"/>
+    <n v="104"/>
     <m/>
     <n v="88"/>
     <n v="5"/>
@@ -8472,13 +12384,13 @@
     <s v="-"/>
     <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="28"/>
+    <n v="114"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="114"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -8495,13 +12407,13 @@
     <s v="-"/>
     <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="28"/>
+    <n v="131"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="131"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <m/>
@@ -8518,13 +12430,13 @@
     <s v="-"/>
     <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="28"/>
+    <n v="133"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="133"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
   </r>
   <r>
     <m/>
@@ -8541,13 +12453,13 @@
     <s v="-"/>
     <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="28"/>
+    <n v="128"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="128"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <m/>
@@ -8564,13 +12476,13 @@
     <s v="-"/>
     <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="28"/>
+    <n v="134"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="134"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
   </r>
   <r>
     <m/>
@@ -8587,13 +12499,13 @@
     <s v="-"/>
     <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="28"/>
+    <n v="235"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="235"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
   </r>
   <r>
     <m/>
@@ -8610,13 +12522,13 @@
     <s v="-"/>
     <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="28"/>
+    <n v="136"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="136"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
   </r>
   <r>
     <m/>
@@ -8633,13 +12545,13 @@
     <s v="-"/>
     <n v="28"/>
     <n v="180"/>
-    <m/>
-    <m/>
+    <n v="28"/>
+    <n v="163"/>
     <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="163"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
   </r>
   <r>
     <m/>
@@ -8749,12 +12661,12 @@
     <n v="28"/>
     <n v="180"/>
     <n v="28"/>
-    <n v="138"/>
+    <n v="133"/>
     <n v="0"/>
-    <n v="138"/>
-    <m/>
-    <n v="97"/>
-    <n v="2"/>
+    <n v="133"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -8776,8 +12688,8 @@
     <n v="0"/>
     <n v="137"/>
     <m/>
-    <n v="100"/>
-    <n v="1"/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <m/>
@@ -9712,15 +13624,15 @@
     <x v="39"/>
     <m/>
     <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="121"/>
+    <m/>
+    <n v="9"/>
+    <n v="9"/>
+    <m/>
     <n v="100"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="1"/>
   </r>
   <r>
     <m/>
@@ -9735,15 +13647,15 @@
     <x v="40"/>
     <m/>
     <s v="-"/>
-    <n v="100"/>
+    <n v="130"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="83"/>
+    <m/>
+    <n v="47"/>
+    <n v="47"/>
+    <m/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <m/>
@@ -9758,15 +13670,15 @@
     <x v="41"/>
     <m/>
     <s v="-"/>
-    <n v="100"/>
+    <n v="130"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
+    <n v="82"/>
+    <m/>
+    <n v="48"/>
+    <n v="48"/>
+    <m/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <m/>
@@ -9781,127 +13693,12 @@
     <x v="42"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="43"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="44"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="45"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="46"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-    <s v="A definir"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="0"/>
-    <s v="P1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="47"/>
-    <m/>
-    <s v="-"/>
-    <n v="180"/>
-    <n v="600"/>
-    <n v="11"/>
-    <m/>
-    <n v="169"/>
-    <n v="169"/>
+    <n v="63"/>
+    <m/>
+    <n v="67"/>
+    <n v="67"/>
     <m/>
     <n v="88"/>
     <n v="5"/>
@@ -9909,22 +13706,68 @@
   <r>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="6"/>
     <x v="0"/>
     <s v="P1"/>
     <x v="0"/>
     <x v="3"/>
     <m/>
     <x v="0"/>
-    <x v="48"/>
+    <x v="43"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
-    <n v="5"/>
-    <m/>
-    <n v="175"/>
-    <n v="175"/>
+    <n v="79"/>
+    <m/>
+    <n v="51"/>
+    <n v="51"/>
+    <m/>
+    <n v="91"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="44"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="23"/>
+    <m/>
+    <n v="107"/>
+    <n v="107"/>
+    <m/>
+    <n v="79"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="45"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="35"/>
+    <m/>
+    <n v="95"/>
+    <n v="95"/>
     <m/>
     <n v="85"/>
     <n v="6"/>
@@ -9932,6 +13775,29 @@
   <r>
     <m/>
     <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="46"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="30"/>
+    <m/>
+    <n v="100"/>
+    <n v="100"/>
+    <m/>
+    <n v="82"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="7"/>
     <x v="0"/>
     <s v="P1"/>
@@ -9939,15 +13805,61 @@
     <x v="3"/>
     <m/>
     <x v="0"/>
+    <x v="47"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="11"/>
+    <m/>
+    <n v="119"/>
+    <n v="119"/>
+    <m/>
+    <n v="88"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="48"/>
+    <m/>
+    <s v="-"/>
+    <n v="130"/>
+    <n v="600"/>
+    <n v="5"/>
+    <m/>
+    <n v="125"/>
+    <n v="125"/>
+    <m/>
+    <n v="85"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
     <x v="49"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
     <n v="15"/>
     <m/>
-    <n v="165"/>
-    <n v="165"/>
+    <n v="115"/>
+    <n v="115"/>
     <m/>
     <n v="94"/>
     <n v="3"/>
@@ -9965,12 +13877,12 @@
     <x v="50"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
     <n v="17"/>
     <m/>
-    <n v="163"/>
-    <n v="163"/>
+    <n v="113"/>
+    <n v="113"/>
     <m/>
     <n v="97"/>
     <n v="2"/>
@@ -9988,12 +13900,12 @@
     <x v="51"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
     <n v="27"/>
     <m/>
-    <n v="153"/>
-    <n v="153"/>
+    <n v="103"/>
+    <n v="103"/>
     <m/>
     <n v="100"/>
     <n v="1"/>
@@ -10011,12 +13923,12 @@
     <x v="52"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
     <n v="3"/>
     <m/>
-    <n v="177"/>
-    <n v="177"/>
+    <n v="127"/>
+    <n v="127"/>
     <m/>
     <n v="82"/>
     <n v="7"/>
@@ -10034,12 +13946,12 @@
     <x v="53"/>
     <m/>
     <s v="-"/>
-    <n v="180"/>
+    <n v="130"/>
     <n v="600"/>
     <n v="12"/>
     <m/>
-    <n v="168"/>
-    <n v="168"/>
+    <n v="118"/>
+    <n v="118"/>
     <m/>
     <n v="91"/>
     <n v="4"/>
@@ -11290,7 +15202,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -11754,61 +15666,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="1152">
+    <format dxfId="2304">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1151">
+    <format dxfId="2303">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1150">
+    <format dxfId="2302">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1149">
+    <format dxfId="2301">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1148">
+    <format dxfId="2300">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1147">
+    <format dxfId="2299">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1146">
+    <format dxfId="2298">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1145">
+    <format dxfId="2297">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1144">
+    <format dxfId="2296">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1143">
+    <format dxfId="2295">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1142">
+    <format dxfId="2294">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1141">
+    <format dxfId="2293">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1140">
+    <format dxfId="2292">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1139">
+    <format dxfId="2291">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1138">
+    <format dxfId="2290">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1137">
+    <format dxfId="2289">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1136">
+    <format dxfId="2288">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1135">
+    <format dxfId="2287">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1134">
+    <format dxfId="2286">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -11817,7 +15729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1133">
+    <format dxfId="2285">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11826,7 +15738,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1132">
+    <format dxfId="2284">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11835,7 +15747,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1131">
+    <format dxfId="2283">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11844,7 +15756,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1130">
+    <format dxfId="2282">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11853,7 +15765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1129">
+    <format dxfId="2281">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11862,7 +15774,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1128">
+    <format dxfId="2280">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11871,7 +15783,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1127">
+    <format dxfId="2279">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11880,7 +15792,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1126">
+    <format dxfId="2278">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -11889,31 +15801,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1125">
+    <format dxfId="2277">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1124">
+    <format dxfId="2276">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1123">
+    <format dxfId="2275">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1122">
+    <format dxfId="2274">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1121">
+    <format dxfId="2273">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -11930,7 +15842,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -12376,61 +16288,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1120">
+    <format dxfId="2272">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1119">
+    <format dxfId="2271">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1118">
+    <format dxfId="2270">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1117">
+    <format dxfId="2269">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1116">
+    <format dxfId="2268">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1115">
+    <format dxfId="2267">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1114">
+    <format dxfId="2266">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1113">
+    <format dxfId="2265">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1112">
+    <format dxfId="2264">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1111">
+    <format dxfId="2263">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1110">
+    <format dxfId="2262">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1109">
+    <format dxfId="2261">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1108">
+    <format dxfId="2260">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1107">
+    <format dxfId="2259">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1106">
+    <format dxfId="2258">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1105">
+    <format dxfId="2257">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1104">
+    <format dxfId="2256">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1103">
+    <format dxfId="2255">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1102">
+    <format dxfId="2254">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12439,7 +16351,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1101">
+    <format dxfId="2253">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12448,7 +16360,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1100">
+    <format dxfId="2252">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12457,7 +16369,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1099">
+    <format dxfId="2251">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12466,7 +16378,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1098">
+    <format dxfId="2250">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12475,7 +16387,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1097">
+    <format dxfId="2249">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12484,7 +16396,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1096">
+    <format dxfId="2248">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12493,7 +16405,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1095">
+    <format dxfId="2247">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12502,7 +16414,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1094">
+    <format dxfId="2246">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -12511,51 +16423,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1093">
+    <format dxfId="2245">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1092">
+    <format dxfId="2244">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1091">
+    <format dxfId="2243">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1090">
+    <format dxfId="2242">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1089">
+    <format dxfId="2241">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1088">
+    <format dxfId="2240">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1087">
+    <format dxfId="2239">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1086">
+    <format dxfId="2238">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1085">
+    <format dxfId="2237">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12572,7 +16484,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -13027,61 +16939,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1084">
+    <format dxfId="2236">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1083">
+    <format dxfId="2235">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1082">
+    <format dxfId="2234">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1081">
+    <format dxfId="2233">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1080">
+    <format dxfId="2232">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1079">
+    <format dxfId="2231">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1078">
+    <format dxfId="2230">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1077">
+    <format dxfId="2229">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1076">
+    <format dxfId="2228">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1075">
+    <format dxfId="2227">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1074">
+    <format dxfId="2226">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1073">
+    <format dxfId="2225">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1072">
+    <format dxfId="2224">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1071">
+    <format dxfId="2223">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1070">
+    <format dxfId="2222">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1069">
+    <format dxfId="2221">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1068">
+    <format dxfId="2220">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1067">
+    <format dxfId="2219">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1066">
+    <format dxfId="2218">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13090,7 +17002,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1065">
+    <format dxfId="2217">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13099,7 +17011,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1064">
+    <format dxfId="2216">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13108,7 +17020,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1063">
+    <format dxfId="2215">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13117,7 +17029,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1062">
+    <format dxfId="2214">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13126,7 +17038,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1061">
+    <format dxfId="2213">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13135,7 +17047,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1060">
+    <format dxfId="2212">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13144,7 +17056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1059">
+    <format dxfId="2211">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13153,7 +17065,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1058">
+    <format dxfId="2210">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13162,47 +17074,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1057">
+    <format dxfId="2209">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1056">
+    <format dxfId="2208">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1055">
+    <format dxfId="2207">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1054">
+    <format dxfId="2206">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1053">
+    <format dxfId="2205">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1052">
+    <format dxfId="2204">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1051">
+    <format dxfId="2203">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1050">
+    <format dxfId="2202">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1049">
+    <format dxfId="2201">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13219,7 +17131,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -13617,10 +17529,10 @@
   </rowFields>
   <rowItems count="7">
     <i>
-      <x v="92"/>
+      <x v="44"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="92"/>
     </i>
     <i>
       <x v="18"/>
@@ -13629,10 +17541,10 @@
       <x v="147"/>
     </i>
     <i>
-      <x v="215"/>
+      <x v="252"/>
     </i>
     <i>
-      <x v="252"/>
+      <x v="215"/>
     </i>
     <i t="grand">
       <x/>
@@ -13668,61 +17580,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1048">
+    <format dxfId="2200">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1047">
+    <format dxfId="2199">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1046">
+    <format dxfId="2198">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1045">
+    <format dxfId="2197">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1044">
+    <format dxfId="2196">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1043">
+    <format dxfId="2195">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1042">
+    <format dxfId="2194">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1041">
+    <format dxfId="2193">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1040">
+    <format dxfId="2192">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1039">
+    <format dxfId="2191">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1038">
+    <format dxfId="2190">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1037">
+    <format dxfId="2189">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1036">
+    <format dxfId="2188">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1035">
+    <format dxfId="2187">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1034">
+    <format dxfId="2186">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1033">
+    <format dxfId="2185">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1032">
+    <format dxfId="2184">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1031">
+    <format dxfId="2183">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1030">
+    <format dxfId="2182">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13731,7 +17643,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1029">
+    <format dxfId="2181">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13740,7 +17652,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1028">
+    <format dxfId="2180">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13749,7 +17661,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1027">
+    <format dxfId="2179">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13758,7 +17670,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1026">
+    <format dxfId="2178">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13767,7 +17679,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1025">
+    <format dxfId="2177">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13776,7 +17688,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1024">
+    <format dxfId="2176">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13785,7 +17697,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1023">
+    <format dxfId="2175">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13794,7 +17706,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1022">
+    <format dxfId="2174">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -13803,51 +17715,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1021">
+    <format dxfId="2173">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1020">
+    <format dxfId="2172">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1019">
+    <format dxfId="2171">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1018">
+    <format dxfId="2170">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1017">
+    <format dxfId="2169">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1016">
+    <format dxfId="2168">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1015">
+    <format dxfId="2167">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1014">
+    <format dxfId="2166">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1013">
+    <format dxfId="2165">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13864,7 +17776,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14303,61 +18215,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="1012">
+    <format dxfId="2164">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1011">
+    <format dxfId="2163">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1010">
+    <format dxfId="2162">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1009">
+    <format dxfId="2161">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1008">
+    <format dxfId="2160">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1007">
+    <format dxfId="2159">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1006">
+    <format dxfId="2158">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1005">
+    <format dxfId="2157">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1004">
+    <format dxfId="2156">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1003">
+    <format dxfId="2155">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1002">
+    <format dxfId="2154">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1001">
+    <format dxfId="2153">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1000">
+    <format dxfId="2152">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="999">
+    <format dxfId="2151">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="998">
+    <format dxfId="2150">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="997">
+    <format dxfId="2149">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="996">
+    <format dxfId="2148">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="995">
+    <format dxfId="2147">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="994">
+    <format dxfId="2146">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14366,7 +18278,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="993">
+    <format dxfId="2145">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14375,7 +18287,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="992">
+    <format dxfId="2144">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14384,7 +18296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="991">
+    <format dxfId="2143">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14393,7 +18305,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="990">
+    <format dxfId="2142">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14402,7 +18314,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="989">
+    <format dxfId="2141">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14411,7 +18323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="988">
+    <format dxfId="2140">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14420,7 +18332,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="987">
+    <format dxfId="2139">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14429,7 +18341,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="986">
+    <format dxfId="2138">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -14438,51 +18350,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="985">
+    <format dxfId="2137">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="984">
+    <format dxfId="2136">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="983">
+    <format dxfId="2135">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="982">
+    <format dxfId="2134">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="981">
+    <format dxfId="2133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="980">
+    <format dxfId="2132">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="979">
+    <format dxfId="2131">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="978">
+    <format dxfId="2130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="977">
+    <format dxfId="2129">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14499,7 +18411,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14948,61 +18860,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="976">
+    <format dxfId="2128">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="975">
+    <format dxfId="2127">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="974">
+    <format dxfId="2126">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="973">
+    <format dxfId="2125">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="972">
+    <format dxfId="2124">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="971">
+    <format dxfId="2123">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="970">
+    <format dxfId="2122">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="969">
+    <format dxfId="2121">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="968">
+    <format dxfId="2120">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="967">
+    <format dxfId="2119">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="966">
+    <format dxfId="2118">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="965">
+    <format dxfId="2117">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="964">
+    <format dxfId="2116">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="963">
+    <format dxfId="2115">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="962">
+    <format dxfId="2114">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="961">
+    <format dxfId="2113">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="960">
+    <format dxfId="2112">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="959">
+    <format dxfId="2111">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="958">
+    <format dxfId="2110">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15011,7 +18923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="957">
+    <format dxfId="2109">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15020,7 +18932,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="956">
+    <format dxfId="2108">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15029,7 +18941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="955">
+    <format dxfId="2107">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15038,7 +18950,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="954">
+    <format dxfId="2106">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15047,7 +18959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="953">
+    <format dxfId="2105">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15056,7 +18968,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="952">
+    <format dxfId="2104">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15065,7 +18977,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="951">
+    <format dxfId="2103">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15074,7 +18986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="950">
+    <format dxfId="2102">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15083,51 +18995,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="949">
+    <format dxfId="2101">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="948">
+    <format dxfId="2100">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="947">
+    <format dxfId="2099">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="946">
+    <format dxfId="2098">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="945">
+    <format dxfId="2097">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="944">
+    <format dxfId="2096">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="943">
+    <format dxfId="2095">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="942">
+    <format dxfId="2094">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="941">
+    <format dxfId="2093">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15144,7 +19056,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15545,10 +19457,10 @@
       <x v="254"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="37"/>
+      <x v="71"/>
     </i>
     <i>
       <x v="230"/>
@@ -15596,61 +19508,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="940">
+    <format dxfId="2092">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="939">
+    <format dxfId="2091">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="938">
+    <format dxfId="2090">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="937">
+    <format dxfId="2089">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="936">
+    <format dxfId="2088">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="935">
+    <format dxfId="2087">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="934">
+    <format dxfId="2086">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="933">
+    <format dxfId="2085">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="932">
+    <format dxfId="2084">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="931">
+    <format dxfId="2083">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="930">
+    <format dxfId="2082">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="929">
+    <format dxfId="2081">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="928">
+    <format dxfId="2080">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="927">
+    <format dxfId="2079">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="926">
+    <format dxfId="2078">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="925">
+    <format dxfId="2077">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="924">
+    <format dxfId="2076">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="923">
+    <format dxfId="2075">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="922">
+    <format dxfId="2074">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15659,7 +19571,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="921">
+    <format dxfId="2073">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15668,7 +19580,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="920">
+    <format dxfId="2072">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15677,7 +19589,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="919">
+    <format dxfId="2071">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15686,7 +19598,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="918">
+    <format dxfId="2070">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15695,7 +19607,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="917">
+    <format dxfId="2069">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15704,7 +19616,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="916">
+    <format dxfId="2068">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15713,7 +19625,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="915">
+    <format dxfId="2067">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15722,7 +19634,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="914">
+    <format dxfId="2066">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15731,51 +19643,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="913">
+    <format dxfId="2065">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="912">
+    <format dxfId="2064">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="911">
+    <format dxfId="2063">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="910">
+    <format dxfId="2062">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="909">
+    <format dxfId="2061">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="908">
+    <format dxfId="2060">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="907">
+    <format dxfId="2059">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="906">
+    <format dxfId="2058">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="905">
+    <format dxfId="2057">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15792,7 +19704,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16193,25 +20105,25 @@
       <x v="233"/>
     </i>
     <i>
-      <x v="129"/>
+      <x v="165"/>
     </i>
     <i>
-      <x v="165"/>
+      <x v="258"/>
+    </i>
+    <i>
+      <x v="129"/>
     </i>
     <i>
       <x v="56"/>
     </i>
     <i>
-      <x v="258"/>
-    </i>
-    <i>
-      <x v="183"/>
+      <x v="152"/>
     </i>
     <i>
       <x v="97"/>
     </i>
     <i>
-      <x v="152"/>
+      <x v="183"/>
     </i>
     <i t="grand">
       <x/>
@@ -16247,61 +20159,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="904">
+    <format dxfId="2056">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="903">
+    <format dxfId="2055">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="902">
+    <format dxfId="2054">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="901">
+    <format dxfId="2053">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="900">
+    <format dxfId="2052">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="899">
+    <format dxfId="2051">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="898">
+    <format dxfId="2050">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="897">
+    <format dxfId="2049">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="896">
+    <format dxfId="2048">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="895">
+    <format dxfId="2047">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="894">
+    <format dxfId="2046">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="893">
+    <format dxfId="2045">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="892">
+    <format dxfId="2044">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="891">
+    <format dxfId="2043">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="890">
+    <format dxfId="2042">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="889">
+    <format dxfId="2041">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="888">
+    <format dxfId="2040">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="887">
+    <format dxfId="2039">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="886">
+    <format dxfId="2038">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16310,7 +20222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="885">
+    <format dxfId="2037">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16319,7 +20231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="884">
+    <format dxfId="2036">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16328,7 +20240,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="883">
+    <format dxfId="2035">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16337,7 +20249,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="882">
+    <format dxfId="2034">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16346,7 +20258,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="881">
+    <format dxfId="2033">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16355,7 +20267,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="880">
+    <format dxfId="2032">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16364,7 +20276,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="879">
+    <format dxfId="2031">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16373,7 +20285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="878">
+    <format dxfId="2030">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16382,71 +20294,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="877">
+    <format dxfId="2029">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="876">
+    <format dxfId="2028">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="875">
+    <format dxfId="2027">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="874">
+    <format dxfId="2026">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="873">
+    <format dxfId="2025">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="872">
+    <format dxfId="2024">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="871">
+    <format dxfId="2023">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="870">
+    <format dxfId="2022">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="869">
+    <format dxfId="2021">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="868">
+    <format dxfId="2020">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="867">
+    <format dxfId="2019">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="866">
+    <format dxfId="2018">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="865">
+    <format dxfId="2017">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -16505,17 +20417,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="1160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="2312">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Master Masc"/>
+        <filter val="Interm Masc"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Prova 2A"/>
-        <filter val="Prova 2B"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16530,23 +20441,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="1159"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="2311"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="1158"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="1157">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="2310"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="2309">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="1156">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="2308">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="1155"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="1154">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="2307"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="2306">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="1153">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="2305">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16558,7 +20469,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="864"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="2016"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16865,10 +20776,10 @@
   <dimension ref="A1:U272"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="M135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O278" sqref="O278"/>
+      <selection pane="bottomRight" activeCell="P277" sqref="P277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -16898,11 +20809,11 @@
     <row r="1" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11">
         <f>SUBTOTAL(3,C3:C2352)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J1" s="11">
         <f>SUBTOTAL(3,J3:J2352)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -24436,7 +28347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>175</v>
       </c>
@@ -24471,8 +28382,9 @@
       <c r="O135">
         <v>32</v>
       </c>
-      <c r="P135" s="8">
-        <v>117</v>
+      <c r="P135" s="29">
+        <f>117-17-28</f>
+        <v>72</v>
       </c>
       <c r="Q135" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
@@ -24480,19 +28392,19 @@
       </c>
       <c r="R135" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="S135" s="8"/>
       <c r="T135" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="U135" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R135,$R$135:$R$140,1),"A definir")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>176</v>
       </c>
@@ -24548,7 +28460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>177</v>
       </c>
@@ -24597,14 +28509,14 @@
       <c r="S137" s="8"/>
       <c r="T137" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U137" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R137,$R$135:$R$140,1),"A definir")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>178</v>
       </c>
@@ -24653,14 +28565,14 @@
       <c r="S138" s="8"/>
       <c r="T138" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U138" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R138,$R$135:$R$140,1),"A definir")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>183</v>
       </c>
@@ -24712,14 +28624,14 @@
       <c r="S139" s="8"/>
       <c r="T139" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U139" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R139,$R$135:$R$140,1),"A definir")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>184</v>
       </c>
@@ -24923,7 +28835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>36</v>
       </c>
@@ -24976,7 +28888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>36</v>
       </c>
@@ -25029,7 +28941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>36</v>
       </c>
@@ -25062,7 +28974,7 @@
         <v>32</v>
       </c>
       <c r="P146" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q146" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
@@ -25070,7 +28982,7 @@
       </c>
       <c r="R146" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S146" s="8"/>
       <c r="T146" s="1">
@@ -25082,7 +28994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>36</v>
       </c>
@@ -25135,7 +29047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>36</v>
       </c>
@@ -25188,7 +29100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C149" s="12" t="s">
         <v>36</v>
       </c>
@@ -25272,23 +29184,28 @@
       <c r="N150">
         <v>180</v>
       </c>
-      <c r="P150" s="8"/>
+      <c r="O150">
+        <v>28</v>
+      </c>
+      <c r="P150" s="8">
+        <v>114</v>
+      </c>
       <c r="Q150" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R150" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="S150" s="8"/>
       <c r="T150" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U150" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U150" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R150,$R$150:$R$157,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -25320,23 +29237,28 @@
       <c r="N151">
         <v>180</v>
       </c>
-      <c r="P151" s="8"/>
+      <c r="O151">
+        <v>28</v>
+      </c>
+      <c r="P151" s="8">
+        <v>131</v>
+      </c>
       <c r="Q151" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R151" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="S151" s="8"/>
       <c r="T151" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U151" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U151" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R151,$R$150:$R$157,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -25368,23 +29290,28 @@
       <c r="N152">
         <v>180</v>
       </c>
-      <c r="P152" s="8"/>
+      <c r="O152">
+        <v>28</v>
+      </c>
+      <c r="P152" s="8">
+        <v>133</v>
+      </c>
       <c r="Q152" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R152" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U152" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U152" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R152,$R$150:$R$157,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -25416,23 +29343,28 @@
       <c r="N153">
         <v>180</v>
       </c>
-      <c r="P153" s="8"/>
+      <c r="O153">
+        <v>28</v>
+      </c>
+      <c r="P153" s="8">
+        <v>128</v>
+      </c>
       <c r="Q153" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R153" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="S153" s="8"/>
       <c r="T153" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U153" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U153" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R153,$R$150:$R$157,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -25464,23 +29396,28 @@
       <c r="N154">
         <v>180</v>
       </c>
-      <c r="P154" s="8"/>
+      <c r="O154">
+        <v>28</v>
+      </c>
+      <c r="P154" s="8">
+        <v>134</v>
+      </c>
       <c r="Q154" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R154" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="S154" s="8"/>
       <c r="T154" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U154" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U154" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R154,$R$150:$R$157,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -25512,23 +29449,28 @@
       <c r="N155">
         <v>180</v>
       </c>
-      <c r="P155" s="8"/>
+      <c r="O155">
+        <v>28</v>
+      </c>
+      <c r="P155" s="8">
+        <v>235</v>
+      </c>
       <c r="Q155" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R155" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="S155" s="8"/>
       <c r="T155" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U155" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="U155" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R155,$R$150:$R$157,1),"A definir")</f>
-        <v>A definir</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -25560,23 +29502,28 @@
       <c r="N156">
         <v>180</v>
       </c>
-      <c r="P156" s="8"/>
+      <c r="O156">
+        <v>28</v>
+      </c>
+      <c r="P156" s="8">
+        <v>136</v>
+      </c>
       <c r="Q156" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R156" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="S156" s="8"/>
       <c r="T156" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U156" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U156" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R156,$R$150:$R$157,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -25610,24 +29557,28 @@
       <c r="N157" s="12">
         <v>180</v>
       </c>
-      <c r="O157" s="12"/>
-      <c r="P157" s="14"/>
+      <c r="O157" s="12">
+        <v>28</v>
+      </c>
+      <c r="P157" s="14">
+        <v>163</v>
+      </c>
       <c r="Q157" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
         <v>0</v>
       </c>
       <c r="R157" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="S157" s="14"/>
       <c r="T157" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U157" s="15" t="str">
+        <v>82</v>
+      </c>
+      <c r="U157" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R157,$R$150:$R$157,1),"A definir")</f>
-        <v>A definir</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -25875,7 +29826,8 @@
         <v>28</v>
       </c>
       <c r="P162" s="8">
-        <v>138</v>
+        <f>138-5</f>
+        <v>133</v>
       </c>
       <c r="Q162" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
@@ -25883,16 +29835,16 @@
       </c>
       <c r="R162" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="S162" s="8"/>
       <c r="T162" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="U162" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R162,$R$158:$R$164,1),"A definir")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -25941,11 +29893,11 @@
       <c r="S163" s="8"/>
       <c r="T163" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U163" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R163,$R$158:$R$164,1),"A definir")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -27661,7 +31613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>36</v>
       </c>
@@ -27712,7 +31664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>36</v>
       </c>
@@ -27763,7 +31715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>36</v>
       </c>
@@ -27814,7 +31766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>36</v>
       </c>
@@ -27865,7 +31817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>36</v>
       </c>
@@ -27916,7 +31868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C203" s="12" t="s">
         <v>36</v>
       </c>
@@ -27993,28 +31945,31 @@
         <v>25</v>
       </c>
       <c r="M204">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N204">
         <v>600</v>
+      </c>
+      <c r="O204">
+        <v>121</v>
       </c>
       <c r="P204" s="8"/>
       <c r="Q204" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R204" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S204" s="8"/>
       <c r="T204" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U204" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="U204" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R204,$R$204:$R$211,1),"A definir")</f>
-        <v>A definir</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28041,28 +31996,31 @@
         <v>25</v>
       </c>
       <c r="M205">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N205">
         <v>600</v>
+      </c>
+      <c r="O205">
+        <v>83</v>
       </c>
       <c r="P205" s="8"/>
       <c r="Q205" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R205" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S205" s="8"/>
       <c r="T205" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U205" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="U205" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R205,$R$204:$R$211,1),"A definir")</f>
-        <v>A definir</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28089,28 +32047,31 @@
         <v>25</v>
       </c>
       <c r="M206">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N206">
         <v>600</v>
+      </c>
+      <c r="O206">
+        <v>82</v>
       </c>
       <c r="P206" s="8"/>
       <c r="Q206" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R206" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S206" s="8"/>
       <c r="T206" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U206" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="U206" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R206,$R$204:$R$211,1),"A definir")</f>
-        <v>A definir</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28137,28 +32098,31 @@
         <v>25</v>
       </c>
       <c r="M207">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N207">
         <v>600</v>
+      </c>
+      <c r="O207">
+        <v>63</v>
       </c>
       <c r="P207" s="8"/>
       <c r="Q207" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="R207" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="S207" s="8"/>
       <c r="T207" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U207" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="U207" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R207,$R$204:$R$211,1),"A definir")</f>
-        <v>A definir</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28185,28 +32149,31 @@
         <v>25</v>
       </c>
       <c r="M208">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N208">
         <v>600</v>
+      </c>
+      <c r="O208">
+        <v>79</v>
       </c>
       <c r="P208" s="8"/>
       <c r="Q208" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R208" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S208" s="8"/>
       <c r="T208" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U208" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="U208" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R208,$R$204:$R$211,1),"A definir")</f>
-        <v>A definir</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28233,28 +32200,31 @@
         <v>25</v>
       </c>
       <c r="M209">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N209">
         <v>600</v>
+      </c>
+      <c r="O209">
+        <v>23</v>
       </c>
       <c r="P209" s="8"/>
       <c r="Q209" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="R209" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="S209" s="8"/>
       <c r="T209" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U209" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="U209" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R209,$R$204:$R$211,1),"A definir")</f>
-        <v>A definir</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28281,28 +32251,31 @@
         <v>25</v>
       </c>
       <c r="M210">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N210">
         <v>600</v>
+      </c>
+      <c r="O210">
+        <v>35</v>
       </c>
       <c r="P210" s="8"/>
       <c r="Q210" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="R210" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="S210" s="8"/>
       <c r="T210" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U210" s="1" t="str">
+        <v>85</v>
+      </c>
+      <c r="U210" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R210,$R$204:$R$211,1),"A definir")</f>
-        <v>A definir</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="3:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -28331,29 +32304,31 @@
         <v>25</v>
       </c>
       <c r="M211" s="12">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N211" s="12">
         <v>600</v>
       </c>
-      <c r="O211" s="12"/>
+      <c r="O211" s="12">
+        <v>30</v>
+      </c>
       <c r="P211" s="14"/>
       <c r="Q211" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R211" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S211" s="14"/>
       <c r="T211" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U211" s="15" t="str">
+        <v>82</v>
+      </c>
+      <c r="U211" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R211,$R$204:$R$211,1),"A definir")</f>
-        <v>A definir</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="3:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28380,7 +32355,7 @@
         <v>25</v>
       </c>
       <c r="M212">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N212">
         <v>600</v>
@@ -28391,11 +32366,11 @@
       <c r="P212" s="8"/>
       <c r="Q212" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="R212" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="S212" s="8"/>
       <c r="T212" s="1">
@@ -28431,7 +32406,7 @@
         <v>25</v>
       </c>
       <c r="M213">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N213">
         <v>600</v>
@@ -28442,11 +32417,11 @@
       <c r="P213" s="8"/>
       <c r="Q213" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="R213" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="S213" s="8"/>
       <c r="T213" s="1">
@@ -28482,7 +32457,7 @@
         <v>25</v>
       </c>
       <c r="M214">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N214">
         <v>600</v>
@@ -28493,11 +32468,11 @@
       <c r="P214" s="8"/>
       <c r="Q214" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="R214" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="S214" s="8"/>
       <c r="T214" s="1">
@@ -28533,7 +32508,7 @@
         <v>25</v>
       </c>
       <c r="M215">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N215">
         <v>600</v>
@@ -28544,11 +32519,11 @@
       <c r="P215" s="8"/>
       <c r="Q215" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="R215" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="S215" s="8"/>
       <c r="T215" s="1">
@@ -28584,7 +32559,7 @@
         <v>25</v>
       </c>
       <c r="M216">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N216">
         <v>600</v>
@@ -28595,11 +32570,11 @@
       <c r="P216" s="8"/>
       <c r="Q216" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="R216" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="S216" s="8"/>
       <c r="T216" s="1">
@@ -28635,7 +32610,7 @@
         <v>25</v>
       </c>
       <c r="M217">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N217">
         <v>600</v>
@@ -28646,11 +32621,11 @@
       <c r="P217" s="8"/>
       <c r="Q217" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="R217" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="S217" s="8"/>
       <c r="T217" s="1">
@@ -28688,7 +32663,7 @@
         <v>25</v>
       </c>
       <c r="M218" s="12">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N218" s="12">
         <v>600</v>
@@ -28699,11 +32674,11 @@
       <c r="P218" s="14"/>
       <c r="Q218" s="14">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="R218" s="14">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="S218" s="14"/>
       <c r="T218" s="15">
@@ -31869,7 +35844,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32144,7 +36119,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32207,19 +36182,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="8">
+        <v>100</v>
+      </c>
+      <c r="C5" s="8">
         <v>97</v>
       </c>
-      <c r="C5" s="8">
-        <v>94</v>
-      </c>
       <c r="D5" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -32230,25 +36205,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B6" s="8">
+        <v>97</v>
+      </c>
+      <c r="C6" s="8">
+        <v>94</v>
+      </c>
+      <c r="D6" s="8">
         <v>100</v>
       </c>
-      <c r="C6" s="8">
-        <v>97</v>
-      </c>
-      <c r="D6" s="8">
-        <v>91</v>
-      </c>
       <c r="E6" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -32262,7 +36237,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" s="8">
         <v>94</v>
@@ -32271,7 +36246,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -32285,7 +36260,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" s="8">
         <v>85</v>
@@ -32294,47 +36269,47 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8">
         <v>88</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>85</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>91</v>
-      </c>
-      <c r="E9" s="8">
-        <v>88</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B10" s="8">
+        <v>88</v>
+      </c>
+      <c r="C10" s="8">
         <v>85</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>88</v>
       </c>
-      <c r="D10" s="8">
-        <v>85</v>
-      </c>
       <c r="E10" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -32354,7 +36329,7 @@
         <v>555</v>
       </c>
       <c r="D11" s="26">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E11" s="26">
         <v>555</v>
@@ -32363,7 +36338,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="10">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
   </sheetData>
@@ -32376,7 +36351,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32539,7 +36514,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32771,7 +36746,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -32843,7 +36818,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E5" s="8">
         <v>100</v>
@@ -32852,24 +36827,24 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="8">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E6" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -32880,25 +36855,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B7" s="8">
+        <v>88</v>
+      </c>
+      <c r="C7" s="8">
         <v>100</v>
       </c>
-      <c r="C7" s="8">
-        <v>94</v>
-      </c>
       <c r="D7" s="8">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E7" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -33026,7 +37001,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -33098,131 +37073,131 @@
         <v>100</v>
       </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>194</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D6" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>194</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="8">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>188</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="8">
+        <v>97</v>
+      </c>
+      <c r="C8" s="8">
+        <v>97</v>
+      </c>
+      <c r="D8" s="8">
         <v>85</v>
       </c>
-      <c r="B8" s="8">
+      <c r="E8" s="8">
         <v>85</v>
-      </c>
-      <c r="C8" s="8">
-        <v>91</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>176</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" s="8">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8">
+        <v>91</v>
+      </c>
+      <c r="D9" s="8">
+        <v>91</v>
+      </c>
+      <c r="E9" s="8">
         <v>94</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <v>173</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="8">
+        <v>85</v>
+      </c>
+      <c r="C10" s="8">
+        <v>85</v>
+      </c>
+      <c r="D10" s="8">
+        <v>97</v>
+      </c>
+      <c r="E10" s="8">
         <v>88</v>
-      </c>
-      <c r="B10" s="8">
-        <v>91</v>
-      </c>
-      <c r="C10" s="27">
-        <v>82</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>173</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -33236,39 +37211,39 @@
         <v>79</v>
       </c>
       <c r="D11" s="8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>170</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8">
-        <v>85</v>
-      </c>
-      <c r="C12" s="8">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="C12" s="27">
+        <v>82</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>170</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -33282,16 +37257,16 @@
         <v>716</v>
       </c>
       <c r="D13" s="26">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="E13" s="26">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="F13" s="26">
         <v>0</v>
       </c>
       <c r="G13" s="10">
-        <v>1438</v>
+        <v>2870</v>
       </c>
     </row>
   </sheetData>

--- a/Bnkr Intergames Leaderboard V2.xlsx
+++ b/Bnkr Intergames Leaderboard V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777A23ED-69D6-401F-B79E-C4567411796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30F66B1-AA46-4270-8DCB-9170E21DF0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="797" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Dados" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="63" r:id="rId11"/>
+    <pivotCache cacheId="72" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -532,7 +532,985 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2313">
+  <dxfs count="2601">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC3399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -8569,7 +9547,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.588347337965" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Urquiza" refreshedDate="45948.590973148152" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF3A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -11741,12 +12719,12 @@
     <n v="36"/>
     <n v="180"/>
     <n v="36"/>
-    <n v="104"/>
+    <n v="75"/>
     <n v="0"/>
-    <n v="104"/>
-    <m/>
-    <n v="94"/>
-    <n v="3"/>
+    <n v="75"/>
+    <m/>
+    <n v="100"/>
+    <n v="1"/>
   </r>
   <r>
     <n v="156"/>
@@ -11791,8 +12769,8 @@
     <n v="0"/>
     <n v="100"/>
     <m/>
-    <n v="97"/>
-    <n v="2"/>
+    <n v="94"/>
+    <n v="3"/>
   </r>
   <r>
     <n v="158"/>
@@ -11837,8 +12815,8 @@
     <n v="0"/>
     <n v="98"/>
     <m/>
-    <n v="100"/>
-    <n v="1"/>
+    <n v="97"/>
+    <n v="2"/>
   </r>
   <r>
     <n v="165"/>
@@ -15202,7 +16180,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15666,61 +16644,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="9" baseItem="90" numFmtId="41"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="2304">
+    <format dxfId="2592">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2303">
+    <format dxfId="2591">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2302">
+    <format dxfId="2590">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2301">
+    <format dxfId="2589">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2300">
+    <format dxfId="2588">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2299">
+    <format dxfId="2587">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2298">
+    <format dxfId="2586">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2297">
+    <format dxfId="2585">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2296">
+    <format dxfId="2584">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2295">
+    <format dxfId="2583">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2294">
+    <format dxfId="2582">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2293">
+    <format dxfId="2581">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2292">
+    <format dxfId="2580">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2291">
+    <format dxfId="2579">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2290">
+    <format dxfId="2578">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2289">
+    <format dxfId="2577">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2288">
+    <format dxfId="2576">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2287">
+    <format dxfId="2575">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2286">
+    <format dxfId="2574">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15729,7 +16707,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2285">
+    <format dxfId="2573">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15738,7 +16716,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2284">
+    <format dxfId="2572">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15747,7 +16725,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2283">
+    <format dxfId="2571">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15756,7 +16734,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2282">
+    <format dxfId="2570">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15765,7 +16743,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2281">
+    <format dxfId="2569">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15774,7 +16752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2280">
+    <format dxfId="2568">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15783,7 +16761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2279">
+    <format dxfId="2567">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15792,7 +16770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2278">
+    <format dxfId="2566">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15801,31 +16779,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2277">
+    <format dxfId="2565">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2276">
+    <format dxfId="2564">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2275">
+    <format dxfId="2563">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2274">
+    <format dxfId="2562">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2273">
+    <format dxfId="2561">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15842,7 +16820,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica2" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16243,10 +17221,10 @@
       <x v="177"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="227"/>
     </i>
     <i>
-      <x v="227"/>
+      <x v="29"/>
     </i>
     <i>
       <x v="249"/>
@@ -16288,61 +17266,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="2272">
+    <format dxfId="2560">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2271">
+    <format dxfId="2559">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2270">
+    <format dxfId="2558">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2269">
+    <format dxfId="2557">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2268">
+    <format dxfId="2556">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2267">
+    <format dxfId="2555">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2266">
+    <format dxfId="2554">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2265">
+    <format dxfId="2553">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2264">
+    <format dxfId="2552">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2263">
+    <format dxfId="2551">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2262">
+    <format dxfId="2550">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2261">
+    <format dxfId="2549">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2260">
+    <format dxfId="2548">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2259">
+    <format dxfId="2547">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2258">
+    <format dxfId="2546">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2257">
+    <format dxfId="2545">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2256">
+    <format dxfId="2544">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2255">
+    <format dxfId="2543">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2254">
+    <format dxfId="2542">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16351,7 +17329,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2253">
+    <format dxfId="2541">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16360,7 +17338,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2252">
+    <format dxfId="2540">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16369,7 +17347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2251">
+    <format dxfId="2539">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16378,7 +17356,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2250">
+    <format dxfId="2538">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16387,7 +17365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2249">
+    <format dxfId="2537">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16396,7 +17374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2248">
+    <format dxfId="2536">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16405,7 +17383,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2247">
+    <format dxfId="2535">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16414,7 +17392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2246">
+    <format dxfId="2534">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -16423,51 +17401,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2245">
+    <format dxfId="2533">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2244">
+    <format dxfId="2532">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2243">
+    <format dxfId="2531">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2242">
+    <format dxfId="2530">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2241">
+    <format dxfId="2529">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2240">
+    <format dxfId="2528">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2239">
+    <format dxfId="2527">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2238">
+    <format dxfId="2526">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2237">
+    <format dxfId="2525">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16484,7 +17462,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica2" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -16939,61 +17917,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="2236">
+    <format dxfId="2524">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2235">
+    <format dxfId="2523">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2234">
+    <format dxfId="2522">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2233">
+    <format dxfId="2521">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2232">
+    <format dxfId="2520">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2231">
+    <format dxfId="2519">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2230">
+    <format dxfId="2518">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2229">
+    <format dxfId="2517">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2228">
+    <format dxfId="2516">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2227">
+    <format dxfId="2515">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2226">
+    <format dxfId="2514">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2225">
+    <format dxfId="2513">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2224">
+    <format dxfId="2512">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2223">
+    <format dxfId="2511">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2222">
+    <format dxfId="2510">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2221">
+    <format dxfId="2509">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2220">
+    <format dxfId="2508">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2219">
+    <format dxfId="2507">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2218">
+    <format dxfId="2506">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17002,7 +17980,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2217">
+    <format dxfId="2505">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17011,7 +17989,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2216">
+    <format dxfId="2504">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17020,7 +17998,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2215">
+    <format dxfId="2503">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17029,7 +18007,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2214">
+    <format dxfId="2502">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17038,7 +18016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2213">
+    <format dxfId="2501">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17047,7 +18025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2212">
+    <format dxfId="2500">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17056,7 +18034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2211">
+    <format dxfId="2499">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17065,7 +18043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2210">
+    <format dxfId="2498">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17074,47 +18052,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2209">
+    <format dxfId="2497">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2208">
+    <format dxfId="2496">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2207">
+    <format dxfId="2495">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2206">
+    <format dxfId="2494">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2205">
+    <format dxfId="2493">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2204">
+    <format dxfId="2492">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2203">
+    <format dxfId="2491">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2202">
+    <format dxfId="2490">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2201">
+    <format dxfId="2489">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -17131,7 +18109,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="Tabela dinâmica2" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -17580,61 +18558,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="2200">
+    <format dxfId="2488">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2199">
+    <format dxfId="2487">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2198">
+    <format dxfId="2486">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2197">
+    <format dxfId="2485">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2196">
+    <format dxfId="2484">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2195">
+    <format dxfId="2483">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2194">
+    <format dxfId="2482">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2193">
+    <format dxfId="2481">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2192">
+    <format dxfId="2480">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2191">
+    <format dxfId="2479">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2190">
+    <format dxfId="2478">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2189">
+    <format dxfId="2477">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2188">
+    <format dxfId="2476">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2187">
+    <format dxfId="2475">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2186">
+    <format dxfId="2474">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2185">
+    <format dxfId="2473">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2184">
+    <format dxfId="2472">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2183">
+    <format dxfId="2471">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2182">
+    <format dxfId="2470">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17643,7 +18621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2181">
+    <format dxfId="2469">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17652,7 +18630,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2180">
+    <format dxfId="2468">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17661,7 +18639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2179">
+    <format dxfId="2467">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17670,7 +18648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2178">
+    <format dxfId="2466">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17679,7 +18657,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2177">
+    <format dxfId="2465">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17688,7 +18666,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2176">
+    <format dxfId="2464">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17697,7 +18675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2175">
+    <format dxfId="2463">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17706,7 +18684,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2174">
+    <format dxfId="2462">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -17715,51 +18693,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2173">
+    <format dxfId="2461">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2172">
+    <format dxfId="2460">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2171">
+    <format dxfId="2459">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2170">
+    <format dxfId="2458">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2169">
+    <format dxfId="2457">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2168">
+    <format dxfId="2456">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2167">
+    <format dxfId="2455">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2166">
+    <format dxfId="2454">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2165">
+    <format dxfId="2453">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -17776,7 +18754,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A682F1A-3D34-4512-A2BC-E01FC70FC308}" name="Tabela dinâmica2" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -18215,61 +19193,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="2164">
+    <format dxfId="2452">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2163">
+    <format dxfId="2451">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2162">
+    <format dxfId="2450">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2161">
+    <format dxfId="2449">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2160">
+    <format dxfId="2448">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2159">
+    <format dxfId="2447">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2158">
+    <format dxfId="2446">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2157">
+    <format dxfId="2445">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2156">
+    <format dxfId="2444">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2155">
+    <format dxfId="2443">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2154">
+    <format dxfId="2442">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2153">
+    <format dxfId="2441">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2152">
+    <format dxfId="2440">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2151">
+    <format dxfId="2439">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2150">
+    <format dxfId="2438">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2149">
+    <format dxfId="2437">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2148">
+    <format dxfId="2436">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2147">
+    <format dxfId="2435">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2146">
+    <format dxfId="2434">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18278,7 +19256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2145">
+    <format dxfId="2433">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18287,7 +19265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2144">
+    <format dxfId="2432">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18296,7 +19274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2143">
+    <format dxfId="2431">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18305,7 +19283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2142">
+    <format dxfId="2430">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18314,7 +19292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2141">
+    <format dxfId="2429">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18323,7 +19301,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2140">
+    <format dxfId="2428">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18332,7 +19310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2139">
+    <format dxfId="2427">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18341,7 +19319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2138">
+    <format dxfId="2426">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18350,51 +19328,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2137">
+    <format dxfId="2425">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2136">
+    <format dxfId="2424">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2135">
+    <format dxfId="2423">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2134">
+    <format dxfId="2422">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2133">
+    <format dxfId="2421">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2132">
+    <format dxfId="2420">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2131">
+    <format dxfId="2419">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2130">
+    <format dxfId="2418">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2129">
+    <format dxfId="2417">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -18411,7 +19389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7998A3E6-DBB8-4CBB-A713-E74CE0397481}" name="Tabela dinâmica2" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -18860,61 +19838,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="2128">
+    <format dxfId="2416">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2127">
+    <format dxfId="2415">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2126">
+    <format dxfId="2414">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2125">
+    <format dxfId="2413">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2124">
+    <format dxfId="2412">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2123">
+    <format dxfId="2411">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2122">
+    <format dxfId="2410">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2121">
+    <format dxfId="2409">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2120">
+    <format dxfId="2408">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2119">
+    <format dxfId="2407">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2118">
+    <format dxfId="2406">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2117">
+    <format dxfId="2405">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2116">
+    <format dxfId="2404">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2115">
+    <format dxfId="2403">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2114">
+    <format dxfId="2402">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2113">
+    <format dxfId="2401">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2112">
+    <format dxfId="2400">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2111">
+    <format dxfId="2399">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2110">
+    <format dxfId="2398">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18923,7 +19901,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2109">
+    <format dxfId="2397">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18932,7 +19910,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2108">
+    <format dxfId="2396">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18941,7 +19919,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2107">
+    <format dxfId="2395">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18950,7 +19928,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2106">
+    <format dxfId="2394">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18959,7 +19937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2105">
+    <format dxfId="2393">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18968,7 +19946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2104">
+    <format dxfId="2392">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18977,7 +19955,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2103">
+    <format dxfId="2391">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18986,7 +19964,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2102">
+    <format dxfId="2390">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -18995,51 +19973,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2101">
+    <format dxfId="2389">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2100">
+    <format dxfId="2388">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2099">
+    <format dxfId="2387">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2098">
+    <format dxfId="2386">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2097">
+    <format dxfId="2385">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2096">
+    <format dxfId="2384">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2095">
+    <format dxfId="2383">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2094">
+    <format dxfId="2382">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2093">
+    <format dxfId="2381">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -19056,7 +20034,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000004000000}" name="Tabela dinâmica2" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -19508,61 +20486,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="2092">
+    <format dxfId="2380">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2091">
+    <format dxfId="2379">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2090">
+    <format dxfId="2378">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2089">
+    <format dxfId="2377">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2088">
+    <format dxfId="2376">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2087">
+    <format dxfId="2375">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2086">
+    <format dxfId="2374">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2085">
+    <format dxfId="2373">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2084">
+    <format dxfId="2372">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2083">
+    <format dxfId="2371">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2082">
+    <format dxfId="2370">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2081">
+    <format dxfId="2369">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2080">
+    <format dxfId="2368">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2079">
+    <format dxfId="2367">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2078">
+    <format dxfId="2366">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2077">
+    <format dxfId="2365">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2076">
+    <format dxfId="2364">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2075">
+    <format dxfId="2363">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2074">
+    <format dxfId="2362">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19571,7 +20549,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2073">
+    <format dxfId="2361">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19580,7 +20558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2072">
+    <format dxfId="2360">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19589,7 +20567,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2071">
+    <format dxfId="2359">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19598,7 +20576,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2070">
+    <format dxfId="2358">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19607,7 +20585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2069">
+    <format dxfId="2357">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19616,7 +20594,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2068">
+    <format dxfId="2356">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19625,7 +20603,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2067">
+    <format dxfId="2355">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19634,7 +20612,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2066">
+    <format dxfId="2354">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -19643,51 +20621,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2065">
+    <format dxfId="2353">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2064">
+    <format dxfId="2352">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2063">
+    <format dxfId="2351">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2062">
+    <format dxfId="2350">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2061">
+    <format dxfId="2349">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2060">
+    <format dxfId="2348">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2059">
+    <format dxfId="2347">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2058">
+    <format dxfId="2346">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2057">
+    <format dxfId="2345">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -19704,7 +20682,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000005000000}" name="Tabela dinâmica2" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Equipe/Atleta" colHeaderCaption="Provas">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -20159,61 +21137,61 @@
     <dataField name="Soma de Pontuação" fld="19" baseField="8" baseItem="1" numFmtId="41"/>
   </dataFields>
   <formats count="40">
-    <format dxfId="2056">
+    <format dxfId="2344">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2055">
+    <format dxfId="2343">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2054">
+    <format dxfId="2342">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2053">
+    <format dxfId="2341">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2052">
+    <format dxfId="2340">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2051">
+    <format dxfId="2339">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2050">
+    <format dxfId="2338">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2049">
+    <format dxfId="2337">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2048">
+    <format dxfId="2336">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2047">
+    <format dxfId="2335">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2046">
+    <format dxfId="2334">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2045">
+    <format dxfId="2333">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2044">
+    <format dxfId="2332">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2043">
+    <format dxfId="2331">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2042">
+    <format dxfId="2330">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2041">
+    <format dxfId="2329">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2040">
+    <format dxfId="2328">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2039">
+    <format dxfId="2327">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2038">
+    <format dxfId="2326">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20222,7 +21200,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2037">
+    <format dxfId="2325">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -20231,7 +21209,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2036">
+    <format dxfId="2324">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -20240,7 +21218,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2035">
+    <format dxfId="2323">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -20249,7 +21227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2034">
+    <format dxfId="2322">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -20258,7 +21236,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2033">
+    <format dxfId="2321">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -20267,7 +21245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2032">
+    <format dxfId="2320">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -20276,7 +21254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2031">
+    <format dxfId="2319">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -20285,7 +21263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2030">
+    <format dxfId="2318">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -20294,71 +21272,71 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2029">
+    <format dxfId="2317">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2028">
+    <format dxfId="2316">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2027">
+    <format dxfId="2315">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2026">
+    <format dxfId="2314">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="2025">
+    <format dxfId="2313">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2024">
+    <format dxfId="2312">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2023">
+    <format dxfId="2311">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2022">
+    <format dxfId="2310">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2021">
+    <format dxfId="2309">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2020">
+    <format dxfId="2308">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2019">
+    <format dxfId="2307">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2018">
+    <format dxfId="2306">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2017">
+    <format dxfId="2305">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -20417,11 +21395,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="2312">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A2:U272" totalsRowShown="0" headerRowDxfId="2600">
   <autoFilter ref="A2:U272" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Interm Masc"/>
+        <filter val="Scaled Masc"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
@@ -20441,23 +21419,23 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sessão"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Movimento"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Equipe/Atleta"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="2311"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Raia" dataDxfId="2599"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Judge"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reps Cap"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Time Cap (s)"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Reps"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="2310"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="2309">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tempo CP (s)" dataDxfId="2598"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tempo P. (s)" dataDxfId="2597">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="2308">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tempo Final (s)" dataDxfId="2596">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="2307"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="2306">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tempo Final (min)" dataDxfId="2595"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontuação" dataDxfId="2594">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="2305">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colocação" dataDxfId="2593">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R3,$R$3:$R$13),"A definir")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20469,7 +21447,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="2016"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colocação" dataDxfId="2304"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pontos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -20775,11 +21753,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P277" sqref="P277"/>
+      <selection pane="bottomRight" activeCell="Q280" sqref="Q280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -20809,11 +21787,11 @@
     <row r="1" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11">
         <f>SUBTOTAL(3,C3:C2352)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="11">
         <f>SUBTOTAL(3,J3:J2352)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -27605,7 +28583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>24</v>
       </c>
@@ -27640,8 +28618,9 @@
       <c r="O122">
         <v>36</v>
       </c>
-      <c r="P122" s="8">
-        <v>104</v>
+      <c r="P122" s="29">
+        <f>104-4-25</f>
+        <v>75</v>
       </c>
       <c r="Q122" s="8">
         <f>IF(AND(Tabela2[[#This Row],[Reps]]&lt;Tabela2[[#This Row],[Reps Cap]],Tabela2[[#This Row],[Reps]]&gt;0),(Tabela2[[#This Row],[Reps Cap]]-Tabela2[[#This Row],[Reps]])*1,0)</f>
@@ -27649,19 +28628,19 @@
       </c>
       <c r="R122" s="8">
         <f>SUM(Tabela2[[#This Row],[Tempo CP (s)]],Tabela2[[#This Row],[Tempo P. (s)]])</f>
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="S122" s="8"/>
       <c r="T122" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="U122" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R122,$R$122:$R$126,1),"A definir")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>156</v>
       </c>
@@ -27720,7 +28699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>157</v>
       </c>
@@ -27772,14 +28751,14 @@
       <c r="S124" s="8"/>
       <c r="T124" s="1">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U124" s="1">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R124,$R$122:$R$126,1),"A definir")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>158</v>
       </c>
@@ -27838,7 +28817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>159</v>
       </c>
@@ -27890,11 +28869,11 @@
       <c r="S126" s="14"/>
       <c r="T126" s="15">
         <f>IFERROR(VLOOKUP(Tabela2[[#This Row],[Colocação]],Tabela1[#All],2,0),0)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U126" s="15">
         <f>IF(Tabela2[[#This Row],[Tempo Final (s)]]&gt;0,_xlfn.RANK.EQ(R126,$R$122:$R$126,1),"A definir")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -28347,7 +29326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>175</v>
       </c>
@@ -28404,7 +29383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>176</v>
       </c>
@@ -28460,7 +29439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>177</v>
       </c>
@@ -28516,7 +29495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>178</v>
       </c>
@@ -28572,7 +29551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>183</v>
       </c>
@@ -28631,7 +29610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>184</v>
       </c>
@@ -35634,8 +36613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -35707,7 +36686,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" s="8">
         <v>97</v>
@@ -35716,47 +36695,47 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="8">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8">
         <v>97</v>
-      </c>
-      <c r="C6" s="8">
-        <v>94</v>
       </c>
       <c r="D6" s="8">
         <v>100</v>
       </c>
       <c r="E6" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C7" s="8">
+        <v>94</v>
+      </c>
+      <c r="D7" s="8">
         <v>97</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>94</v>
-      </c>
-      <c r="E7" s="8">
-        <v>100</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
